--- a/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
+++ b/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B089C930-7954-405F-9AEE-6A9297BBFA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209BA9F6-7B57-4FE3-8147-8217085A1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7050" yWindow="-14355" windowWidth="21600" windowHeight="11325" tabRatio="808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -47,24 +47,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DACAAB04-91D6-46CD-8CAD-86D83E03E1FB}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{DACAAB04-91D6-46CD-8CAD-86D83E03E1FB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    only for structure_model = true</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={F9E69303-9E09-4AB4-B248-45D2ABEF281C}</author>
   </authors>
   <commentList>
@@ -82,7 +64,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Chiel</author>
@@ -190,7 +172,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FAFA8C7C-6800-4018-947D-B9F524B630BA}</author>
@@ -209,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="277">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -999,15 +981,6 @@
     <t>Simulation name</t>
   </si>
   <si>
-    <t>structure_model</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>pH_included</t>
-  </si>
-  <si>
     <t>Neut</t>
   </si>
   <si>
@@ -1023,12 +996,6 @@
     <t>[O2]=6mg/L</t>
   </si>
   <si>
-    <t>constantpH</t>
-  </si>
-  <si>
-    <t>inacivationBac</t>
-  </si>
-  <si>
     <t>kDist</t>
   </si>
   <si>
@@ -1200,21 +1167,6 @@
     <t>Threshold for the initial RES value that needs to be reached for increase of dT bacterial. Default: 20%</t>
   </si>
   <si>
-    <t>structure model?</t>
-  </si>
-  <si>
-    <t>pH calculated</t>
-  </si>
-  <si>
-    <t>speciation</t>
-  </si>
-  <si>
-    <t>inactivation bacteria</t>
-  </si>
-  <si>
-    <t>detachment method</t>
-  </si>
-  <si>
     <t>NH3 setpoint</t>
   </si>
   <si>
@@ -1260,9 +1212,6 @@
     <t>CALCULATED Representative volume of the reactor that is modelled in the simulation domain</t>
   </si>
   <si>
-    <t>variableHRT</t>
-  </si>
-  <si>
     <t>Diffusivity</t>
   </si>
   <si>
@@ -1486,6 +1435,24 @@
   </si>
   <si>
     <t>Fill in the charge per subcomponent. If subcomponent does not exist, fill in 'NA'</t>
+  </si>
+  <si>
+    <t>pH bulk concentration corrected</t>
+  </si>
+  <si>
+    <t>Does the bulk liquid need to have the pH from the setpoint</t>
+  </si>
+  <si>
+    <t>Structure model type</t>
+  </si>
+  <si>
+    <t>Structure model</t>
+  </si>
+  <si>
+    <t>Is this a model for structure simulations (has some hardcoded properties in the model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the structure model simulations is this? Neut: Neutralism, Comp: Competition, Comm: Commensalism, Copr: Coprotection </t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1744,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1845,12 +1812,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2944,7 +2905,7 @@
     <xf numFmtId="0" fontId="36" fillId="11" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
@@ -3169,9 +3130,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3302,7 +3260,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3362,6 +3319,198 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="64" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="62" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="63" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="42" fillId="12" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="66" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="71" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="71" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="70" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="42" fillId="12" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="72" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="66" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="68" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="75" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="76" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="77" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="78" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="79" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="80" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="67" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="81" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="82" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="83" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3419,219 +3568,28 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="64" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="62" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="63" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="42" fillId="13" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="66" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="71" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="71" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="70" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="42" fillId="13" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="72" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="66" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="68" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="75" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="76" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="77" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="78" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="79" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="80" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="67" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="81" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="82" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="83" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3647,20 +3605,16 @@
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="85">
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3946,6 +3900,20 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
@@ -4103,6 +4071,16 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4445,14 +4423,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2021-11-08T19:48:53.62" personId="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" id="{DACAAB04-91D6-46CD-8CAD-86D83E03E1FB}">
-    <text>only for structure_model = true</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B27" dT="2021-11-08T15:11:31.98" personId="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" id="{F9E69303-9E09-4AB4-B248-45D2ABEF281C}">
     <text>variable HRT (fix [S]sp)</text>
   </threadedComment>
@@ -4462,7 +4432,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B5" dT="2021-05-06T16:02:09.77" personId="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" id="{FAFA8C7C-6800-4018-947D-B9F524B630BA}">
     <text>From [Strous1998]</text>
@@ -4486,35 +4456,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="103" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
-        <v>130</v>
+      <c r="A2" s="102" t="s">
+        <v>125</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="69" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4544,14 +4514,14 @@
       <c r="A1" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="145">
+      <c r="B1" s="144">
         <v>1E-10</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="187" t="s">
-        <v>255</v>
+      <c r="D1" s="249" t="s">
+        <v>244</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
@@ -4561,13 +4531,13 @@
       <c r="A2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="145">
+      <c r="B2" s="144">
         <v>1E-10</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="187"/>
+      <c r="D2" s="249"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
@@ -4576,13 +4546,13 @@
       <c r="A3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="145">
+      <c r="B3" s="144">
         <v>1E-10</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="187"/>
+      <c r="D3" s="249"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
@@ -4591,13 +4561,13 @@
       <c r="A4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="144">
         <v>1E-10</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="249"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
@@ -4606,58 +4576,58 @@
       <c r="A5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="144">
         <v>1E-10</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="187"/>
+      <c r="D5" s="249"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="151">
+      <c r="B6" s="149">
         <f>B1/2</f>
         <v>5.0000000000000002E-11</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="187"/>
+      <c r="D6" s="249"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="167">
+      <c r="B7" s="165">
         <v>1E-10</v>
       </c>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="187"/>
+      <c r="D7" s="249"/>
       <c r="E7" s="69"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="69"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="162"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="160"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
@@ -4695,318 +4665,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="198" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="198" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" s="199" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="198" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="199" t="s">
-        <v>260</v>
-      </c>
-      <c r="G1" s="199" t="s">
-        <v>278</v>
+      <c r="B1" s="176" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="176" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="177" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="176" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="177" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="177" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="210">
+      <c r="C2" s="185">
         <v>-79.37</v>
       </c>
-      <c r="D2" s="210">
+      <c r="D2" s="185">
         <v>-26.57</v>
       </c>
-      <c r="E2" s="210" t="s">
+      <c r="E2" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="210" t="s">
+      <c r="F2" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="207">
+      <c r="G2" s="182">
         <v>3</v>
       </c>
-      <c r="H2" s="200" t="s">
+      <c r="H2" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="187" t="s">
-        <v>279</v>
+      <c r="I2" s="249" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="210">
+      <c r="C3" s="185">
         <v>-50.6</v>
       </c>
-      <c r="D3" s="210">
+      <c r="D3" s="185">
         <v>-32.200000000000003</v>
       </c>
-      <c r="E3" s="210" t="s">
+      <c r="E3" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="210" t="s">
+      <c r="F3" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="208">
+      <c r="G3" s="183">
         <v>2</v>
       </c>
-      <c r="H3" s="201" t="s">
+      <c r="H3" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="187"/>
+      <c r="I3" s="249"/>
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="210">
+      <c r="C4" s="185">
         <v>-103.7</v>
       </c>
-      <c r="D4" s="210">
+      <c r="D4" s="185">
         <v>-111.3</v>
       </c>
-      <c r="E4" s="210" t="s">
+      <c r="E4" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="210" t="s">
+      <c r="F4" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="208">
+      <c r="G4" s="183">
         <v>2</v>
       </c>
-      <c r="H4" s="201" t="s">
+      <c r="H4" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="187"/>
+      <c r="I4" s="249"/>
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="210">
+      <c r="C5" s="185">
         <v>16.399999999999999</v>
       </c>
-      <c r="D5" s="210" t="s">
+      <c r="D5" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="210" t="s">
+      <c r="E5" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="210" t="s">
+      <c r="F5" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="208">
+      <c r="G5" s="183">
         <v>2</v>
       </c>
-      <c r="H5" s="201" t="s">
+      <c r="H5" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="187"/>
+      <c r="I5" s="249"/>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="210">
+      <c r="B6" s="185">
         <f>-386</f>
         <v>-386</v>
       </c>
-      <c r="C6" s="210">
+      <c r="C6" s="185">
         <v>-623.16</v>
       </c>
-      <c r="D6" s="210">
+      <c r="D6" s="185">
         <v>-586.85</v>
       </c>
-      <c r="E6" s="210">
+      <c r="E6" s="185">
         <v>-527.79999999999995</v>
       </c>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="208">
+      <c r="G6" s="183">
         <v>3</v>
       </c>
-      <c r="H6" s="201" t="s">
+      <c r="H6" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="187"/>
+      <c r="I6" s="249"/>
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="214">
+      <c r="C7" s="189">
         <v>-755.9</v>
       </c>
-      <c r="D7" s="214">
+      <c r="D7" s="189">
         <f>-180.69*4.184</f>
         <v>-756.00696000000005</v>
       </c>
-      <c r="E7" s="214">
+      <c r="E7" s="189">
         <f>-177.97*4.184</f>
         <v>-744.62648000000002</v>
       </c>
-      <c r="F7" s="214" t="s">
+      <c r="F7" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="209">
+      <c r="G7" s="184">
         <v>4</v>
       </c>
       <c r="H7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="187"/>
+      <c r="I7" s="249"/>
     </row>
     <row r="8" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="216">
-        <v>0</v>
-      </c>
-      <c r="D8" s="216" t="s">
+      <c r="C8" s="191">
+        <v>0</v>
+      </c>
+      <c r="D8" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="216" t="s">
+      <c r="E8" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="217" t="s">
+      <c r="F8" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="236">
+      <c r="G8" s="211">
         <v>2</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="187"/>
+      <c r="I8" s="249"/>
     </row>
     <row r="9" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="218" t="s">
+      <c r="B9" s="193" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="216">
-        <v>0</v>
-      </c>
-      <c r="D9" s="216" t="s">
+      <c r="C9" s="191">
+        <v>0</v>
+      </c>
+      <c r="D9" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="216" t="s">
+      <c r="E9" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="217" t="s">
+      <c r="F9" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="236">
+      <c r="G9" s="211">
         <v>2</v>
       </c>
       <c r="H9" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="187"/>
+      <c r="I9" s="249"/>
     </row>
     <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="215" t="s">
+      <c r="B10" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="215">
+      <c r="C10" s="190">
         <v>-237.18</v>
       </c>
-      <c r="D10" s="215">
+      <c r="D10" s="190">
         <v>-157.30000000000001</v>
       </c>
-      <c r="E10" s="215" t="s">
+      <c r="E10" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="215" t="s">
+      <c r="F10" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="235">
+      <c r="G10" s="210">
         <v>2</v>
       </c>
       <c r="H10" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="187"/>
+      <c r="I10" s="249"/>
     </row>
     <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="196" t="s">
+      <c r="A11" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="210">
-        <v>0</v>
-      </c>
-      <c r="D11" s="210" t="s">
+      <c r="C11" s="185">
+        <v>0</v>
+      </c>
+      <c r="D11" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="210" t="s">
+      <c r="E11" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="210" t="s">
+      <c r="F11" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="209">
+      <c r="G11" s="184">
         <v>2</v>
       </c>
       <c r="H11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="187"/>
+      <c r="I11" s="249"/>
     </row>
     <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="205" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="205" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="206" t="s">
-        <v>265</v>
-      </c>
-      <c r="E12" s="205" t="s">
-        <v>266</v>
+      <c r="B12" s="180" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="180" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="181" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="180" t="s">
+        <v>255</v>
       </c>
       <c r="H12" s="72"/>
     </row>
@@ -5014,458 +4984,458 @@
       <c r="A13" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="211">
+      <c r="B13" s="186">
         <f>IF(COUNT(B2,C2)=2, EXP(($C$10+B2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="191">
+      <c r="C13" s="170">
         <f>IF(COUNT(C2,D2)=2, EXP((D2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.9083870641861443E-10</v>
       </c>
-      <c r="D13" s="211">
+      <c r="D13" s="186">
         <f>IF(COUNT(D2,E2)=2, EXP((E2-D2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="211">
+      <c r="E13" s="186">
         <f>IF(COUNT(E2,F2)=2, EXP((F2-E2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="186" t="s">
-        <v>280</v>
+      <c r="I13" s="248" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="211">
+      <c r="B14" s="186">
         <f>IF(COUNT(B3,C3)=2, EXP(($C$10+B3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="191">
+      <c r="C14" s="170">
         <f>IF(COUNT(C3,D3)=2, EXP((D3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.2656707191475868E-4</v>
       </c>
-      <c r="D14" s="211">
+      <c r="D14" s="186">
         <f>IF(COUNT(D3,E3)=2, EXP((E3-D3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="211">
+      <c r="E14" s="186">
         <f>IF(COUNT(E3,F3)=2, EXP((F3-E3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="72"/>
-      <c r="I14" s="186"/>
+      <c r="I14" s="248"/>
     </row>
     <row r="15" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="211">
+      <c r="B15" s="186">
         <f>IF(COUNT(B4,C4)=2, EXP(($C$10+B4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="191">
+      <c r="C15" s="170">
         <f>IF(COUNT(C4,D4)=2, EXP((D4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>22.603837077490315</v>
       </c>
-      <c r="D15" s="211">
+      <c r="D15" s="186">
         <f>IF(COUNT(D4,E4)=2, EXP((E4-D4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="211">
+      <c r="E15" s="186">
         <f>IF(COUNT(E4,F4)=2, EXP((F4-E4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="72"/>
-      <c r="I15" s="186"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="211">
+      <c r="B16" s="186">
         <f>IF(COUNT(B5,C5)=2, EXP(($C$10+B5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="211">
+      <c r="C16" s="186">
         <f>IF(COUNT(C5,D5)=2, EXP((D5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="211">
+      <c r="D16" s="186">
         <f>IF(COUNT(D5,E5)=2, EXP((E5-D5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="211">
+      <c r="E16" s="186">
         <f>IF(COUNT(E5,F5)=2, EXP((F5-E5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="71"/>
-      <c r="I16" s="186"/>
+      <c r="I16" s="248"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="212">
+      <c r="B17" s="187">
         <f>1/0.0017</f>
         <v>588.23529411764707</v>
       </c>
-      <c r="C17" s="191">
+      <c r="C17" s="170">
         <f>IF(COUNT(C6,D6)=2, EXP((D6-C6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.3901312221699524E-7</v>
       </c>
-      <c r="D17" s="191">
+      <c r="D17" s="170">
         <f>IF(COUNT(D6,E6)=2, EXP((E6-D6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.008575507210982E-11</v>
       </c>
-      <c r="E17" s="211">
+      <c r="E17" s="186">
         <f>IF(COUNT(E6,F6)=2, EXP((F6-E6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="71"/>
-      <c r="I17" s="186"/>
+      <c r="I17" s="248"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="220">
+      <c r="B18" s="195">
         <f>IF(COUNT(B7,C7)=2, EXP(($C$10+B7-C7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="233">
+      <c r="C18" s="208">
         <v>100</v>
       </c>
-      <c r="D18" s="234">
+      <c r="D18" s="209">
         <f>10^(-1.92)</f>
         <v>1.2022644346174125E-2</v>
       </c>
-      <c r="E18" s="221">
+      <c r="E18" s="196">
         <f>IF(COUNT(E7,F7)=2, EXP((F7-E7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="71"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="186"/>
+      <c r="I18" s="248"/>
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="166" t="s">
+      <c r="A19" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="231">
+      <c r="B19" s="206">
         <f>IF(COUNT(B8,C8)=2, EXP(($C$10+B8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="232">
+      <c r="C19" s="207">
         <f>IF(COUNT(C8,D8)=2, EXP((D8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="232">
+      <c r="D19" s="207">
         <f>IF(COUNT(D8,E8)=2, EXP((E8-D8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="232">
+      <c r="E19" s="207">
         <f>IF(COUNT(E8,F8)=2, EXP((F8-E8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="71"/>
       <c r="H19" s="71"/>
-      <c r="I19" s="186"/>
+      <c r="I19" s="248"/>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="222">
+      <c r="B20" s="197">
         <f>IF(COUNT(B9,C9)=2, EXP(($C$10+B9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="223">
+      <c r="C20" s="198">
         <f>IF(COUNT(C9,D9)=2, EXP((D9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="223">
+      <c r="D20" s="198">
         <f>IF(COUNT(D9,E9)=2, EXP((E9-D9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="223">
+      <c r="E20" s="198">
         <f>IF(COUNT(E9,F9)=2, EXP((F9-E9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="186"/>
+      <c r="I20" s="248"/>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="195" t="s">
+      <c r="A21" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="219">
+      <c r="B21" s="194">
         <f>IF(COUNT(B10,C10)=2, EXP(($C$10+B10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="127">
+      <c r="C21" s="126">
         <f>IF(COUNT(C10,D10)=2, EXP((D10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.845648305092005E-15</v>
       </c>
-      <c r="D21" s="219">
+      <c r="D21" s="194">
         <f>IF(COUNT(D10,E10)=2, EXP((E10-D10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="219">
+      <c r="E21" s="194">
         <f>IF(COUNT(E10,F10)=2, EXP((F10-E10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="186"/>
+      <c r="I21" s="248"/>
     </row>
     <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="196" t="s">
+      <c r="A22" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="211">
+      <c r="B22" s="186">
         <f>IF(COUNT(B11,C11)=2, EXP(($C$10+B11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="211">
+      <c r="C22" s="186">
         <f>IF(COUNT(C11,D11)=2, EXP((D11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="211">
+      <c r="D22" s="186">
         <f>IF(COUNT(D11,E11)=2, EXP((E11-D11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="211">
+      <c r="E22" s="186">
         <f>IF(COUNT(E11,F11)=2, EXP((F11-E11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="71"/>
-      <c r="I22" s="186"/>
+      <c r="I22" s="248"/>
     </row>
     <row r="23" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="202" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
+      <c r="A23" s="250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="251"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="251"/>
+      <c r="E23" s="251"/>
+      <c r="F23" s="252"/>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="213" t="s">
+      <c r="B24" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="213">
+      <c r="C24" s="188">
         <v>1</v>
       </c>
-      <c r="D24" s="213">
-        <v>0</v>
-      </c>
-      <c r="E24" s="213" t="s">
+      <c r="D24" s="188">
+        <v>0</v>
+      </c>
+      <c r="E24" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="213" t="s">
+      <c r="F24" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="186" t="s">
-        <v>281</v>
+      <c r="I24" s="248" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="213" t="s">
+      <c r="B25" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="213">
-        <v>0</v>
-      </c>
-      <c r="D25" s="213">
+      <c r="C25" s="188">
+        <v>0</v>
+      </c>
+      <c r="D25" s="188">
         <v>-1</v>
       </c>
-      <c r="E25" s="213" t="s">
+      <c r="E25" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="213" t="s">
+      <c r="F25" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="186"/>
+      <c r="I25" s="248"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="213" t="s">
+      <c r="B26" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="213">
-        <v>0</v>
-      </c>
-      <c r="D26" s="213">
+      <c r="C26" s="188">
+        <v>0</v>
+      </c>
+      <c r="D26" s="188">
         <v>-1</v>
       </c>
-      <c r="E26" s="213" t="s">
+      <c r="E26" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="213" t="s">
+      <c r="F26" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="186"/>
+      <c r="I26" s="248"/>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="213" t="s">
+      <c r="B27" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="213">
-        <v>0</v>
-      </c>
-      <c r="D27" s="213" t="s">
+      <c r="C27" s="188">
+        <v>0</v>
+      </c>
+      <c r="D27" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="213" t="s">
+      <c r="E27" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="213" t="s">
+      <c r="F27" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="186"/>
+      <c r="I27" s="248"/>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="213">
-        <v>0</v>
-      </c>
-      <c r="C28" s="213">
-        <v>0</v>
-      </c>
-      <c r="D28" s="213">
+      <c r="B28" s="188">
+        <v>0</v>
+      </c>
+      <c r="C28" s="188">
+        <v>0</v>
+      </c>
+      <c r="D28" s="188">
         <v>-1</v>
       </c>
-      <c r="E28" s="213">
+      <c r="E28" s="188">
         <v>-2</v>
       </c>
-      <c r="F28" s="213" t="s">
+      <c r="F28" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="186"/>
+      <c r="I28" s="248"/>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="226">
+      <c r="C29" s="201">
         <v>-1</v>
       </c>
-      <c r="D29" s="226">
+      <c r="D29" s="201">
         <v>-2</v>
       </c>
-      <c r="E29" s="226" t="s">
+      <c r="E29" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="226" t="s">
+      <c r="F29" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="186"/>
+      <c r="I29" s="248"/>
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="229" t="s">
+      <c r="B30" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="230">
+      <c r="C30" s="205">
         <v>1</v>
       </c>
-      <c r="D30" s="230" t="s">
+      <c r="D30" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="230" t="s">
+      <c r="E30" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="230" t="s">
+      <c r="F30" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="186"/>
+      <c r="I30" s="248"/>
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="227" t="s">
+      <c r="B31" s="202" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="228">
-        <v>0</v>
-      </c>
-      <c r="D31" s="228" t="s">
+      <c r="C31" s="203">
+        <v>0</v>
+      </c>
+      <c r="D31" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="228" t="s">
+      <c r="E31" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="228" t="s">
+      <c r="F31" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="186"/>
+      <c r="I31" s="248"/>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="195" t="s">
+      <c r="A32" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="224" t="s">
+      <c r="B32" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="224">
-        <v>0</v>
-      </c>
-      <c r="D32" s="224">
+      <c r="C32" s="199">
+        <v>0</v>
+      </c>
+      <c r="D32" s="199">
         <v>-1</v>
       </c>
-      <c r="E32" s="224" t="s">
+      <c r="E32" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="224" t="s">
+      <c r="F32" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="186"/>
+      <c r="I32" s="248"/>
     </row>
     <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="196" t="s">
+      <c r="A33" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="213">
+      <c r="C33" s="188">
         <v>1</v>
       </c>
-      <c r="D33" s="213" t="s">
+      <c r="D33" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="213" t="s">
+      <c r="E33" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="213" t="s">
+      <c r="F33" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="186"/>
+      <c r="I33" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5475,15 +5445,15 @@
     <mergeCell ref="I24:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F11 B24:F33 B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="containsText" dxfId="60" priority="54" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="61" priority="54" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="60" priority="55" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5513,134 +5483,134 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="190" t="s">
+      <c r="E1" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="194" t="s">
-        <v>275</v>
+      <c r="F1" s="253" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="191">
+      <c r="B2" s="170">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C2" s="191">
-        <v>0</v>
-      </c>
-      <c r="D2" s="191">
-        <v>0</v>
-      </c>
-      <c r="E2" s="191">
+      <c r="C2" s="170">
+        <v>0</v>
+      </c>
+      <c r="D2" s="170">
+        <v>0</v>
+      </c>
+      <c r="E2" s="170">
         <f>(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F2" s="194"/>
+      <c r="F2" s="253"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="191">
-        <v>0</v>
-      </c>
-      <c r="C3" s="191">
+        <v>265</v>
+      </c>
+      <c r="B3" s="170">
+        <v>0</v>
+      </c>
+      <c r="C3" s="170">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D3" s="191">
-        <v>0</v>
-      </c>
-      <c r="E3" s="191">
-        <f t="shared" ref="D3:E7" si="0">(0.1/32)/1000</f>
+      <c r="D3" s="170">
+        <v>0</v>
+      </c>
+      <c r="E3" s="170">
+        <f t="shared" ref="E3:E7" si="0">(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F3" s="194"/>
+      <c r="F3" s="253"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="191">
-        <v>0</v>
-      </c>
-      <c r="C4" s="191">
+        <v>266</v>
+      </c>
+      <c r="B4" s="170">
+        <v>0</v>
+      </c>
+      <c r="C4" s="170">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D4" s="191">
-        <v>0</v>
-      </c>
-      <c r="E4" s="191">
+      <c r="D4" s="170">
+        <v>0</v>
+      </c>
+      <c r="E4" s="170">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F4" s="194"/>
+      <c r="F4" s="253"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="170">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C5" s="191">
+      <c r="C5" s="170">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D5" s="191">
-        <v>0</v>
-      </c>
-      <c r="E5" s="191">
-        <v>0</v>
-      </c>
-      <c r="F5" s="194"/>
+      <c r="D5" s="170">
+        <v>0</v>
+      </c>
+      <c r="E5" s="170">
+        <v>0</v>
+      </c>
+      <c r="F5" s="253"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="191">
+        <v>126</v>
+      </c>
+      <c r="B6" s="170">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C6" s="191">
-        <v>0</v>
-      </c>
-      <c r="D6" s="191">
-        <v>0</v>
-      </c>
-      <c r="E6" s="191">
+      <c r="C6" s="170">
+        <v>0</v>
+      </c>
+      <c r="D6" s="170">
+        <v>0</v>
+      </c>
+      <c r="E6" s="170">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F6" s="194"/>
+      <c r="F6" s="253"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="191">
+        <v>127</v>
+      </c>
+      <c r="B7" s="170">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C7" s="191">
-        <v>0</v>
-      </c>
-      <c r="D7" s="191">
+      <c r="C7" s="170">
+        <v>0</v>
+      </c>
+      <c r="D7" s="170">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E7" s="191">
+      <c r="E7" s="170">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F7" s="194"/>
+      <c r="F7" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5648,7 +5618,7 @@
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="B2:E7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5674,116 +5644,116 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="169" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="190" t="s">
+      <c r="D1" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="194" t="s">
-        <v>274</v>
+      <c r="E1" s="253" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="191">
-        <v>0</v>
-      </c>
-      <c r="C2" s="191">
-        <v>0</v>
-      </c>
-      <c r="D2" s="191">
-        <v>0</v>
-      </c>
-      <c r="E2" s="194"/>
+      <c r="B2" s="170">
+        <v>0</v>
+      </c>
+      <c r="C2" s="170">
+        <v>0</v>
+      </c>
+      <c r="D2" s="170">
+        <v>0</v>
+      </c>
+      <c r="E2" s="253"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="191">
-        <v>0</v>
-      </c>
-      <c r="C3" s="191">
-        <v>0</v>
-      </c>
-      <c r="D3" s="191">
-        <v>0</v>
-      </c>
-      <c r="E3" s="194"/>
+        <v>265</v>
+      </c>
+      <c r="B3" s="170">
+        <v>0</v>
+      </c>
+      <c r="C3" s="170">
+        <v>0</v>
+      </c>
+      <c r="D3" s="170">
+        <v>0</v>
+      </c>
+      <c r="E3" s="253"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="191">
-        <v>0</v>
-      </c>
-      <c r="C4" s="191">
-        <v>0</v>
-      </c>
-      <c r="D4" s="191">
-        <v>0</v>
-      </c>
-      <c r="E4" s="194"/>
+        <v>266</v>
+      </c>
+      <c r="B4" s="170">
+        <v>0</v>
+      </c>
+      <c r="C4" s="170">
+        <v>0</v>
+      </c>
+      <c r="D4" s="170">
+        <v>0</v>
+      </c>
+      <c r="E4" s="253"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="191">
-        <v>0</v>
-      </c>
-      <c r="C5" s="191">
-        <v>0</v>
-      </c>
-      <c r="D5" s="191">
+      <c r="B5" s="170">
+        <v>0</v>
+      </c>
+      <c r="C5" s="170">
+        <v>0</v>
+      </c>
+      <c r="D5" s="170">
         <f>0.01*(1/32)*(1/1000)</f>
         <v>3.1250000000000003E-7</v>
       </c>
-      <c r="E5" s="194"/>
+      <c r="E5" s="253"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="191">
-        <v>0</v>
-      </c>
-      <c r="C6" s="191">
-        <v>0</v>
-      </c>
-      <c r="D6" s="191">
-        <v>0</v>
-      </c>
-      <c r="E6" s="194"/>
+        <v>126</v>
+      </c>
+      <c r="B6" s="170">
+        <v>0</v>
+      </c>
+      <c r="C6" s="170">
+        <v>0</v>
+      </c>
+      <c r="D6" s="170">
+        <v>0</v>
+      </c>
+      <c r="E6" s="253"/>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="191">
-        <v>0</v>
-      </c>
-      <c r="C7" s="191">
-        <v>0</v>
-      </c>
-      <c r="D7" s="191">
-        <v>0</v>
-      </c>
-      <c r="E7" s="194"/>
+        <v>127</v>
+      </c>
+      <c r="B7" s="170">
+        <v>0</v>
+      </c>
+      <c r="C7" s="170">
+        <v>0</v>
+      </c>
+      <c r="D7" s="170">
+        <v>0</v>
+      </c>
+      <c r="E7" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5809,71 +5779,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="190" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" s="190" t="s">
+      <c r="B1" s="169" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="190" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="190" t="s">
-        <v>272</v>
+      <c r="D1" s="169" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="169" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="191">
+      <c r="B2" s="170">
         <f>0.0415</f>
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="193">
+      <c r="D2" s="172">
         <f>E2*0.1</f>
         <v>1E-3</v>
       </c>
-      <c r="E2" s="193">
+      <c r="E2" s="172">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="191">
+        <v>265</v>
+      </c>
+      <c r="B3" s="170">
         <v>2.07E-2</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="193">
+      <c r="D3" s="172">
         <f t="shared" ref="D3:D7" si="0">E3*0.1</f>
         <v>1E-3</v>
       </c>
-      <c r="E3" s="193">
+      <c r="E3" s="172">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="191">
+        <v>266</v>
+      </c>
+      <c r="B4" s="170">
         <v>2.07E-2</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="193">
+      <c r="D4" s="172">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E4" s="193">
+      <c r="E4" s="172">
         <v>0.01</v>
       </c>
     </row>
@@ -5881,54 +5851,54 @@
       <c r="A5" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="170">
         <f>0.066</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="193">
+      <c r="D5" s="172">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E5" s="193">
+      <c r="E5" s="172">
         <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="191">
+        <v>126</v>
+      </c>
+      <c r="B6" s="170">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="193">
+      <c r="D6" s="172">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E6" s="193">
+      <c r="E6" s="172">
         <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="191">
+        <v>127</v>
+      </c>
+      <c r="B7" s="170">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="C7" s="191" t="s">
+      <c r="C7" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="193">
+      <c r="D7" s="172">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E7" s="193">
+      <c r="E7" s="172">
         <v>0.01</v>
       </c>
     </row>
@@ -5965,91 +5935,91 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="69"/>
-      <c r="B1" s="238" t="s">
+      <c r="B1" s="256" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="239"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="238" t="s">
-        <v>276</v>
-      </c>
-      <c r="F1" s="239"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="238" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="239"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="239" t="s">
+      <c r="C1" s="254"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="256" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="254"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="256" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="254"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="254" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="239"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="239" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" s="239"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="239" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="239"/>
-      <c r="S1" s="240"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="255"/>
+      <c r="N1" s="254" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="254"/>
+      <c r="P1" s="255"/>
+      <c r="Q1" s="254" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="254"/>
+      <c r="S1" s="255"/>
     </row>
     <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="243" t="s">
+      <c r="D2" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="241" t="s">
+      <c r="E2" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="242" t="s">
+      <c r="F2" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="243" t="s">
+      <c r="G2" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="241" t="s">
+      <c r="H2" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="242" t="s">
+      <c r="I2" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="243" t="s">
+      <c r="J2" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="242" t="s">
+      <c r="K2" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="242" t="s">
+      <c r="L2" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="243" t="s">
+      <c r="M2" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="242" t="s">
+      <c r="N2" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="242" t="s">
+      <c r="O2" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="243" t="s">
+      <c r="P2" s="215" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="242" t="s">
+      <c r="Q2" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="242" t="s">
+      <c r="R2" s="214" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="243" t="s">
+      <c r="S2" s="215" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6057,58 +6027,58 @@
       <c r="A3" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="247">
+      <c r="B3" s="219">
         <v>-1</v>
       </c>
-      <c r="C3" s="114">
-        <v>0</v>
-      </c>
-      <c r="D3" s="248">
-        <v>0</v>
-      </c>
-      <c r="E3" s="247">
-        <v>0</v>
-      </c>
-      <c r="F3" s="114">
-        <v>0</v>
-      </c>
-      <c r="G3" s="248">
-        <v>0</v>
-      </c>
-      <c r="H3" s="247">
-        <v>0</v>
-      </c>
-      <c r="I3" s="114">
-        <v>0</v>
-      </c>
-      <c r="J3" s="248">
-        <v>0</v>
-      </c>
-      <c r="K3" s="247">
+      <c r="C3" s="113">
+        <v>0</v>
+      </c>
+      <c r="D3" s="220">
+        <v>0</v>
+      </c>
+      <c r="E3" s="219">
+        <v>0</v>
+      </c>
+      <c r="F3" s="113">
+        <v>0</v>
+      </c>
+      <c r="G3" s="220">
+        <v>0</v>
+      </c>
+      <c r="H3" s="219">
+        <v>0</v>
+      </c>
+      <c r="I3" s="113">
+        <v>0</v>
+      </c>
+      <c r="J3" s="220">
+        <v>0</v>
+      </c>
+      <c r="K3" s="219">
         <v>-1</v>
       </c>
-      <c r="L3" s="114">
-        <v>0</v>
-      </c>
-      <c r="M3" s="248">
-        <v>0</v>
-      </c>
-      <c r="N3" s="247">
+      <c r="L3" s="113">
+        <v>0</v>
+      </c>
+      <c r="M3" s="220">
+        <v>0</v>
+      </c>
+      <c r="N3" s="219">
         <v>-1</v>
       </c>
-      <c r="O3" s="114">
-        <v>0</v>
-      </c>
-      <c r="P3" s="248">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="247">
+      <c r="O3" s="113">
+        <v>0</v>
+      </c>
+      <c r="P3" s="220">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="219">
         <v>-1</v>
       </c>
-      <c r="R3" s="114">
-        <v>0</v>
-      </c>
-      <c r="S3" s="248">
+      <c r="R3" s="113">
+        <v>0</v>
+      </c>
+      <c r="S3" s="220">
         <v>0</v>
       </c>
     </row>
@@ -6116,58 +6086,58 @@
       <c r="A4" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="249">
+      <c r="B4" s="221">
         <v>1</v>
       </c>
-      <c r="C4" s="250">
-        <v>0</v>
-      </c>
-      <c r="D4" s="251">
-        <v>0</v>
-      </c>
-      <c r="E4" s="249">
+      <c r="C4" s="222">
+        <v>0</v>
+      </c>
+      <c r="D4" s="223">
+        <v>0</v>
+      </c>
+      <c r="E4" s="221">
         <v>-1</v>
       </c>
-      <c r="F4" s="250">
-        <v>0</v>
-      </c>
-      <c r="G4" s="251">
-        <v>0</v>
-      </c>
-      <c r="H4" s="249">
+      <c r="F4" s="222">
+        <v>0</v>
+      </c>
+      <c r="G4" s="223">
+        <v>0</v>
+      </c>
+      <c r="H4" s="221">
         <v>-1</v>
       </c>
-      <c r="I4" s="250">
-        <v>0</v>
-      </c>
-      <c r="J4" s="251">
-        <v>0</v>
-      </c>
-      <c r="K4" s="249">
+      <c r="I4" s="222">
+        <v>0</v>
+      </c>
+      <c r="J4" s="223">
+        <v>0</v>
+      </c>
+      <c r="K4" s="221">
         <v>-1</v>
       </c>
-      <c r="L4" s="250">
-        <v>0</v>
-      </c>
-      <c r="M4" s="251">
-        <v>0</v>
-      </c>
-      <c r="N4" s="249">
-        <v>0</v>
-      </c>
-      <c r="O4" s="250">
-        <v>0</v>
-      </c>
-      <c r="P4" s="251">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="249">
+      <c r="L4" s="222">
+        <v>0</v>
+      </c>
+      <c r="M4" s="223">
+        <v>0</v>
+      </c>
+      <c r="N4" s="221">
+        <v>0</v>
+      </c>
+      <c r="O4" s="222">
+        <v>0</v>
+      </c>
+      <c r="P4" s="223">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="221">
         <v>2</v>
       </c>
-      <c r="R4" s="250">
-        <v>0</v>
-      </c>
-      <c r="S4" s="251">
+      <c r="R4" s="222">
+        <v>0</v>
+      </c>
+      <c r="S4" s="223">
         <v>0</v>
       </c>
     </row>
@@ -6175,58 +6145,58 @@
       <c r="A5" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="249">
-        <v>0</v>
-      </c>
-      <c r="C5" s="250">
-        <v>0</v>
-      </c>
-      <c r="D5" s="251">
-        <v>0</v>
-      </c>
-      <c r="E5" s="249">
+      <c r="B5" s="221">
+        <v>0</v>
+      </c>
+      <c r="C5" s="222">
+        <v>0</v>
+      </c>
+      <c r="D5" s="223">
+        <v>0</v>
+      </c>
+      <c r="E5" s="221">
         <v>1</v>
       </c>
-      <c r="F5" s="250">
-        <v>0</v>
-      </c>
-      <c r="G5" s="251">
-        <v>0</v>
-      </c>
-      <c r="H5" s="249">
+      <c r="F5" s="222">
+        <v>0</v>
+      </c>
+      <c r="G5" s="223">
+        <v>0</v>
+      </c>
+      <c r="H5" s="221">
         <v>1</v>
       </c>
-      <c r="I5" s="250">
-        <v>0</v>
-      </c>
-      <c r="J5" s="251">
-        <v>0</v>
-      </c>
-      <c r="K5" s="249">
-        <v>0</v>
-      </c>
-      <c r="L5" s="250">
-        <v>0</v>
-      </c>
-      <c r="M5" s="251">
-        <v>0</v>
-      </c>
-      <c r="N5" s="249">
+      <c r="I5" s="222">
+        <v>0</v>
+      </c>
+      <c r="J5" s="223">
+        <v>0</v>
+      </c>
+      <c r="K5" s="221">
+        <v>0</v>
+      </c>
+      <c r="L5" s="222">
+        <v>0</v>
+      </c>
+      <c r="M5" s="223">
+        <v>0</v>
+      </c>
+      <c r="N5" s="221">
         <v>1</v>
       </c>
-      <c r="O5" s="250">
-        <v>0</v>
-      </c>
-      <c r="P5" s="251">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="249">
+      <c r="O5" s="222">
+        <v>0</v>
+      </c>
+      <c r="P5" s="223">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="221">
         <v>-1</v>
       </c>
-      <c r="R5" s="250">
-        <v>0</v>
-      </c>
-      <c r="S5" s="251">
+      <c r="R5" s="222">
+        <v>0</v>
+      </c>
+      <c r="S5" s="223">
         <v>0</v>
       </c>
     </row>
@@ -6234,58 +6204,58 @@
       <c r="A6" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="249">
+      <c r="B6" s="221">
         <v>-1.5</v>
       </c>
-      <c r="C6" s="250">
-        <v>0</v>
-      </c>
-      <c r="D6" s="251">
-        <v>0</v>
-      </c>
-      <c r="E6" s="249">
+      <c r="C6" s="222">
+        <v>0</v>
+      </c>
+      <c r="D6" s="223">
+        <v>0</v>
+      </c>
+      <c r="E6" s="221">
         <v>-0.5</v>
       </c>
-      <c r="F6" s="250">
-        <v>0</v>
-      </c>
-      <c r="G6" s="251">
-        <v>0</v>
-      </c>
-      <c r="H6" s="249">
+      <c r="F6" s="222">
+        <v>0</v>
+      </c>
+      <c r="G6" s="223">
+        <v>0</v>
+      </c>
+      <c r="H6" s="221">
         <v>-0.5</v>
       </c>
-      <c r="I6" s="250">
-        <v>0</v>
-      </c>
-      <c r="J6" s="251">
-        <v>0</v>
-      </c>
-      <c r="K6" s="249">
-        <v>0</v>
-      </c>
-      <c r="L6" s="250">
-        <v>0</v>
-      </c>
-      <c r="M6" s="251">
-        <v>0</v>
-      </c>
-      <c r="N6" s="249">
+      <c r="I6" s="222">
+        <v>0</v>
+      </c>
+      <c r="J6" s="223">
+        <v>0</v>
+      </c>
+      <c r="K6" s="221">
+        <v>0</v>
+      </c>
+      <c r="L6" s="222">
+        <v>0</v>
+      </c>
+      <c r="M6" s="223">
+        <v>0</v>
+      </c>
+      <c r="N6" s="221">
         <v>-2</v>
       </c>
-      <c r="O6" s="250">
-        <v>0</v>
-      </c>
-      <c r="P6" s="251">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="249">
+      <c r="O6" s="222">
+        <v>0</v>
+      </c>
+      <c r="P6" s="223">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="221">
         <v>-1</v>
       </c>
-      <c r="R6" s="250">
-        <v>0</v>
-      </c>
-      <c r="S6" s="251">
+      <c r="R6" s="222">
+        <v>0</v>
+      </c>
+      <c r="S6" s="223">
         <v>0</v>
       </c>
     </row>
@@ -6293,58 +6263,58 @@
       <c r="A7" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="249">
-        <v>0</v>
-      </c>
-      <c r="C7" s="250">
+      <c r="B7" s="221">
+        <v>0</v>
+      </c>
+      <c r="C7" s="222">
         <v>-1</v>
       </c>
-      <c r="D7" s="251">
+      <c r="D7" s="223">
         <v>1</v>
       </c>
-      <c r="E7" s="249">
-        <v>0</v>
-      </c>
-      <c r="F7" s="250">
+      <c r="E7" s="221">
+        <v>0</v>
+      </c>
+      <c r="F7" s="222">
         <v>-1</v>
       </c>
-      <c r="G7" s="251">
+      <c r="G7" s="223">
         <v>1</v>
       </c>
-      <c r="H7" s="249">
-        <v>0</v>
-      </c>
-      <c r="I7" s="250">
+      <c r="H7" s="221">
+        <v>0</v>
+      </c>
+      <c r="I7" s="222">
         <v>-1</v>
       </c>
-      <c r="J7" s="251">
+      <c r="J7" s="223">
         <v>1</v>
       </c>
-      <c r="K7" s="249">
-        <v>0</v>
-      </c>
-      <c r="L7" s="250">
+      <c r="K7" s="221">
+        <v>0</v>
+      </c>
+      <c r="L7" s="222">
         <v>-1</v>
       </c>
-      <c r="M7" s="251">
+      <c r="M7" s="223">
         <v>1</v>
       </c>
-      <c r="N7" s="249">
-        <v>0</v>
-      </c>
-      <c r="O7" s="250">
+      <c r="N7" s="221">
+        <v>0</v>
+      </c>
+      <c r="O7" s="222">
         <v>-1</v>
       </c>
-      <c r="P7" s="251">
+      <c r="P7" s="223">
         <v>1</v>
       </c>
-      <c r="Q7" s="249">
-        <v>0</v>
-      </c>
-      <c r="R7" s="250">
+      <c r="Q7" s="221">
+        <v>0</v>
+      </c>
+      <c r="R7" s="222">
         <v>-1</v>
       </c>
-      <c r="S7" s="251">
+      <c r="S7" s="223">
         <v>1</v>
       </c>
     </row>
@@ -6352,294 +6322,294 @@
       <c r="A8" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="252">
-        <v>0</v>
-      </c>
-      <c r="C8" s="244">
-        <v>0</v>
-      </c>
-      <c r="D8" s="253">
-        <v>0</v>
-      </c>
-      <c r="E8" s="252">
-        <v>0</v>
-      </c>
-      <c r="F8" s="244">
-        <v>0</v>
-      </c>
-      <c r="G8" s="253">
-        <v>0</v>
-      </c>
-      <c r="H8" s="252">
-        <v>0</v>
-      </c>
-      <c r="I8" s="244">
-        <v>0</v>
-      </c>
-      <c r="J8" s="253">
-        <v>0</v>
-      </c>
-      <c r="K8" s="252">
-        <v>0</v>
-      </c>
-      <c r="L8" s="244">
-        <v>0</v>
-      </c>
-      <c r="M8" s="253">
-        <v>0</v>
-      </c>
-      <c r="N8" s="252">
-        <v>0</v>
-      </c>
-      <c r="O8" s="244">
-        <v>0</v>
-      </c>
-      <c r="P8" s="253">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="252">
-        <v>0</v>
-      </c>
-      <c r="R8" s="244">
-        <v>0</v>
-      </c>
-      <c r="S8" s="253">
+      <c r="B8" s="224">
+        <v>0</v>
+      </c>
+      <c r="C8" s="216">
+        <v>0</v>
+      </c>
+      <c r="D8" s="225">
+        <v>0</v>
+      </c>
+      <c r="E8" s="224">
+        <v>0</v>
+      </c>
+      <c r="F8" s="216">
+        <v>0</v>
+      </c>
+      <c r="G8" s="225">
+        <v>0</v>
+      </c>
+      <c r="H8" s="224">
+        <v>0</v>
+      </c>
+      <c r="I8" s="216">
+        <v>0</v>
+      </c>
+      <c r="J8" s="225">
+        <v>0</v>
+      </c>
+      <c r="K8" s="224">
+        <v>0</v>
+      </c>
+      <c r="L8" s="216">
+        <v>0</v>
+      </c>
+      <c r="M8" s="225">
+        <v>0</v>
+      </c>
+      <c r="N8" s="224">
+        <v>0</v>
+      </c>
+      <c r="O8" s="216">
+        <v>0</v>
+      </c>
+      <c r="P8" s="225">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="224">
+        <v>0</v>
+      </c>
+      <c r="R8" s="216">
+        <v>0</v>
+      </c>
+      <c r="S8" s="225">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="245">
-        <v>0</v>
-      </c>
-      <c r="C9" s="246">
-        <v>0</v>
-      </c>
-      <c r="D9" s="254">
-        <v>0</v>
-      </c>
-      <c r="E9" s="245">
-        <v>0</v>
-      </c>
-      <c r="F9" s="246">
-        <v>0</v>
-      </c>
-      <c r="G9" s="254">
-        <v>0</v>
-      </c>
-      <c r="H9" s="245">
-        <v>0</v>
-      </c>
-      <c r="I9" s="246">
-        <v>0</v>
-      </c>
-      <c r="J9" s="254">
-        <v>0</v>
-      </c>
-      <c r="K9" s="245">
-        <v>0</v>
-      </c>
-      <c r="L9" s="246">
-        <v>0</v>
-      </c>
-      <c r="M9" s="254">
-        <v>0</v>
-      </c>
-      <c r="N9" s="245">
-        <v>0</v>
-      </c>
-      <c r="O9" s="246">
-        <v>0</v>
-      </c>
-      <c r="P9" s="254">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="245">
-        <v>0</v>
-      </c>
-      <c r="R9" s="246">
-        <v>0</v>
-      </c>
-      <c r="S9" s="254">
+      <c r="B9" s="217">
+        <v>0</v>
+      </c>
+      <c r="C9" s="218">
+        <v>0</v>
+      </c>
+      <c r="D9" s="226">
+        <v>0</v>
+      </c>
+      <c r="E9" s="217">
+        <v>0</v>
+      </c>
+      <c r="F9" s="218">
+        <v>0</v>
+      </c>
+      <c r="G9" s="226">
+        <v>0</v>
+      </c>
+      <c r="H9" s="217">
+        <v>0</v>
+      </c>
+      <c r="I9" s="218">
+        <v>0</v>
+      </c>
+      <c r="J9" s="226">
+        <v>0</v>
+      </c>
+      <c r="K9" s="217">
+        <v>0</v>
+      </c>
+      <c r="L9" s="218">
+        <v>0</v>
+      </c>
+      <c r="M9" s="226">
+        <v>0</v>
+      </c>
+      <c r="N9" s="217">
+        <v>0</v>
+      </c>
+      <c r="O9" s="218">
+        <v>0</v>
+      </c>
+      <c r="P9" s="226">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="217">
+        <v>0</v>
+      </c>
+      <c r="R9" s="218">
+        <v>0</v>
+      </c>
+      <c r="S9" s="226">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="245">
-        <v>0</v>
-      </c>
-      <c r="C10" s="246">
-        <v>0</v>
-      </c>
-      <c r="D10" s="254">
-        <v>0</v>
-      </c>
-      <c r="E10" s="245">
-        <v>0</v>
-      </c>
-      <c r="F10" s="246">
-        <v>0</v>
-      </c>
-      <c r="G10" s="254">
-        <v>0</v>
-      </c>
-      <c r="H10" s="245">
-        <v>0</v>
-      </c>
-      <c r="I10" s="246">
-        <v>0</v>
-      </c>
-      <c r="J10" s="254">
-        <v>0</v>
-      </c>
-      <c r="K10" s="245">
+      <c r="B10" s="217">
+        <v>0</v>
+      </c>
+      <c r="C10" s="218">
+        <v>0</v>
+      </c>
+      <c r="D10" s="226">
+        <v>0</v>
+      </c>
+      <c r="E10" s="217">
+        <v>0</v>
+      </c>
+      <c r="F10" s="218">
+        <v>0</v>
+      </c>
+      <c r="G10" s="226">
+        <v>0</v>
+      </c>
+      <c r="H10" s="217">
+        <v>0</v>
+      </c>
+      <c r="I10" s="218">
+        <v>0</v>
+      </c>
+      <c r="J10" s="226">
+        <v>0</v>
+      </c>
+      <c r="K10" s="217">
         <v>1</v>
       </c>
-      <c r="L10" s="246">
-        <v>0</v>
-      </c>
-      <c r="M10" s="254">
-        <v>0</v>
-      </c>
-      <c r="N10" s="245">
-        <v>0</v>
-      </c>
-      <c r="O10" s="246">
-        <v>0</v>
-      </c>
-      <c r="P10" s="254">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="245">
-        <v>0</v>
-      </c>
-      <c r="R10" s="246">
-        <v>0</v>
-      </c>
-      <c r="S10" s="254">
+      <c r="L10" s="218">
+        <v>0</v>
+      </c>
+      <c r="M10" s="226">
+        <v>0</v>
+      </c>
+      <c r="N10" s="217">
+        <v>0</v>
+      </c>
+      <c r="O10" s="218">
+        <v>0</v>
+      </c>
+      <c r="P10" s="226">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="217">
+        <v>0</v>
+      </c>
+      <c r="R10" s="218">
+        <v>0</v>
+      </c>
+      <c r="S10" s="226">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="255">
+      <c r="B11" s="227">
         <v>1</v>
       </c>
-      <c r="C11" s="111">
-        <v>0</v>
-      </c>
-      <c r="D11" s="256">
-        <v>0</v>
-      </c>
-      <c r="E11" s="255">
-        <v>0</v>
-      </c>
-      <c r="F11" s="111">
-        <v>0</v>
-      </c>
-      <c r="G11" s="256">
-        <v>0</v>
-      </c>
-      <c r="H11" s="255">
-        <v>0</v>
-      </c>
-      <c r="I11" s="111">
-        <v>0</v>
-      </c>
-      <c r="J11" s="256">
-        <v>0</v>
-      </c>
-      <c r="K11" s="255">
+      <c r="C11" s="110">
+        <v>0</v>
+      </c>
+      <c r="D11" s="228">
+        <v>0</v>
+      </c>
+      <c r="E11" s="227">
+        <v>0</v>
+      </c>
+      <c r="F11" s="110">
+        <v>0</v>
+      </c>
+      <c r="G11" s="228">
+        <v>0</v>
+      </c>
+      <c r="H11" s="227">
+        <v>0</v>
+      </c>
+      <c r="I11" s="110">
+        <v>0</v>
+      </c>
+      <c r="J11" s="228">
+        <v>0</v>
+      </c>
+      <c r="K11" s="227">
         <v>2</v>
       </c>
-      <c r="L11" s="111">
-        <v>0</v>
-      </c>
-      <c r="M11" s="256">
-        <v>0</v>
-      </c>
-      <c r="N11" s="255">
+      <c r="L11" s="110">
+        <v>0</v>
+      </c>
+      <c r="M11" s="228">
+        <v>0</v>
+      </c>
+      <c r="N11" s="227">
         <v>1</v>
       </c>
-      <c r="O11" s="111">
-        <v>0</v>
-      </c>
-      <c r="P11" s="256">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="255">
+      <c r="O11" s="110">
+        <v>0</v>
+      </c>
+      <c r="P11" s="228">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="227">
         <v>1</v>
       </c>
-      <c r="R11" s="111">
-        <v>0</v>
-      </c>
-      <c r="S11" s="256">
+      <c r="R11" s="110">
+        <v>0</v>
+      </c>
+      <c r="S11" s="228">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="196" t="s">
+      <c r="A12" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="109">
+      <c r="B12" s="108">
         <v>1</v>
       </c>
-      <c r="C12" s="257">
-        <v>0</v>
-      </c>
-      <c r="D12" s="258">
-        <v>0</v>
-      </c>
-      <c r="E12" s="109">
-        <v>0</v>
-      </c>
-      <c r="F12" s="257">
-        <v>0</v>
-      </c>
-      <c r="G12" s="258">
-        <v>0</v>
-      </c>
-      <c r="H12" s="109">
-        <v>0</v>
-      </c>
-      <c r="I12" s="257">
-        <v>0</v>
-      </c>
-      <c r="J12" s="258">
-        <v>0</v>
-      </c>
-      <c r="K12" s="109">
-        <v>0</v>
-      </c>
-      <c r="L12" s="257">
-        <v>0</v>
-      </c>
-      <c r="M12" s="258">
-        <v>0</v>
-      </c>
-      <c r="N12" s="109">
+      <c r="C12" s="229">
+        <v>0</v>
+      </c>
+      <c r="D12" s="230">
+        <v>0</v>
+      </c>
+      <c r="E12" s="108">
+        <v>0</v>
+      </c>
+      <c r="F12" s="229">
+        <v>0</v>
+      </c>
+      <c r="G12" s="230">
+        <v>0</v>
+      </c>
+      <c r="H12" s="108">
+        <v>0</v>
+      </c>
+      <c r="I12" s="229">
+        <v>0</v>
+      </c>
+      <c r="J12" s="230">
+        <v>0</v>
+      </c>
+      <c r="K12" s="108">
+        <v>0</v>
+      </c>
+      <c r="L12" s="229">
+        <v>0</v>
+      </c>
+      <c r="M12" s="230">
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
         <v>2</v>
       </c>
-      <c r="O12" s="257">
-        <v>0</v>
-      </c>
-      <c r="P12" s="258">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="109">
+      <c r="O12" s="229">
+        <v>0</v>
+      </c>
+      <c r="P12" s="230">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="108">
         <v>2</v>
       </c>
-      <c r="R12" s="257">
-        <v>0</v>
-      </c>
-      <c r="S12" s="258">
+      <c r="R12" s="229">
+        <v>0</v>
+      </c>
+      <c r="S12" s="230">
         <v>0</v>
       </c>
     </row>
@@ -6653,282 +6623,282 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:B12 E3:F7 E10:G12 J10:J12">
-    <cfRule type="cellIs" dxfId="57" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="55" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B7">
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="52" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7">
-    <cfRule type="cellIs" dxfId="50" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="49" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I7 H10:I12">
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7 K10:L12 N10:N12 Q10:Q12">
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M12">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7 N3:N7 Q3:Q7">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M7">
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 N9 Q9">
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 N8 Q8">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O7 O10:O12">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R7 R10:R12">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P12">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P7">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S12">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S7">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C7 C10:C12">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6983,30 +6953,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169" t="s">
+      <c r="S2" s="231" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="231"/>
+      <c r="U2" s="231"/>
+      <c r="V2" s="231"/>
+      <c r="W2" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169" t="s">
+      <c r="X2" s="231"/>
+      <c r="Y2" s="231"/>
+      <c r="Z2" s="231"/>
+      <c r="AA2" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169" t="s">
+      <c r="AB2" s="231"/>
+      <c r="AC2" s="231"/>
+      <c r="AD2" s="231"/>
+      <c r="AE2" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
+      <c r="AF2" s="231"/>
+      <c r="AG2" s="231"/>
+      <c r="AH2" s="231"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8459,10 +8429,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="170" t="s">
+      <c r="J17" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="173" t="s">
+      <c r="K17" s="235" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -8562,8 +8532,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="171"/>
-      <c r="K18" s="174"/>
+      <c r="J18" s="233"/>
+      <c r="K18" s="236"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -8661,8 +8631,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="171"/>
-      <c r="K19" s="174"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="236"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -8742,8 +8712,8 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="174"/>
+      <c r="J20" s="233"/>
+      <c r="K20" s="236"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -8824,8 +8794,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="174"/>
+      <c r="J21" s="233"/>
+      <c r="K21" s="236"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -8906,8 +8876,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="174"/>
+      <c r="J22" s="233"/>
+      <c r="K22" s="236"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -8988,8 +8958,8 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="174"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="236"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -9070,8 +9040,8 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="174"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="236"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -9092,8 +9062,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="174"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="236"/>
     </row>
     <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
@@ -9102,14 +9072,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="174"/>
-      <c r="N26" s="176" t="s">
+      <c r="J26" s="233"/>
+      <c r="K26" s="236"/>
+      <c r="N26" s="238" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="177"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="178"/>
+      <c r="O26" s="239"/>
+      <c r="P26" s="239"/>
+      <c r="Q26" s="240"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -9185,14 +9155,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="174"/>
-      <c r="N27" s="176" t="s">
+      <c r="J27" s="233"/>
+      <c r="K27" s="236"/>
+      <c r="N27" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="177"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="178"/>
+      <c r="O27" s="239"/>
+      <c r="P27" s="239"/>
+      <c r="Q27" s="240"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -9268,8 +9238,8 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="174"/>
+      <c r="J28" s="233"/>
+      <c r="K28" s="236"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -9281,24 +9251,24 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="174"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="236"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="171"/>
-      <c r="K30" s="174"/>
+      <c r="J30" s="233"/>
+      <c r="K30" s="236"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="171"/>
-      <c r="K31" s="174"/>
+      <c r="J31" s="233"/>
+      <c r="K31" s="236"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="171"/>
-      <c r="K32" s="174"/>
+      <c r="J32" s="233"/>
+      <c r="K32" s="236"/>
     </row>
     <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="172"/>
-      <c r="K33" s="175"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="237"/>
     </row>
     <row r="34" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U34" s="87"/>
@@ -9410,82 +9380,82 @@
     <mergeCell ref="N27:Q27"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:AB7 AD5:AD7 AD9:AD16 S9:AB16">
-    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AD23">
-    <cfRule type="cellIs" dxfId="81" priority="19" operator="notBetween">
+    <cfRule type="cellIs" dxfId="82" priority="19" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="20" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:AB8 AD8">
-    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC7 AC9:AC16">
-    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="77" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AF7 AE9:AF16 AH9:AI16 AH5:AJ5 AH6:AI7 AJ6:AJ16 AH4">
-    <cfRule type="cellIs" dxfId="75" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AJ23">
-    <cfRule type="cellIs" dxfId="74" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="75" priority="9" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="10" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AF8 AH8:AI8">
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG7 AG9:AG16">
-    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4 S4:AB4">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AF4 AI4">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9495,104 +9465,122 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC80DB5-92D9-44E1-984F-05E418326CA4}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC80DB5-92D9-44E1-984F-05E418326CA4}">
+  <dimension ref="A3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="100" t="b">
-        <v>0</v>
-      </c>
+      <c r="A3" s="77"/>
+      <c r="B3" s="100"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="100" t="b">
+      <c r="A4" s="77"/>
+      <c r="B4" s="100"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="104"/>
+      <c r="B5" s="100"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="str">
+        <f>Discretization!A15</f>
+        <v>Dynamic dT</v>
+      </c>
+      <c r="B8" s="107" t="b">
+        <f>Discretization!B15</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="100" t="b">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="str">
+        <f>Parameters!A2</f>
+        <v>Variable HRT</v>
+      </c>
+      <c r="B9" s="107" t="b">
+        <f>Parameters!B2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="147" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="147" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="147" t="s">
-        <v>206</v>
+      <c r="G9" s="257"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="str">
+        <f>Bacteria!A6</f>
+        <v>Initialisation method</v>
+      </c>
+      <c r="B10" s="107" t="str">
+        <f>Bacteria!B6</f>
+        <v>granule</v>
+      </c>
+      <c r="G10" s="257"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="str">
+        <f>Bacteria!A10</f>
+        <v>Inactivation enabled</v>
+      </c>
+      <c r="B11" s="107" t="b">
+        <f>Bacteria!B10</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="257"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="str">
+        <f>Bacteria!A11</f>
+        <v>Detachment method</v>
+      </c>
+      <c r="B12" s="107" t="str">
+        <f>Bacteria!B11</f>
+        <v>mechanistic</v>
+      </c>
+      <c r="G12" s="257"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="82" t="str">
+        <f>Solver!A4</f>
+        <v>pH bulk concentration corrected</v>
+      </c>
+      <c r="B13" s="107" t="b">
+        <f>Solver!B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="82" t="str">
+        <f>Solver!A2</f>
+        <v>pH solving included</v>
+      </c>
+      <c r="B14" s="107" t="b">
+        <f>Solver!B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="82" t="str">
+        <f>Solver!A5</f>
+        <v>Speciation included</v>
+      </c>
+      <c r="B15" s="107" t="b">
+        <f>Solver!B5</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{54BD5B48-48D3-4918-B933-84192454EDAB}">
-      <formula1>"Neut,Comp,Comm,Copr"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3:B5" xr:uid="{E03D1A38-E4CD-4F8A-8EC3-3AE9680BF385}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B5" xr:uid="{E03D1A38-E4CD-4F8A-8EC3-3AE9680BF385}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9601,7 +9589,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9617,434 +9605,434 @@
       <c r="A1" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="135">
+      <c r="B1" s="134">
         <v>257</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="119" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="179" t="s">
-        <v>148</v>
+      <c r="D1" s="118" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="241" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="148">
+      <c r="B2" s="146">
         <v>257</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="179"/>
+      <c r="D2" s="118" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="241"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="108">
+      <c r="B3" s="107">
         <f>B5*B1*1000000</f>
         <v>1028</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="179"/>
+        <v>129</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="241"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="108">
+      <c r="B4" s="107">
         <f>B6*B2*1000000</f>
         <v>1028</v>
       </c>
       <c r="C4" s="95" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="119" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="179"/>
+        <v>129</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="241"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="111">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="119" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="179"/>
+      <c r="D5" s="118" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="241"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="112">
+      <c r="B6" s="111">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="119" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="179"/>
+      <c r="D6" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="241"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="111">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="119" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="179"/>
+      <c r="D7" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="241"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="113">
+        <v>128</v>
+      </c>
+      <c r="B8" s="112">
         <f>5*10^(-6)</f>
         <v>4.9999999999999996E-6</v>
       </c>
       <c r="C8" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="180"/>
+      <c r="D8" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="242"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="114">
+        <v>145</v>
+      </c>
+      <c r="B9" s="113">
         <v>5000</v>
       </c>
       <c r="C9" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="121" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="181" t="s">
-        <v>149</v>
+      <c r="D9" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="243" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="111">
+        <v>148</v>
+      </c>
+      <c r="B10" s="110">
         <v>0.2</v>
       </c>
       <c r="C10" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="182"/>
+      <c r="D10" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="244"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="107">
+        <v>151</v>
+      </c>
+      <c r="B11" s="106">
         <f>$B$5^2 * B10 / MAX(Diffusion!$B:$B)</f>
         <v>6.0468631897203323E-7</v>
       </c>
       <c r="C11" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="119" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="182"/>
+      <c r="D11" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="244"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="111">
+        <v>160</v>
+      </c>
+      <c r="B12" s="110">
         <v>0.5</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="182"/>
+      <c r="D12" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="244"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="115">
+        <v>139</v>
+      </c>
+      <c r="B13" s="114">
         <v>24</v>
       </c>
       <c r="C13" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="119" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="182"/>
+      <c r="D13" s="118" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="244"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="109">
+        <v>140</v>
+      </c>
+      <c r="B14" s="108">
         <f>24*7</f>
         <v>168</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="120" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="183"/>
+      <c r="D14" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="245"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="149" t="b">
+      <c r="A15" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="147" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="122" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="181" t="s">
-        <v>184</v>
+      <c r="D15" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="243" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="111">
+        <v>146</v>
+      </c>
+      <c r="B16" s="110">
         <v>0.01</v>
       </c>
       <c r="C16" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="123" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="182"/>
+      <c r="D16" s="122" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="244"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="107">
+        <v>149</v>
+      </c>
+      <c r="B17" s="106">
         <f>$B$5^2 * B16 / MAX(Diffusion!$B:$B)</f>
         <v>3.0234315948601663E-8</v>
       </c>
       <c r="C17" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="123" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="182"/>
+      <c r="D17" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="244"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="111">
+        <v>147</v>
+      </c>
+      <c r="B18" s="110">
         <v>0.5</v>
       </c>
       <c r="C18" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="182"/>
+      <c r="D18" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="244"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="107">
+        <v>150</v>
+      </c>
+      <c r="B19" s="106">
         <f>$B$5^2 * B18 / MAX(Diffusion!$B:$B)</f>
         <v>1.511715797430083E-6</v>
       </c>
       <c r="C19" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="182"/>
+      <c r="D19" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="244"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" s="111">
+        <v>158</v>
+      </c>
+      <c r="B20" s="110">
         <v>0.05</v>
       </c>
       <c r="C20" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="182"/>
+      <c r="D20" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="244"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="118">
+      <c r="A21" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="117">
         <v>1</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="182"/>
+      <c r="D21" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="244"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="B22" s="111">
+        <v>166</v>
+      </c>
+      <c r="B22" s="110">
         <v>3</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="125" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="182"/>
+      <c r="D22" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="244"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="111">
+        <v>169</v>
+      </c>
+      <c r="B23" s="110">
         <v>500</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="125" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="182"/>
+      <c r="D23" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="244"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="111">
+        <v>167</v>
+      </c>
+      <c r="B24" s="110">
         <v>200</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="182"/>
+      <c r="D24" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="244"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="111">
+        <v>168</v>
+      </c>
+      <c r="B25" s="110">
         <v>40</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="125" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="182"/>
+      <c r="D25" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="244"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="128">
+        <v>176</v>
+      </c>
+      <c r="B26" s="127">
         <v>0.2</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="125" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="182"/>
+      <c r="D26" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="244"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="B27" s="127">
+        <v>170</v>
+      </c>
+      <c r="B27" s="126">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="125" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="182"/>
+      <c r="D27" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="244"/>
     </row>
     <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" s="129">
+        <v>171</v>
+      </c>
+      <c r="B28" s="128">
         <v>0.02</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="126" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="183"/>
+      <c r="D28" s="125" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10053,7 +10041,7 @@
     <mergeCell ref="E15:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:D28">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$B$15 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10088,60 +10076,60 @@
       <c r="A1" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="135">
+      <c r="B1" s="134">
         <v>10.8</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="119" t="s">
-        <v>203</v>
+      <c r="D1" s="118" t="s">
+        <v>193</v>
       </c>
       <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="135" t="b">
+        <v>186</v>
+      </c>
+      <c r="B2" s="134" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="119" t="s">
-        <v>198</v>
+      <c r="D2" s="118" t="s">
+        <v>188</v>
       </c>
       <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="134">
+        <v>189</v>
+      </c>
+      <c r="B3" s="133">
         <f>SUM(Influent!B1:B3)</f>
         <v>1.5E-3</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="119" t="s">
-        <v>197</v>
+      <c r="D3" s="118" t="s">
+        <v>187</v>
       </c>
       <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="117" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="136" t="s">
+      <c r="A4" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="137" t="s">
-        <v>201</v>
+      <c r="D4" s="136" t="s">
+        <v>191</v>
       </c>
       <c r="E4" s="69"/>
     </row>
@@ -10149,129 +10137,129 @@
       <c r="A5" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="110">
+      <c r="B5" s="109">
         <v>20</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="119" t="s">
-        <v>202</v>
+      <c r="D5" s="118" t="s">
+        <v>192</v>
       </c>
       <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="188">
+        <v>257</v>
+      </c>
+      <c r="B6" s="167">
         <f>B5+273.15</f>
         <v>293.14999999999998</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="119" t="s">
-        <v>267</v>
+      <c r="D6" s="118" t="s">
+        <v>256</v>
       </c>
       <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="189">
+        <v>185</v>
+      </c>
+      <c r="B7" s="168">
         <v>7</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="119" t="s">
-        <v>204</v>
+      <c r="D7" s="118" t="s">
+        <v>194</v>
       </c>
       <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="B8" s="142">
+        <v>184</v>
+      </c>
+      <c r="B8" s="141">
         <f>(((Bacteria!B8/3)*Bacteria!B1)/3)/1000</f>
         <v>2.3271056693257722E-10</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="119" t="s">
-        <v>205</v>
+      <c r="D8" s="118" t="s">
+        <v>195</v>
       </c>
       <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="106">
+        <v>182</v>
+      </c>
+      <c r="B9" s="105">
         <f>8.3144/1000</f>
         <v>8.3143999999999996E-3</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" s="119" t="s">
-        <v>192</v>
+        <v>258</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>182</v>
       </c>
       <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
-      <c r="B10" s="110"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="119"/>
+      <c r="D10" s="118"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
-      <c r="B11" s="110"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="95"/>
-      <c r="D11" s="119"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
-      <c r="B12" s="110"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="95"/>
-      <c r="D12" s="119"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="69"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="110"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="95"/>
-      <c r="D13" s="119"/>
+      <c r="D13" s="118"/>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
-      <c r="B14" s="110"/>
+      <c r="B14" s="109"/>
       <c r="C14" s="95"/>
-      <c r="D14" s="119"/>
+      <c r="D14" s="118"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="82"/>
-      <c r="B15" s="110"/>
+      <c r="B15" s="109"/>
       <c r="C15" s="95"/>
-      <c r="D15" s="119"/>
+      <c r="D15" s="118"/>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="82"/>
-      <c r="B16" s="110"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="95"/>
-      <c r="D16" s="119"/>
+      <c r="D16" s="118"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
-      <c r="B17" s="110"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="95"/>
-      <c r="D17" s="119"/>
+      <c r="D17" s="118"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
@@ -10282,9 +10270,9 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" s="130"/>
+        <v>181</v>
+      </c>
+      <c r="C19" s="129"/>
       <c r="D19" s="79" t="s">
         <v>87</v>
       </c>
@@ -10312,7 +10300,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="77" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C23" s="99">
         <v>1</v>
@@ -10325,7 +10313,7 @@
       <c r="B24" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24" s="129">
         <f>C25</f>
         <v>2.3271056693257722E-10</v>
       </c>
@@ -10335,9 +10323,9 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="77" t="s">
-        <v>270</v>
-      </c>
-      <c r="C25" s="130">
+        <v>259</v>
+      </c>
+      <c r="C25" s="129">
         <f>(((Bacteria!B8/3)*Bacteria!B1)/3)/1000</f>
         <v>2.3271056693257722E-10</v>
       </c>
@@ -10347,25 +10335,25 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="77"/>
-      <c r="C26" s="131"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="78"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="132"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="78"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="77"/>
-      <c r="C28" s="131"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="78"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="133">
+      <c r="C29" s="132">
         <f>(C25*1000)/0.01</f>
         <v>2.3271056693257722E-5</v>
       </c>
@@ -10375,7 +10363,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>$B$2 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10414,115 +10402,115 @@
       <c r="A1" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="134">
+      <c r="B1" s="133">
         <f>1.957*10^(-9)*3600*0.7</f>
         <v>4.9316400000000006E-6</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="184" t="s">
-        <v>208</v>
+      <c r="D1" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="246" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="134">
+      <c r="B2" s="133">
         <f>1.912*10^(-9)*3600*0.7</f>
         <v>4.8182400000000001E-6</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="184"/>
+      <c r="D2" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="246"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="134">
+      <c r="B3" s="133">
         <f>1.902*10^(-9)*3600*0.7</f>
         <v>4.7930399999999991E-6</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="184"/>
+      <c r="D3" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="246"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="134">
+      <c r="B4" s="133">
         <f>2.1*10^(-9)*3600*0.7</f>
         <v>5.2920000000000003E-6</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="184"/>
+      <c r="D4" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="246"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="134">
+      <c r="B5" s="133">
         <f>1.92*10^(-9)*3600*0.7</f>
         <v>4.8384000000000001E-6</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="184"/>
+      <c r="D5" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="246"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="134">
+      <c r="B6" s="133">
         <f>1.385*10^(-9)*3600*0.7</f>
         <v>3.4902000000000001E-6</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="119" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="184"/>
+      <c r="D6" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="246"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="142">
         <f>1.334*10^(-9)*3600*0.7</f>
         <v>3.3616800000000002E-6</v>
       </c>
       <c r="C7" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="185"/>
+      <c r="D7" s="119" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10553,187 +10541,187 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="107">
+        <v>199</v>
+      </c>
+      <c r="B1" s="106">
         <f>((4/3)*PI()*B3^3)*B4</f>
         <v>2.0943951023931951E-12</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="144" t="s">
-        <v>218</v>
+      <c r="D1" s="143" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="107">
+        <v>200</v>
+      </c>
+      <c r="B2" s="106">
         <f>0.1*B1</f>
         <v>2.0943951023931951E-13</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="144" t="s">
-        <v>219</v>
+      <c r="D2" s="143" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="145">
+        <v>201</v>
+      </c>
+      <c r="B3" s="144">
         <f>(1)*10^(-6)</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="144" t="s">
-        <v>220</v>
+      <c r="D3" s="143" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="145">
+        <v>202</v>
+      </c>
+      <c r="B4" s="144">
         <f>500*1000</f>
         <v>500000</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="144" t="s">
-        <v>221</v>
+      <c r="D4" s="143" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="153">
+        <v>203</v>
+      </c>
+      <c r="B5" s="151">
         <v>24.6</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="144" t="s">
-        <v>222</v>
+      <c r="D5" s="143" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="158" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157"/>
+      <c r="A6" s="152" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="156" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="151">
+      <c r="A7" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="149">
         <f>500*10^(-6)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="152" t="s">
-        <v>224</v>
+      <c r="D7" s="150" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="145">
+        <v>206</v>
+      </c>
+      <c r="B8" s="144">
         <f>4*ROUND(((B13/2)^2)/((B3)^2),0)</f>
         <v>1000000</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="144" t="s">
-        <v>225</v>
+      <c r="D8" s="143" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="146">
+        <v>124</v>
+      </c>
+      <c r="B9" s="145">
         <v>1</v>
       </c>
       <c r="C9" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="144" t="s">
-        <v>226</v>
+      <c r="D9" s="143" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="153" t="b">
+        <v>216</v>
+      </c>
+      <c r="B10" s="151" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="144" t="s">
-        <v>228</v>
+      <c r="D10" s="143" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="156" t="s">
+      <c r="A11" s="152" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="157" t="s">
-        <v>233</v>
+      <c r="D11" s="155" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" s="146">
+        <v>219</v>
+      </c>
+      <c r="B12" s="145">
         <v>5</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="144" t="s">
-        <v>234</v>
+        <v>220</v>
+      </c>
+      <c r="D12" s="143" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="151">
+      <c r="A13" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="149">
         <f>1000*10^(-6)</f>
         <v>1E-3</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="152" t="s">
-        <v>223</v>
+      <c r="D13" s="150" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -10759,17 +10747,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:D12">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>$B$11&lt;&gt;"mechanistic"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>$B$11&lt;&gt;"naive"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:D7">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>$B$6 &lt;&gt; "granule"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10791,10 +10779,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10805,142 +10793,195 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="145">
+        <v>231</v>
+      </c>
+      <c r="B1" s="144">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="144" t="s">
-        <v>243</v>
+      <c r="D1" s="143" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="146" t="b">
+        <v>235</v>
+      </c>
+      <c r="B2" s="145" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="144" t="s">
-        <v>248</v>
+      <c r="D2" s="143" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="145">
+        <v>198</v>
+      </c>
+      <c r="B3" s="144">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="144" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D3" s="143" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="146" t="b">
+        <v>271</v>
+      </c>
+      <c r="B4" s="145" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="144" t="s">
-        <v>250</v>
+      <c r="D4" s="143" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="145">
-        <v>1E-8</v>
+        <v>238</v>
+      </c>
+      <c r="B5" s="145" t="b">
+        <v>1</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="144" t="s">
-        <v>252</v>
+      <c r="D5" s="143" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="150">
+        <v>240</v>
+      </c>
+      <c r="B6" s="144">
+        <v>1E-8</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="143" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="148">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C7" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="144" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="146" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="144" t="s">
-        <v>240</v>
+      <c r="D7" s="143" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="146">
-        <v>2</v>
+        <v>225</v>
+      </c>
+      <c r="B8" s="145" t="s">
+        <v>226</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="144" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D8" s="143" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="141" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="145">
+        <v>2</v>
+      </c>
+      <c r="C9" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="159" t="s">
-        <v>254</v>
+      <c r="D9" s="143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="145" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="157" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="157" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="157" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="61" priority="1">
+  <conditionalFormatting sqref="A3:D3 A4 C4:D4">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>$B$2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{A49C7C3F-F289-4E9E-93BF-BE4D6D78B296}">
+  <conditionalFormatting sqref="A12:D12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$11=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{A49C7C3F-F289-4E9E-93BF-BE4D6D78B296}">
       <formula1>"max, mean, norm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4 B9" xr:uid="{84E938EB-3DC7-476B-8ED7-970048E4677C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4:B5 B10" xr:uid="{84E938EB-3DC7-476B-8ED7-970048E4677C}">
       <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{E03D1A38-E4CD-4F8A-8EC3-3AE9680BF385}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{54BD5B48-48D3-4918-B933-84192454EDAB}">
+      <formula1>"Neut,Comp,Comm,Copr"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10968,17 +11009,17 @@
       <c r="A1" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="145">
+      <c r="B1" s="144">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="160" t="s">
+      <c r="D1" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="186" t="s">
-        <v>256</v>
+      <c r="E1" s="248" t="s">
+        <v>245</v>
       </c>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
@@ -10990,16 +11031,16 @@
       <c r="A2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="145">
+      <c r="B2" s="144">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="186"/>
+      <c r="E2" s="248"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
@@ -11010,16 +11051,16 @@
       <c r="A3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="145">
+      <c r="B3" s="144">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="186"/>
+      <c r="E3" s="248"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
@@ -11030,16 +11071,16 @@
       <c r="A4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="144">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="160" t="s">
+      <c r="D4" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="186"/>
+      <c r="E4" s="248"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
@@ -11050,16 +11091,16 @@
       <c r="A5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="144">
         <v>1E-3</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="186"/>
+      <c r="E5" s="248"/>
       <c r="F5" s="101"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
@@ -11070,17 +11111,17 @@
       <c r="A6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="144">
         <f>B1/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="186"/>
+      <c r="E6" s="248"/>
       <c r="F6" s="101"/>
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
@@ -11091,17 +11132,17 @@
       <c r="A7" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="144">
         <f>B5</f>
         <v>1E-3</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="186"/>
+      <c r="E7" s="248"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>

--- a/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
+++ b/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209BA9F6-7B57-4FE3-8147-8217085A1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED490FD-E93C-4E82-A5D2-4F8F416A7D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="278">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -1341,9 +1341,6 @@
     <t>Speciation included</t>
   </si>
   <si>
-    <t>Calculate subspecies compound using the equilibrium constants calculated from dG values</t>
-  </si>
-  <si>
     <t>Diffusion tolerance</t>
   </si>
   <si>
@@ -1453,6 +1450,12 @@
   </si>
   <si>
     <t xml:space="preserve">Which of the structure model simulations is this? Neut: Neutralism, Comp: Competition, Comm: Commensalism, Copr: Coprotection </t>
+  </si>
+  <si>
+    <t>Calculate subspecies compound using the equilibrium constants calculated from dG values. If pH solving is included, then this value is always set to TRUE.</t>
+  </si>
+  <si>
+    <t>This is a summary of all settings in the model. Do not change them here, but in the respective tab.</t>
   </si>
 </sst>
 </file>
@@ -3126,9 +3129,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3590,6 +3590,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3605,17 +3608,7 @@
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="87">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -3983,6 +3976,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -4071,6 +4074,26 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4456,18 +4479,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="102" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>125</v>
       </c>
       <c r="B2" s="69" t="s">
@@ -4514,14 +4537,14 @@
       <c r="A1" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="144">
+      <c r="B1" s="143">
         <v>1E-10</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="249" t="s">
-        <v>244</v>
+      <c r="D1" s="248" t="s">
+        <v>243</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
@@ -4531,13 +4554,13 @@
       <c r="A2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="144">
+      <c r="B2" s="143">
         <v>1E-10</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="249"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
@@ -4546,13 +4569,13 @@
       <c r="A3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="144">
+      <c r="B3" s="143">
         <v>1E-10</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="249"/>
+      <c r="D3" s="248"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
@@ -4561,13 +4584,13 @@
       <c r="A4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="143">
         <v>1E-10</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="249"/>
+      <c r="D4" s="248"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
@@ -4576,58 +4599,58 @@
       <c r="A5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="144">
+      <c r="B5" s="143">
         <v>1E-10</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="249"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="149">
+      <c r="B6" s="148">
         <f>B1/2</f>
         <v>5.0000000000000002E-11</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="249"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="165">
+      <c r="B7" s="164">
         <v>1E-10</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="249"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="69"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="69"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="159"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
@@ -4636,7 +4659,7 @@
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
-      <c r="G10" s="101"/>
+      <c r="G10" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4651,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4665,318 +4688,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="176" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="176" t="s">
+      <c r="B1" s="175" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="175" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="176" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="177" t="s">
+      <c r="E1" s="175" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="F1" s="176" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="177" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="177" t="s">
-        <v>267</v>
+      <c r="G1" s="176" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="185">
+      <c r="C2" s="184">
         <v>-79.37</v>
       </c>
-      <c r="D2" s="185">
+      <c r="D2" s="184">
         <v>-26.57</v>
       </c>
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="185" t="s">
+      <c r="F2" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="182">
+      <c r="G2" s="181">
         <v>3</v>
       </c>
-      <c r="H2" s="178" t="s">
+      <c r="H2" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="249" t="s">
-        <v>268</v>
+      <c r="I2" s="248" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="185">
+      <c r="C3" s="184">
         <v>-50.6</v>
       </c>
-      <c r="D3" s="185">
+      <c r="D3" s="184">
         <v>-32.200000000000003</v>
       </c>
-      <c r="E3" s="185" t="s">
+      <c r="E3" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="185" t="s">
+      <c r="F3" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="183">
+      <c r="G3" s="182">
         <v>2</v>
       </c>
-      <c r="H3" s="179" t="s">
+      <c r="H3" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="249"/>
+      <c r="I3" s="248"/>
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="184">
         <v>-103.7</v>
       </c>
-      <c r="D4" s="185">
+      <c r="D4" s="184">
         <v>-111.3</v>
       </c>
-      <c r="E4" s="185" t="s">
+      <c r="E4" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="185" t="s">
+      <c r="F4" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="183">
+      <c r="G4" s="182">
         <v>2</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="248"/>
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="185">
+      <c r="C5" s="184">
         <v>16.399999999999999</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="185" t="s">
+      <c r="E5" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="185" t="s">
+      <c r="F5" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="183">
+      <c r="G5" s="182">
         <v>2</v>
       </c>
-      <c r="H5" s="179" t="s">
+      <c r="H5" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="249"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="185">
+      <c r="B6" s="184">
         <f>-386</f>
         <v>-386</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <v>-623.16</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="184">
         <v>-586.85</v>
       </c>
-      <c r="E6" s="185">
+      <c r="E6" s="184">
         <v>-527.79999999999995</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="183">
+      <c r="G6" s="182">
         <v>3</v>
       </c>
-      <c r="H6" s="179" t="s">
+      <c r="H6" s="178" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="249"/>
+      <c r="I6" s="248"/>
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="189">
+      <c r="C7" s="188">
         <v>-755.9</v>
       </c>
-      <c r="D7" s="189">
+      <c r="D7" s="188">
         <f>-180.69*4.184</f>
         <v>-756.00696000000005</v>
       </c>
-      <c r="E7" s="189">
+      <c r="E7" s="188">
         <f>-177.97*4.184</f>
         <v>-744.62648000000002</v>
       </c>
-      <c r="F7" s="189" t="s">
+      <c r="F7" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="184">
+      <c r="G7" s="183">
         <v>4</v>
       </c>
       <c r="H7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="249"/>
+      <c r="I7" s="248"/>
     </row>
     <row r="8" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="191">
-        <v>0</v>
-      </c>
-      <c r="D8" s="191" t="s">
+      <c r="C8" s="190">
+        <v>0</v>
+      </c>
+      <c r="D8" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="191" t="s">
+      <c r="E8" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="192" t="s">
+      <c r="F8" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="211">
+      <c r="G8" s="210">
         <v>2</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="249"/>
+      <c r="I8" s="248"/>
     </row>
     <row r="9" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="191">
-        <v>0</v>
-      </c>
-      <c r="D9" s="191" t="s">
+      <c r="C9" s="190">
+        <v>0</v>
+      </c>
+      <c r="D9" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="192" t="s">
+      <c r="F9" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="211">
+      <c r="G9" s="210">
         <v>2</v>
       </c>
       <c r="H9" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="249"/>
+      <c r="I9" s="248"/>
     </row>
     <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="190" t="s">
+      <c r="B10" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="190">
+      <c r="C10" s="189">
         <v>-237.18</v>
       </c>
-      <c r="D10" s="190">
+      <c r="D10" s="189">
         <v>-157.30000000000001</v>
       </c>
-      <c r="E10" s="190" t="s">
+      <c r="E10" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="190" t="s">
+      <c r="F10" s="189" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="210">
+      <c r="G10" s="209">
         <v>2</v>
       </c>
       <c r="H10" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="249"/>
+      <c r="I10" s="248"/>
     </row>
     <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="174" t="s">
+      <c r="A11" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="185">
-        <v>0</v>
-      </c>
-      <c r="D11" s="185" t="s">
+      <c r="C11" s="184">
+        <v>0</v>
+      </c>
+      <c r="D11" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="185" t="s">
+      <c r="E11" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="185" t="s">
+      <c r="F11" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="184">
+      <c r="G11" s="183">
         <v>2</v>
       </c>
       <c r="H11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="249"/>
+      <c r="I11" s="248"/>
     </row>
     <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="179" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="179" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="180" t="s">
+      <c r="D12" s="180" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="181" t="s">
+      <c r="E12" s="179" t="s">
         <v>254</v>
-      </c>
-      <c r="E12" s="180" t="s">
-        <v>255</v>
       </c>
       <c r="H12" s="72"/>
     </row>
@@ -4984,458 +5007,458 @@
       <c r="A13" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="186">
+      <c r="B13" s="185">
         <f>IF(COUNT(B2,C2)=2, EXP(($C$10+B2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="170">
+      <c r="C13" s="169">
         <f>IF(COUNT(C2,D2)=2, EXP((D2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.9083870641861443E-10</v>
       </c>
-      <c r="D13" s="186">
+      <c r="D13" s="185">
         <f>IF(COUNT(D2,E2)=2, EXP((E2-D2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="186">
+      <c r="E13" s="185">
         <f>IF(COUNT(E2,F2)=2, EXP((F2-E2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="248" t="s">
-        <v>269</v>
+      <c r="I13" s="247" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="186">
+      <c r="B14" s="185">
         <f>IF(COUNT(B3,C3)=2, EXP(($C$10+B3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="169">
         <f>IF(COUNT(C3,D3)=2, EXP((D3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.2656707191475868E-4</v>
       </c>
-      <c r="D14" s="186">
+      <c r="D14" s="185">
         <f>IF(COUNT(D3,E3)=2, EXP((E3-D3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="186">
+      <c r="E14" s="185">
         <f>IF(COUNT(E3,F3)=2, EXP((F3-E3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="72"/>
-      <c r="I14" s="248"/>
+      <c r="I14" s="247"/>
     </row>
     <row r="15" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="186">
+      <c r="B15" s="185">
         <f>IF(COUNT(B4,C4)=2, EXP(($C$10+B4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="170">
+      <c r="C15" s="169">
         <f>IF(COUNT(C4,D4)=2, EXP((D4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>22.603837077490315</v>
       </c>
-      <c r="D15" s="186">
+      <c r="D15" s="185">
         <f>IF(COUNT(D4,E4)=2, EXP((E4-D4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="186">
+      <c r="E15" s="185">
         <f>IF(COUNT(E4,F4)=2, EXP((F4-E4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="72"/>
-      <c r="I15" s="248"/>
+      <c r="I15" s="247"/>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="186">
+      <c r="B16" s="185">
         <f>IF(COUNT(B5,C5)=2, EXP(($C$10+B5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="186">
+      <c r="C16" s="185">
         <f>IF(COUNT(C5,D5)=2, EXP((D5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="186">
+      <c r="D16" s="185">
         <f>IF(COUNT(D5,E5)=2, EXP((E5-D5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="186">
+      <c r="E16" s="185">
         <f>IF(COUNT(E5,F5)=2, EXP((F5-E5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="71"/>
-      <c r="I16" s="248"/>
+      <c r="I16" s="247"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="187">
+      <c r="B17" s="186">
         <f>1/0.0017</f>
         <v>588.23529411764707</v>
       </c>
-      <c r="C17" s="170">
+      <c r="C17" s="169">
         <f>IF(COUNT(C6,D6)=2, EXP((D6-C6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.3901312221699524E-7</v>
       </c>
-      <c r="D17" s="170">
+      <c r="D17" s="169">
         <f>IF(COUNT(D6,E6)=2, EXP((E6-D6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.008575507210982E-11</v>
       </c>
-      <c r="E17" s="186">
+      <c r="E17" s="185">
         <f>IF(COUNT(E6,F6)=2, EXP((F6-E6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="71"/>
-      <c r="I17" s="248"/>
+      <c r="I17" s="247"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="195">
+      <c r="B18" s="194">
         <f>IF(COUNT(B7,C7)=2, EXP(($C$10+B7-C7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="208">
+      <c r="C18" s="207">
         <v>100</v>
       </c>
-      <c r="D18" s="209">
+      <c r="D18" s="208">
         <f>10^(-1.92)</f>
         <v>1.2022644346174125E-2</v>
       </c>
-      <c r="E18" s="196">
+      <c r="E18" s="195">
         <f>IF(COUNT(E7,F7)=2, EXP((F7-E7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="71"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="248"/>
+      <c r="I18" s="247"/>
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="206">
+      <c r="B19" s="205">
         <f>IF(COUNT(B8,C8)=2, EXP(($C$10+B8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="207">
+      <c r="C19" s="206">
         <f>IF(COUNT(C8,D8)=2, EXP((D8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="207">
+      <c r="D19" s="206">
         <f>IF(COUNT(D8,E8)=2, EXP((E8-D8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="207">
+      <c r="E19" s="206">
         <f>IF(COUNT(E8,F8)=2, EXP((F8-E8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="71"/>
       <c r="H19" s="71"/>
-      <c r="I19" s="248"/>
+      <c r="I19" s="247"/>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="164" t="s">
+      <c r="A20" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="197">
+      <c r="B20" s="196">
         <f>IF(COUNT(B9,C9)=2, EXP(($C$10+B9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="198">
+      <c r="C20" s="197">
         <f>IF(COUNT(C9,D9)=2, EXP((D9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>IF(COUNT(D9,E9)=2, EXP((E9-D9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="198">
+      <c r="E20" s="197">
         <f>IF(COUNT(E9,F9)=2, EXP((F9-E9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="248"/>
+      <c r="I20" s="247"/>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="194">
+      <c r="B21" s="193">
         <f>IF(COUNT(B10,C10)=2, EXP(($C$10+B10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="126">
+      <c r="C21" s="125">
         <f>IF(COUNT(C10,D10)=2, EXP((D10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.845648305092005E-15</v>
       </c>
-      <c r="D21" s="194">
+      <c r="D21" s="193">
         <f>IF(COUNT(D10,E10)=2, EXP((E10-D10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="194">
+      <c r="E21" s="193">
         <f>IF(COUNT(E10,F10)=2, EXP((F10-E10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="248"/>
+      <c r="I21" s="247"/>
     </row>
     <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="186">
+      <c r="B22" s="185">
         <f>IF(COUNT(B11,C11)=2, EXP(($C$10+B11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="186">
+      <c r="C22" s="185">
         <f>IF(COUNT(C11,D11)=2, EXP((D11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="186">
+      <c r="D22" s="185">
         <f>IF(COUNT(D11,E11)=2, EXP((E11-D11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="186">
+      <c r="E22" s="185">
         <f>IF(COUNT(E11,F11)=2, EXP((F11-E11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="71"/>
-      <c r="I22" s="248"/>
+      <c r="I22" s="247"/>
     </row>
     <row r="23" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="250" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="251"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="251"/>
-      <c r="E23" s="251"/>
-      <c r="F23" s="252"/>
+      <c r="A23" s="249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="250"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="251"/>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="188">
+      <c r="C24" s="187">
         <v>1</v>
       </c>
-      <c r="D24" s="188">
-        <v>0</v>
-      </c>
-      <c r="E24" s="188" t="s">
+      <c r="D24" s="187">
+        <v>0</v>
+      </c>
+      <c r="E24" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="188" t="s">
+      <c r="F24" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="248" t="s">
-        <v>270</v>
+      <c r="I24" s="247" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="188" t="s">
+      <c r="B25" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="188">
-        <v>0</v>
-      </c>
-      <c r="D25" s="188">
+      <c r="C25" s="187">
+        <v>0</v>
+      </c>
+      <c r="D25" s="187">
         <v>-1</v>
       </c>
-      <c r="E25" s="188" t="s">
+      <c r="E25" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="188" t="s">
+      <c r="F25" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="248"/>
+      <c r="I25" s="247"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="188">
-        <v>0</v>
-      </c>
-      <c r="D26" s="188">
+      <c r="C26" s="187">
+        <v>0</v>
+      </c>
+      <c r="D26" s="187">
         <v>-1</v>
       </c>
-      <c r="E26" s="188" t="s">
+      <c r="E26" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="188" t="s">
+      <c r="F26" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="248"/>
+      <c r="I26" s="247"/>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="188">
-        <v>0</v>
-      </c>
-      <c r="D27" s="188" t="s">
+      <c r="C27" s="187">
+        <v>0</v>
+      </c>
+      <c r="D27" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="188" t="s">
+      <c r="E27" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="188" t="s">
+      <c r="F27" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="248"/>
+      <c r="I27" s="247"/>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="188">
-        <v>0</v>
-      </c>
-      <c r="C28" s="188">
-        <v>0</v>
-      </c>
-      <c r="D28" s="188">
+      <c r="B28" s="187">
+        <v>0</v>
+      </c>
+      <c r="C28" s="187">
+        <v>0</v>
+      </c>
+      <c r="D28" s="187">
         <v>-1</v>
       </c>
-      <c r="E28" s="188">
+      <c r="E28" s="187">
         <v>-2</v>
       </c>
-      <c r="F28" s="188" t="s">
+      <c r="F28" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="248"/>
+      <c r="I28" s="247"/>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="201">
+      <c r="C29" s="200">
+        <v>0</v>
+      </c>
+      <c r="D29" s="200">
         <v>-1</v>
       </c>
-      <c r="D29" s="201">
+      <c r="E29" s="200">
         <v>-2</v>
       </c>
-      <c r="E29" s="201" t="s">
+      <c r="F29" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="201" t="s">
+      <c r="I29" s="247"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="163" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="248"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="164" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="204" t="s">
+      <c r="C30" s="204">
+        <v>1</v>
+      </c>
+      <c r="D30" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="205">
+      <c r="E30" s="204" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="204" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="247"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="163" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="201" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="202">
+        <v>0</v>
+      </c>
+      <c r="D31" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="202" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="247"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="172" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="198">
+        <v>0</v>
+      </c>
+      <c r="D32" s="198">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="198" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="247"/>
+    </row>
+    <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="173" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="187" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="187">
         <v>1</v>
       </c>
-      <c r="D30" s="205" t="s">
+      <c r="D33" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="205" t="s">
+      <c r="E33" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="205" t="s">
+      <c r="F33" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="248"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="202" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="203">
-        <v>0</v>
-      </c>
-      <c r="D31" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="248"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="173" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="199" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="199">
-        <v>0</v>
-      </c>
-      <c r="D32" s="199">
-        <v>-1</v>
-      </c>
-      <c r="E32" s="199" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="199" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="248"/>
-    </row>
-    <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="174" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="188" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="188">
-        <v>1</v>
-      </c>
-      <c r="D33" s="188" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="188" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="188" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="248"/>
+      <c r="I33" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5445,15 +5468,15 @@
     <mergeCell ref="I24:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F11 B24:F33 B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="containsText" dxfId="61" priority="54" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="60" priority="54" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="55" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5483,134 +5506,134 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="169" t="s">
+      <c r="E1" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="253" t="s">
-        <v>264</v>
+      <c r="F1" s="252" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="170">
+      <c r="B2" s="169">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C2" s="170">
-        <v>0</v>
-      </c>
-      <c r="D2" s="170">
-        <v>0</v>
-      </c>
-      <c r="E2" s="170">
+      <c r="C2" s="169">
+        <v>0</v>
+      </c>
+      <c r="D2" s="169">
+        <v>0</v>
+      </c>
+      <c r="E2" s="169">
         <f>(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F2" s="253"/>
+      <c r="F2" s="252"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="170">
-        <v>0</v>
-      </c>
-      <c r="C3" s="170">
+        <v>264</v>
+      </c>
+      <c r="B3" s="169">
+        <v>0</v>
+      </c>
+      <c r="C3" s="169">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D3" s="170">
-        <v>0</v>
-      </c>
-      <c r="E3" s="170">
+      <c r="D3" s="169">
+        <v>0</v>
+      </c>
+      <c r="E3" s="169">
         <f t="shared" ref="E3:E7" si="0">(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F3" s="253"/>
+      <c r="F3" s="252"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="170">
-        <v>0</v>
-      </c>
-      <c r="C4" s="170">
+        <v>265</v>
+      </c>
+      <c r="B4" s="169">
+        <v>0</v>
+      </c>
+      <c r="C4" s="169">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D4" s="170">
-        <v>0</v>
-      </c>
-      <c r="E4" s="170">
+      <c r="D4" s="169">
+        <v>0</v>
+      </c>
+      <c r="E4" s="169">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F4" s="253"/>
+      <c r="F4" s="252"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="170">
+      <c r="B5" s="169">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C5" s="170">
+      <c r="C5" s="169">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D5" s="170">
-        <v>0</v>
-      </c>
-      <c r="E5" s="170">
-        <v>0</v>
-      </c>
-      <c r="F5" s="253"/>
+      <c r="D5" s="169">
+        <v>0</v>
+      </c>
+      <c r="E5" s="169">
+        <v>0</v>
+      </c>
+      <c r="F5" s="252"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="170">
+      <c r="B6" s="169">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C6" s="170">
-        <v>0</v>
-      </c>
-      <c r="D6" s="170">
-        <v>0</v>
-      </c>
-      <c r="E6" s="170">
+      <c r="C6" s="169">
+        <v>0</v>
+      </c>
+      <c r="D6" s="169">
+        <v>0</v>
+      </c>
+      <c r="E6" s="169">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F6" s="253"/>
+      <c r="F6" s="252"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="170">
+      <c r="B7" s="169">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C7" s="170">
-        <v>0</v>
-      </c>
-      <c r="D7" s="170">
+      <c r="C7" s="169">
+        <v>0</v>
+      </c>
+      <c r="D7" s="169">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E7" s="170">
+      <c r="E7" s="169">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F7" s="253"/>
+      <c r="F7" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5618,7 +5641,7 @@
   </mergeCells>
   <phoneticPr fontId="41" type="noConversion"/>
   <conditionalFormatting sqref="B2:E7">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5644,116 +5667,116 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="253" t="s">
-        <v>263</v>
+      <c r="E1" s="252" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="170">
-        <v>0</v>
-      </c>
-      <c r="C2" s="170">
-        <v>0</v>
-      </c>
-      <c r="D2" s="170">
-        <v>0</v>
-      </c>
-      <c r="E2" s="253"/>
+      <c r="B2" s="169">
+        <v>0</v>
+      </c>
+      <c r="C2" s="169">
+        <v>0</v>
+      </c>
+      <c r="D2" s="169">
+        <v>0</v>
+      </c>
+      <c r="E2" s="252"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="170">
-        <v>0</v>
-      </c>
-      <c r="C3" s="170">
-        <v>0</v>
-      </c>
-      <c r="D3" s="170">
-        <v>0</v>
-      </c>
-      <c r="E3" s="253"/>
+        <v>264</v>
+      </c>
+      <c r="B3" s="169">
+        <v>0</v>
+      </c>
+      <c r="C3" s="169">
+        <v>0</v>
+      </c>
+      <c r="D3" s="169">
+        <v>0</v>
+      </c>
+      <c r="E3" s="252"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="170">
-        <v>0</v>
-      </c>
-      <c r="C4" s="170">
-        <v>0</v>
-      </c>
-      <c r="D4" s="170">
-        <v>0</v>
-      </c>
-      <c r="E4" s="253"/>
+        <v>265</v>
+      </c>
+      <c r="B4" s="169">
+        <v>0</v>
+      </c>
+      <c r="C4" s="169">
+        <v>0</v>
+      </c>
+      <c r="D4" s="169">
+        <v>0</v>
+      </c>
+      <c r="E4" s="252"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="170">
-        <v>0</v>
-      </c>
-      <c r="C5" s="170">
-        <v>0</v>
-      </c>
-      <c r="D5" s="170">
+      <c r="B5" s="169">
+        <v>0</v>
+      </c>
+      <c r="C5" s="169">
+        <v>0</v>
+      </c>
+      <c r="D5" s="169">
         <f>0.01*(1/32)*(1/1000)</f>
         <v>3.1250000000000003E-7</v>
       </c>
-      <c r="E5" s="253"/>
+      <c r="E5" s="252"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="170">
-        <v>0</v>
-      </c>
-      <c r="C6" s="170">
-        <v>0</v>
-      </c>
-      <c r="D6" s="170">
-        <v>0</v>
-      </c>
-      <c r="E6" s="253"/>
+      <c r="B6" s="169">
+        <v>0</v>
+      </c>
+      <c r="C6" s="169">
+        <v>0</v>
+      </c>
+      <c r="D6" s="169">
+        <v>0</v>
+      </c>
+      <c r="E6" s="252"/>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="170">
-        <v>0</v>
-      </c>
-      <c r="C7" s="170">
-        <v>0</v>
-      </c>
-      <c r="D7" s="170">
-        <v>0</v>
-      </c>
-      <c r="E7" s="253"/>
+      <c r="B7" s="169">
+        <v>0</v>
+      </c>
+      <c r="C7" s="169">
+        <v>0</v>
+      </c>
+      <c r="D7" s="169">
+        <v>0</v>
+      </c>
+      <c r="E7" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D7">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5779,71 +5802,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="169" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" s="169" t="s">
+      <c r="B1" s="168" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="168" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="168" t="s">
         <v>260</v>
-      </c>
-      <c r="E1" s="169" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="170">
+      <c r="B2" s="169">
         <f>0.0415</f>
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="172">
+      <c r="D2" s="171">
         <f>E2*0.1</f>
         <v>1E-3</v>
       </c>
-      <c r="E2" s="172">
+      <c r="E2" s="171">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="170">
+        <v>264</v>
+      </c>
+      <c r="B3" s="169">
         <v>2.07E-2</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="172">
+      <c r="D3" s="171">
         <f t="shared" ref="D3:D7" si="0">E3*0.1</f>
         <v>1E-3</v>
       </c>
-      <c r="E3" s="172">
+      <c r="E3" s="171">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="170">
+        <v>265</v>
+      </c>
+      <c r="B4" s="169">
         <v>2.07E-2</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="172">
+      <c r="D4" s="171">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E4" s="172">
+      <c r="E4" s="171">
         <v>0.01</v>
       </c>
     </row>
@@ -5851,18 +5874,18 @@
       <c r="A5" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="170">
+      <c r="B5" s="169">
         <f>0.066</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="172">
+      <c r="D5" s="171">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E5" s="172">
+      <c r="E5" s="171">
         <v>0.01</v>
       </c>
     </row>
@@ -5870,17 +5893,17 @@
       <c r="A6" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="170">
+      <c r="B6" s="169">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="172">
+      <c r="D6" s="171">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E6" s="172">
+      <c r="E6" s="171">
         <v>0.01</v>
       </c>
     </row>
@@ -5888,17 +5911,17 @@
       <c r="A7" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="170">
+      <c r="B7" s="169">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="172">
+      <c r="D7" s="171">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E7" s="172">
+      <c r="E7" s="171">
         <v>0.01</v>
       </c>
     </row>
@@ -5935,91 +5958,91 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="69"/>
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="255" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="256" t="s">
+      <c r="C1" s="253"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="255" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="253"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="255" t="s">
         <v>265</v>
       </c>
-      <c r="F1" s="254"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="256" t="s">
-        <v>266</v>
-      </c>
-      <c r="I1" s="254"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="254" t="s">
+      <c r="I1" s="253"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="253" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="254"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="254" t="s">
+      <c r="L1" s="253"/>
+      <c r="M1" s="254"/>
+      <c r="N1" s="253" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="254"/>
-      <c r="P1" s="255"/>
-      <c r="Q1" s="254" t="s">
+      <c r="O1" s="253"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="253" t="s">
         <v>127</v>
       </c>
-      <c r="R1" s="254"/>
-      <c r="S1" s="255"/>
+      <c r="R1" s="253"/>
+      <c r="S1" s="254"/>
     </row>
     <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="214" t="s">
+      <c r="C2" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="213" t="s">
+      <c r="E2" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="214" t="s">
+      <c r="F2" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="215" t="s">
+      <c r="G2" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="213" t="s">
+      <c r="H2" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="214" t="s">
+      <c r="I2" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="215" t="s">
+      <c r="J2" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="214" t="s">
+      <c r="K2" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="214" t="s">
+      <c r="L2" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="215" t="s">
+      <c r="M2" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="214" t="s">
+      <c r="N2" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="214" t="s">
+      <c r="O2" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="215" t="s">
+      <c r="P2" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="214" t="s">
+      <c r="Q2" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="214" t="s">
+      <c r="R2" s="213" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="215" t="s">
+      <c r="S2" s="214" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6027,58 +6050,58 @@
       <c r="A3" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="219">
+      <c r="B3" s="218">
         <v>-1</v>
       </c>
-      <c r="C3" s="113">
-        <v>0</v>
-      </c>
-      <c r="D3" s="220">
-        <v>0</v>
-      </c>
-      <c r="E3" s="219">
-        <v>0</v>
-      </c>
-      <c r="F3" s="113">
-        <v>0</v>
-      </c>
-      <c r="G3" s="220">
-        <v>0</v>
-      </c>
-      <c r="H3" s="219">
-        <v>0</v>
-      </c>
-      <c r="I3" s="113">
-        <v>0</v>
-      </c>
-      <c r="J3" s="220">
-        <v>0</v>
-      </c>
-      <c r="K3" s="219">
+      <c r="C3" s="112">
+        <v>0</v>
+      </c>
+      <c r="D3" s="219">
+        <v>0</v>
+      </c>
+      <c r="E3" s="218">
+        <v>0</v>
+      </c>
+      <c r="F3" s="112">
+        <v>0</v>
+      </c>
+      <c r="G3" s="219">
+        <v>0</v>
+      </c>
+      <c r="H3" s="218">
+        <v>0</v>
+      </c>
+      <c r="I3" s="112">
+        <v>0</v>
+      </c>
+      <c r="J3" s="219">
+        <v>0</v>
+      </c>
+      <c r="K3" s="218">
         <v>-1</v>
       </c>
-      <c r="L3" s="113">
-        <v>0</v>
-      </c>
-      <c r="M3" s="220">
-        <v>0</v>
-      </c>
-      <c r="N3" s="219">
+      <c r="L3" s="112">
+        <v>0</v>
+      </c>
+      <c r="M3" s="219">
+        <v>0</v>
+      </c>
+      <c r="N3" s="218">
         <v>-1</v>
       </c>
-      <c r="O3" s="113">
-        <v>0</v>
-      </c>
-      <c r="P3" s="220">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="219">
+      <c r="O3" s="112">
+        <v>0</v>
+      </c>
+      <c r="P3" s="219">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="218">
         <v>-1</v>
       </c>
-      <c r="R3" s="113">
-        <v>0</v>
-      </c>
-      <c r="S3" s="220">
+      <c r="R3" s="112">
+        <v>0</v>
+      </c>
+      <c r="S3" s="219">
         <v>0</v>
       </c>
     </row>
@@ -6086,58 +6109,58 @@
       <c r="A4" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="221">
+      <c r="B4" s="220">
         <v>1</v>
       </c>
-      <c r="C4" s="222">
-        <v>0</v>
-      </c>
-      <c r="D4" s="223">
-        <v>0</v>
-      </c>
-      <c r="E4" s="221">
+      <c r="C4" s="221">
+        <v>0</v>
+      </c>
+      <c r="D4" s="222">
+        <v>0</v>
+      </c>
+      <c r="E4" s="220">
         <v>-1</v>
       </c>
-      <c r="F4" s="222">
-        <v>0</v>
-      </c>
-      <c r="G4" s="223">
-        <v>0</v>
-      </c>
-      <c r="H4" s="221">
+      <c r="F4" s="221">
+        <v>0</v>
+      </c>
+      <c r="G4" s="222">
+        <v>0</v>
+      </c>
+      <c r="H4" s="220">
         <v>-1</v>
       </c>
-      <c r="I4" s="222">
-        <v>0</v>
-      </c>
-      <c r="J4" s="223">
-        <v>0</v>
-      </c>
-      <c r="K4" s="221">
+      <c r="I4" s="221">
+        <v>0</v>
+      </c>
+      <c r="J4" s="222">
+        <v>0</v>
+      </c>
+      <c r="K4" s="220">
         <v>-1</v>
       </c>
-      <c r="L4" s="222">
-        <v>0</v>
-      </c>
-      <c r="M4" s="223">
-        <v>0</v>
-      </c>
-      <c r="N4" s="221">
-        <v>0</v>
-      </c>
-      <c r="O4" s="222">
-        <v>0</v>
-      </c>
-      <c r="P4" s="223">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="221">
+      <c r="L4" s="221">
+        <v>0</v>
+      </c>
+      <c r="M4" s="222">
+        <v>0</v>
+      </c>
+      <c r="N4" s="220">
+        <v>0</v>
+      </c>
+      <c r="O4" s="221">
+        <v>0</v>
+      </c>
+      <c r="P4" s="222">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="220">
         <v>2</v>
       </c>
-      <c r="R4" s="222">
-        <v>0</v>
-      </c>
-      <c r="S4" s="223">
+      <c r="R4" s="221">
+        <v>0</v>
+      </c>
+      <c r="S4" s="222">
         <v>0</v>
       </c>
     </row>
@@ -6145,58 +6168,58 @@
       <c r="A5" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="221">
-        <v>0</v>
-      </c>
-      <c r="C5" s="222">
-        <v>0</v>
-      </c>
-      <c r="D5" s="223">
-        <v>0</v>
-      </c>
-      <c r="E5" s="221">
+      <c r="B5" s="220">
+        <v>0</v>
+      </c>
+      <c r="C5" s="221">
+        <v>0</v>
+      </c>
+      <c r="D5" s="222">
+        <v>0</v>
+      </c>
+      <c r="E5" s="220">
         <v>1</v>
       </c>
-      <c r="F5" s="222">
-        <v>0</v>
-      </c>
-      <c r="G5" s="223">
-        <v>0</v>
-      </c>
-      <c r="H5" s="221">
+      <c r="F5" s="221">
+        <v>0</v>
+      </c>
+      <c r="G5" s="222">
+        <v>0</v>
+      </c>
+      <c r="H5" s="220">
         <v>1</v>
       </c>
-      <c r="I5" s="222">
-        <v>0</v>
-      </c>
-      <c r="J5" s="223">
-        <v>0</v>
-      </c>
-      <c r="K5" s="221">
-        <v>0</v>
-      </c>
-      <c r="L5" s="222">
-        <v>0</v>
-      </c>
-      <c r="M5" s="223">
-        <v>0</v>
-      </c>
-      <c r="N5" s="221">
+      <c r="I5" s="221">
+        <v>0</v>
+      </c>
+      <c r="J5" s="222">
+        <v>0</v>
+      </c>
+      <c r="K5" s="220">
+        <v>0</v>
+      </c>
+      <c r="L5" s="221">
+        <v>0</v>
+      </c>
+      <c r="M5" s="222">
+        <v>0</v>
+      </c>
+      <c r="N5" s="220">
         <v>1</v>
       </c>
-      <c r="O5" s="222">
-        <v>0</v>
-      </c>
-      <c r="P5" s="223">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="221">
+      <c r="O5" s="221">
+        <v>0</v>
+      </c>
+      <c r="P5" s="222">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="220">
         <v>-1</v>
       </c>
-      <c r="R5" s="222">
-        <v>0</v>
-      </c>
-      <c r="S5" s="223">
+      <c r="R5" s="221">
+        <v>0</v>
+      </c>
+      <c r="S5" s="222">
         <v>0</v>
       </c>
     </row>
@@ -6204,58 +6227,58 @@
       <c r="A6" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="221">
+      <c r="B6" s="220">
         <v>-1.5</v>
       </c>
-      <c r="C6" s="222">
-        <v>0</v>
-      </c>
-      <c r="D6" s="223">
-        <v>0</v>
-      </c>
-      <c r="E6" s="221">
+      <c r="C6" s="221">
+        <v>0</v>
+      </c>
+      <c r="D6" s="222">
+        <v>0</v>
+      </c>
+      <c r="E6" s="220">
         <v>-0.5</v>
       </c>
-      <c r="F6" s="222">
-        <v>0</v>
-      </c>
-      <c r="G6" s="223">
-        <v>0</v>
-      </c>
-      <c r="H6" s="221">
+      <c r="F6" s="221">
+        <v>0</v>
+      </c>
+      <c r="G6" s="222">
+        <v>0</v>
+      </c>
+      <c r="H6" s="220">
         <v>-0.5</v>
       </c>
-      <c r="I6" s="222">
-        <v>0</v>
-      </c>
-      <c r="J6" s="223">
-        <v>0</v>
-      </c>
-      <c r="K6" s="221">
-        <v>0</v>
-      </c>
-      <c r="L6" s="222">
-        <v>0</v>
-      </c>
-      <c r="M6" s="223">
-        <v>0</v>
-      </c>
-      <c r="N6" s="221">
+      <c r="I6" s="221">
+        <v>0</v>
+      </c>
+      <c r="J6" s="222">
+        <v>0</v>
+      </c>
+      <c r="K6" s="220">
+        <v>0</v>
+      </c>
+      <c r="L6" s="221">
+        <v>0</v>
+      </c>
+      <c r="M6" s="222">
+        <v>0</v>
+      </c>
+      <c r="N6" s="220">
         <v>-2</v>
       </c>
-      <c r="O6" s="222">
-        <v>0</v>
-      </c>
-      <c r="P6" s="223">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="221">
+      <c r="O6" s="221">
+        <v>0</v>
+      </c>
+      <c r="P6" s="222">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="220">
         <v>-1</v>
       </c>
-      <c r="R6" s="222">
-        <v>0</v>
-      </c>
-      <c r="S6" s="223">
+      <c r="R6" s="221">
+        <v>0</v>
+      </c>
+      <c r="S6" s="222">
         <v>0</v>
       </c>
     </row>
@@ -6263,58 +6286,58 @@
       <c r="A7" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="221">
-        <v>0</v>
-      </c>
-      <c r="C7" s="222">
+      <c r="B7" s="220">
+        <v>0</v>
+      </c>
+      <c r="C7" s="221">
         <v>-1</v>
       </c>
-      <c r="D7" s="223">
+      <c r="D7" s="222">
         <v>1</v>
       </c>
-      <c r="E7" s="221">
-        <v>0</v>
-      </c>
-      <c r="F7" s="222">
+      <c r="E7" s="220">
+        <v>0</v>
+      </c>
+      <c r="F7" s="221">
         <v>-1</v>
       </c>
-      <c r="G7" s="223">
+      <c r="G7" s="222">
         <v>1</v>
       </c>
-      <c r="H7" s="221">
-        <v>0</v>
-      </c>
-      <c r="I7" s="222">
+      <c r="H7" s="220">
+        <v>0</v>
+      </c>
+      <c r="I7" s="221">
         <v>-1</v>
       </c>
-      <c r="J7" s="223">
+      <c r="J7" s="222">
         <v>1</v>
       </c>
-      <c r="K7" s="221">
-        <v>0</v>
-      </c>
-      <c r="L7" s="222">
+      <c r="K7" s="220">
+        <v>0</v>
+      </c>
+      <c r="L7" s="221">
         <v>-1</v>
       </c>
-      <c r="M7" s="223">
+      <c r="M7" s="222">
         <v>1</v>
       </c>
-      <c r="N7" s="221">
-        <v>0</v>
-      </c>
-      <c r="O7" s="222">
+      <c r="N7" s="220">
+        <v>0</v>
+      </c>
+      <c r="O7" s="221">
         <v>-1</v>
       </c>
-      <c r="P7" s="223">
+      <c r="P7" s="222">
         <v>1</v>
       </c>
-      <c r="Q7" s="221">
-        <v>0</v>
-      </c>
-      <c r="R7" s="222">
+      <c r="Q7" s="220">
+        <v>0</v>
+      </c>
+      <c r="R7" s="221">
         <v>-1</v>
       </c>
-      <c r="S7" s="223">
+      <c r="S7" s="222">
         <v>1</v>
       </c>
     </row>
@@ -6322,294 +6345,294 @@
       <c r="A8" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="224">
-        <v>0</v>
-      </c>
-      <c r="C8" s="216">
-        <v>0</v>
-      </c>
-      <c r="D8" s="225">
-        <v>0</v>
-      </c>
-      <c r="E8" s="224">
-        <v>0</v>
-      </c>
-      <c r="F8" s="216">
-        <v>0</v>
-      </c>
-      <c r="G8" s="225">
-        <v>0</v>
-      </c>
-      <c r="H8" s="224">
-        <v>0</v>
-      </c>
-      <c r="I8" s="216">
-        <v>0</v>
-      </c>
-      <c r="J8" s="225">
-        <v>0</v>
-      </c>
-      <c r="K8" s="224">
-        <v>0</v>
-      </c>
-      <c r="L8" s="216">
-        <v>0</v>
-      </c>
-      <c r="M8" s="225">
-        <v>0</v>
-      </c>
-      <c r="N8" s="224">
-        <v>0</v>
-      </c>
-      <c r="O8" s="216">
-        <v>0</v>
-      </c>
-      <c r="P8" s="225">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="224">
-        <v>0</v>
-      </c>
-      <c r="R8" s="216">
-        <v>0</v>
-      </c>
-      <c r="S8" s="225">
+      <c r="B8" s="223">
+        <v>0</v>
+      </c>
+      <c r="C8" s="215">
+        <v>0</v>
+      </c>
+      <c r="D8" s="224">
+        <v>0</v>
+      </c>
+      <c r="E8" s="223">
+        <v>0</v>
+      </c>
+      <c r="F8" s="215">
+        <v>0</v>
+      </c>
+      <c r="G8" s="224">
+        <v>0</v>
+      </c>
+      <c r="H8" s="223">
+        <v>0</v>
+      </c>
+      <c r="I8" s="215">
+        <v>0</v>
+      </c>
+      <c r="J8" s="224">
+        <v>0</v>
+      </c>
+      <c r="K8" s="223">
+        <v>0</v>
+      </c>
+      <c r="L8" s="215">
+        <v>0</v>
+      </c>
+      <c r="M8" s="224">
+        <v>0</v>
+      </c>
+      <c r="N8" s="223">
+        <v>0</v>
+      </c>
+      <c r="O8" s="215">
+        <v>0</v>
+      </c>
+      <c r="P8" s="224">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="223">
+        <v>0</v>
+      </c>
+      <c r="R8" s="215">
+        <v>0</v>
+      </c>
+      <c r="S8" s="224">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="217">
-        <v>0</v>
-      </c>
-      <c r="C9" s="218">
-        <v>0</v>
-      </c>
-      <c r="D9" s="226">
-        <v>0</v>
-      </c>
-      <c r="E9" s="217">
-        <v>0</v>
-      </c>
-      <c r="F9" s="218">
-        <v>0</v>
-      </c>
-      <c r="G9" s="226">
-        <v>0</v>
-      </c>
-      <c r="H9" s="217">
-        <v>0</v>
-      </c>
-      <c r="I9" s="218">
-        <v>0</v>
-      </c>
-      <c r="J9" s="226">
-        <v>0</v>
-      </c>
-      <c r="K9" s="217">
-        <v>0</v>
-      </c>
-      <c r="L9" s="218">
-        <v>0</v>
-      </c>
-      <c r="M9" s="226">
-        <v>0</v>
-      </c>
-      <c r="N9" s="217">
-        <v>0</v>
-      </c>
-      <c r="O9" s="218">
-        <v>0</v>
-      </c>
-      <c r="P9" s="226">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="217">
-        <v>0</v>
-      </c>
-      <c r="R9" s="218">
-        <v>0</v>
-      </c>
-      <c r="S9" s="226">
+      <c r="B9" s="216">
+        <v>0</v>
+      </c>
+      <c r="C9" s="217">
+        <v>0</v>
+      </c>
+      <c r="D9" s="225">
+        <v>0</v>
+      </c>
+      <c r="E9" s="216">
+        <v>0</v>
+      </c>
+      <c r="F9" s="217">
+        <v>0</v>
+      </c>
+      <c r="G9" s="225">
+        <v>0</v>
+      </c>
+      <c r="H9" s="216">
+        <v>0</v>
+      </c>
+      <c r="I9" s="217">
+        <v>0</v>
+      </c>
+      <c r="J9" s="225">
+        <v>0</v>
+      </c>
+      <c r="K9" s="216">
+        <v>0</v>
+      </c>
+      <c r="L9" s="217">
+        <v>0</v>
+      </c>
+      <c r="M9" s="225">
+        <v>0</v>
+      </c>
+      <c r="N9" s="216">
+        <v>0</v>
+      </c>
+      <c r="O9" s="217">
+        <v>0</v>
+      </c>
+      <c r="P9" s="225">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="216">
+        <v>0</v>
+      </c>
+      <c r="R9" s="217">
+        <v>0</v>
+      </c>
+      <c r="S9" s="225">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="217">
-        <v>0</v>
-      </c>
-      <c r="C10" s="218">
-        <v>0</v>
-      </c>
-      <c r="D10" s="226">
-        <v>0</v>
-      </c>
-      <c r="E10" s="217">
-        <v>0</v>
-      </c>
-      <c r="F10" s="218">
-        <v>0</v>
-      </c>
-      <c r="G10" s="226">
-        <v>0</v>
-      </c>
-      <c r="H10" s="217">
-        <v>0</v>
-      </c>
-      <c r="I10" s="218">
-        <v>0</v>
-      </c>
-      <c r="J10" s="226">
-        <v>0</v>
-      </c>
-      <c r="K10" s="217">
+      <c r="B10" s="216">
+        <v>0</v>
+      </c>
+      <c r="C10" s="217">
+        <v>0</v>
+      </c>
+      <c r="D10" s="225">
+        <v>0</v>
+      </c>
+      <c r="E10" s="216">
+        <v>0</v>
+      </c>
+      <c r="F10" s="217">
+        <v>0</v>
+      </c>
+      <c r="G10" s="225">
+        <v>0</v>
+      </c>
+      <c r="H10" s="216">
+        <v>0</v>
+      </c>
+      <c r="I10" s="217">
+        <v>0</v>
+      </c>
+      <c r="J10" s="225">
+        <v>0</v>
+      </c>
+      <c r="K10" s="216">
         <v>1</v>
       </c>
-      <c r="L10" s="218">
-        <v>0</v>
-      </c>
-      <c r="M10" s="226">
-        <v>0</v>
-      </c>
-      <c r="N10" s="217">
-        <v>0</v>
-      </c>
-      <c r="O10" s="218">
-        <v>0</v>
-      </c>
-      <c r="P10" s="226">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="217">
-        <v>0</v>
-      </c>
-      <c r="R10" s="218">
-        <v>0</v>
-      </c>
-      <c r="S10" s="226">
+      <c r="L10" s="217">
+        <v>0</v>
+      </c>
+      <c r="M10" s="225">
+        <v>0</v>
+      </c>
+      <c r="N10" s="216">
+        <v>0</v>
+      </c>
+      <c r="O10" s="217">
+        <v>0</v>
+      </c>
+      <c r="P10" s="225">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="216">
+        <v>0</v>
+      </c>
+      <c r="R10" s="217">
+        <v>0</v>
+      </c>
+      <c r="S10" s="225">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="212" t="s">
+      <c r="A11" s="211" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="227">
+      <c r="B11" s="226">
         <v>1</v>
       </c>
-      <c r="C11" s="110">
-        <v>0</v>
-      </c>
-      <c r="D11" s="228">
-        <v>0</v>
-      </c>
-      <c r="E11" s="227">
-        <v>0</v>
-      </c>
-      <c r="F11" s="110">
-        <v>0</v>
-      </c>
-      <c r="G11" s="228">
-        <v>0</v>
-      </c>
-      <c r="H11" s="227">
-        <v>0</v>
-      </c>
-      <c r="I11" s="110">
-        <v>0</v>
-      </c>
-      <c r="J11" s="228">
-        <v>0</v>
-      </c>
-      <c r="K11" s="227">
+      <c r="C11" s="109">
+        <v>0</v>
+      </c>
+      <c r="D11" s="227">
+        <v>0</v>
+      </c>
+      <c r="E11" s="226">
+        <v>0</v>
+      </c>
+      <c r="F11" s="109">
+        <v>0</v>
+      </c>
+      <c r="G11" s="227">
+        <v>0</v>
+      </c>
+      <c r="H11" s="226">
+        <v>0</v>
+      </c>
+      <c r="I11" s="109">
+        <v>0</v>
+      </c>
+      <c r="J11" s="227">
+        <v>0</v>
+      </c>
+      <c r="K11" s="226">
         <v>2</v>
       </c>
-      <c r="L11" s="110">
-        <v>0</v>
-      </c>
-      <c r="M11" s="228">
-        <v>0</v>
-      </c>
-      <c r="N11" s="227">
+      <c r="L11" s="109">
+        <v>0</v>
+      </c>
+      <c r="M11" s="227">
+        <v>0</v>
+      </c>
+      <c r="N11" s="226">
         <v>1</v>
       </c>
-      <c r="O11" s="110">
-        <v>0</v>
-      </c>
-      <c r="P11" s="228">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="227">
+      <c r="O11" s="109">
+        <v>0</v>
+      </c>
+      <c r="P11" s="227">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="226">
         <v>1</v>
       </c>
-      <c r="R11" s="110">
-        <v>0</v>
-      </c>
-      <c r="S11" s="228">
+      <c r="R11" s="109">
+        <v>0</v>
+      </c>
+      <c r="S11" s="227">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="107">
         <v>1</v>
       </c>
-      <c r="C12" s="229">
-        <v>0</v>
-      </c>
-      <c r="D12" s="230">
-        <v>0</v>
-      </c>
-      <c r="E12" s="108">
-        <v>0</v>
-      </c>
-      <c r="F12" s="229">
-        <v>0</v>
-      </c>
-      <c r="G12" s="230">
-        <v>0</v>
-      </c>
-      <c r="H12" s="108">
-        <v>0</v>
-      </c>
-      <c r="I12" s="229">
-        <v>0</v>
-      </c>
-      <c r="J12" s="230">
-        <v>0</v>
-      </c>
-      <c r="K12" s="108">
-        <v>0</v>
-      </c>
-      <c r="L12" s="229">
-        <v>0</v>
-      </c>
-      <c r="M12" s="230">
-        <v>0</v>
-      </c>
-      <c r="N12" s="108">
+      <c r="C12" s="228">
+        <v>0</v>
+      </c>
+      <c r="D12" s="229">
+        <v>0</v>
+      </c>
+      <c r="E12" s="107">
+        <v>0</v>
+      </c>
+      <c r="F12" s="228">
+        <v>0</v>
+      </c>
+      <c r="G12" s="229">
+        <v>0</v>
+      </c>
+      <c r="H12" s="107">
+        <v>0</v>
+      </c>
+      <c r="I12" s="228">
+        <v>0</v>
+      </c>
+      <c r="J12" s="229">
+        <v>0</v>
+      </c>
+      <c r="K12" s="107">
+        <v>0</v>
+      </c>
+      <c r="L12" s="228">
+        <v>0</v>
+      </c>
+      <c r="M12" s="229">
+        <v>0</v>
+      </c>
+      <c r="N12" s="107">
         <v>2</v>
       </c>
-      <c r="O12" s="229">
-        <v>0</v>
-      </c>
-      <c r="P12" s="230">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="108">
+      <c r="O12" s="228">
+        <v>0</v>
+      </c>
+      <c r="P12" s="229">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="107">
         <v>2</v>
       </c>
-      <c r="R12" s="229">
-        <v>0</v>
-      </c>
-      <c r="S12" s="230">
+      <c r="R12" s="228">
+        <v>0</v>
+      </c>
+      <c r="S12" s="229">
         <v>0</v>
       </c>
     </row>
@@ -6623,282 +6646,282 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:B12 E3:F7 E10:G12 J10:J12">
-    <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="54" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B7">
-    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7">
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I7 H10:I12">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7 K10:L12 N10:N12 Q10:Q12">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M12">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7 N3:N7 Q3:Q7">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M7">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 N9 Q9">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 N8 Q8">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O7 O10:O12">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R7 R10:R12">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P12">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P7">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S12">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S7">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C7 C10:C12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6953,30 +6976,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="231" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="231" t="s">
+      <c r="S2" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="230"/>
+      <c r="U2" s="230"/>
+      <c r="V2" s="230"/>
+      <c r="W2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="231"/>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="231" t="s">
+      <c r="X2" s="230"/>
+      <c r="Y2" s="230"/>
+      <c r="Z2" s="230"/>
+      <c r="AA2" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="231"/>
-      <c r="AC2" s="231"/>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231" t="s">
+      <c r="AB2" s="230"/>
+      <c r="AC2" s="230"/>
+      <c r="AD2" s="230"/>
+      <c r="AE2" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="231"/>
-      <c r="AG2" s="231"/>
-      <c r="AH2" s="231"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="230"/>
+      <c r="AH2" s="230"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -8429,10 +8452,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="232" t="s">
+      <c r="J17" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="235" t="s">
+      <c r="K17" s="234" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -8532,8 +8555,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="233"/>
-      <c r="K18" s="236"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="235"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -8631,8 +8654,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="233"/>
-      <c r="K19" s="236"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="235"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -8712,8 +8735,8 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="236"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="235"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -8794,8 +8817,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="233"/>
-      <c r="K21" s="236"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="235"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -8876,8 +8899,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="233"/>
-      <c r="K22" s="236"/>
+      <c r="J22" s="232"/>
+      <c r="K22" s="235"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -8958,8 +8981,8 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="233"/>
-      <c r="K23" s="236"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="235"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -9040,8 +9063,8 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="233"/>
-      <c r="K24" s="236"/>
+      <c r="J24" s="232"/>
+      <c r="K24" s="235"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -9062,8 +9085,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="233"/>
-      <c r="K25" s="236"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="235"/>
     </row>
     <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
@@ -9072,14 +9095,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="236"/>
-      <c r="N26" s="238" t="s">
+      <c r="J26" s="232"/>
+      <c r="K26" s="235"/>
+      <c r="N26" s="237" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="239"/>
-      <c r="P26" s="239"/>
-      <c r="Q26" s="240"/>
+      <c r="O26" s="238"/>
+      <c r="P26" s="238"/>
+      <c r="Q26" s="239"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -9155,14 +9178,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="236"/>
-      <c r="N27" s="238" t="s">
+      <c r="J27" s="232"/>
+      <c r="K27" s="235"/>
+      <c r="N27" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="239"/>
-      <c r="P27" s="239"/>
-      <c r="Q27" s="240"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="238"/>
+      <c r="Q27" s="239"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -9238,8 +9261,8 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="236"/>
+      <c r="J28" s="232"/>
+      <c r="K28" s="235"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -9251,24 +9274,24 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="236"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="235"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="233"/>
-      <c r="K30" s="236"/>
+      <c r="J30" s="232"/>
+      <c r="K30" s="235"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="233"/>
-      <c r="K31" s="236"/>
+      <c r="J31" s="232"/>
+      <c r="K31" s="235"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="233"/>
-      <c r="K32" s="236"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="235"/>
     </row>
     <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="234"/>
-      <c r="K33" s="237"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="236"/>
     </row>
     <row r="34" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U34" s="87"/>
@@ -9466,120 +9489,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC80DB5-92D9-44E1-984F-05E418326CA4}">
-  <dimension ref="A3:G15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="100"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="100"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="100"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="str">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="str">
         <f>Discretization!A15</f>
         <v>Dynamic dT</v>
       </c>
-      <c r="B8" s="107" t="b">
+      <c r="B1" s="106" t="b">
         <f>Discretization!B15</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="str">
+      <c r="C1" s="252" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="str">
         <f>Parameters!A2</f>
         <v>Variable HRT</v>
       </c>
-      <c r="B9" s="107" t="b">
+      <c r="B2" s="106" t="b">
         <f>Parameters!B2</f>
         <v>1</v>
       </c>
-      <c r="G9" s="257"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="str">
+      <c r="C2" s="252"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="str">
         <f>Bacteria!A6</f>
         <v>Initialisation method</v>
       </c>
-      <c r="B10" s="107" t="str">
+      <c r="B3" s="106" t="str">
         <f>Bacteria!B6</f>
         <v>granule</v>
       </c>
-      <c r="G10" s="257"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="str">
+      <c r="C3" s="252"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="82" t="str">
         <f>Bacteria!A10</f>
         <v>Inactivation enabled</v>
       </c>
-      <c r="B11" s="107" t="b">
+      <c r="B4" s="106" t="b">
         <f>Bacteria!B10</f>
         <v>1</v>
       </c>
-      <c r="G11" s="257"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="str">
+      <c r="C4" s="252"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="str">
         <f>Bacteria!A11</f>
         <v>Detachment method</v>
       </c>
-      <c r="B12" s="107" t="str">
+      <c r="B5" s="106" t="str">
         <f>Bacteria!B11</f>
         <v>mechanistic</v>
       </c>
-      <c r="G12" s="257"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="str">
+      <c r="C5" s="252"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="str">
         <f>Solver!A4</f>
         <v>pH bulk concentration corrected</v>
       </c>
-      <c r="B13" s="107" t="b">
+      <c r="B6" s="106" t="b">
         <f>Solver!B4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="str">
+      <c r="C6" s="252"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="str">
         <f>Solver!A2</f>
         <v>pH solving included</v>
       </c>
-      <c r="B14" s="107" t="b">
+      <c r="B7" s="106" t="b">
         <f>Solver!B2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="str">
+      <c r="C7" s="252"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="str">
         <f>Solver!A5</f>
         <v>Speciation included</v>
       </c>
-      <c r="B15" s="107" t="b">
+      <c r="B8" s="106" t="b">
         <f>Solver!B5</f>
         <v>1</v>
       </c>
+      <c r="C8" s="252"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="257"/>
+      <c r="G9" s="256"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="257"/>
+      <c r="G10" s="256"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="257"/>
+      <c r="G11" s="256"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="257"/>
+      <c r="G12" s="256"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="257"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="257"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="257"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B5" xr:uid="{E03D1A38-E4CD-4F8A-8EC3-3AE9680BF385}">
-      <formula1>"true, false"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <mergeCells count="1">
+    <mergeCell ref="C1:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9589,7 +9630,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9605,16 +9646,16 @@
       <c r="A1" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="134">
+      <c r="B1" s="133">
         <v>257</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="117" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="241" t="s">
+      <c r="E1" s="240" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9622,124 +9663,124 @@
       <c r="A2" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="146">
+      <c r="B2" s="145">
         <v>257</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="241"/>
+      <c r="E2" s="240"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="107">
+      <c r="B3" s="106">
         <f>B5*B1*1000000</f>
         <v>1028</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="241"/>
+      <c r="E3" s="240"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="107">
+      <c r="B4" s="106">
         <f>B6*B2*1000000</f>
         <v>1028</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="241"/>
+      <c r="E4" s="240"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="110">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="241"/>
+      <c r="E5" s="240"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="110">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="241"/>
+      <c r="E6" s="240"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="110">
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="241"/>
+      <c r="E7" s="240"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="112">
+      <c r="B8" s="111">
         <f>5*10^(-6)</f>
         <v>4.9999999999999996E-6</v>
       </c>
       <c r="C8" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="242"/>
+      <c r="E8" s="241"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="112">
         <v>5000</v>
       </c>
       <c r="C9" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="243" t="s">
+      <c r="E9" s="242" t="s">
         <v>144</v>
       </c>
     </row>
@@ -9747,93 +9788,93 @@
       <c r="A10" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="110">
+      <c r="B10" s="109">
         <v>0.2</v>
       </c>
       <c r="C10" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="244"/>
+      <c r="E10" s="243"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="106">
+      <c r="B11" s="105">
         <f>$B$5^2 * B10 / MAX(Diffusion!$B:$B)</f>
         <v>6.0468631897203323E-7</v>
       </c>
       <c r="C11" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="244"/>
+      <c r="E11" s="243"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="110">
+      <c r="B12" s="109">
         <v>0.5</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="244"/>
+      <c r="E12" s="243"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="114">
+      <c r="B13" s="113">
         <v>24</v>
       </c>
       <c r="C13" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="244"/>
+      <c r="E13" s="243"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="107">
         <f>24*7</f>
         <v>168</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="118" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="245"/>
+      <c r="E14" s="244"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="147" t="b">
+      <c r="B15" s="146" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="243" t="s">
+      <c r="E15" s="242" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9841,198 +9882,198 @@
       <c r="A16" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="110">
+      <c r="B16" s="109">
         <v>0.01</v>
       </c>
       <c r="C16" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="244"/>
+      <c r="E16" s="243"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="106">
+      <c r="B17" s="105">
         <f>$B$5^2 * B16 / MAX(Diffusion!$B:$B)</f>
         <v>3.0234315948601663E-8</v>
       </c>
       <c r="C17" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="244"/>
+      <c r="E17" s="243"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="110">
+      <c r="B18" s="109">
         <v>0.5</v>
       </c>
       <c r="C18" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="244"/>
+      <c r="E18" s="243"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="B19" s="106">
+      <c r="B19" s="105">
         <f>$B$5^2 * B18 / MAX(Diffusion!$B:$B)</f>
         <v>1.511715797430083E-6</v>
       </c>
       <c r="C19" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="244"/>
+      <c r="E19" s="243"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="110">
+      <c r="B20" s="109">
         <v>0.05</v>
       </c>
       <c r="C20" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="244"/>
+      <c r="E20" s="243"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="115" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="117">
+      <c r="B21" s="116">
         <v>1</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="244"/>
+      <c r="E21" s="243"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="110">
+      <c r="B22" s="109">
         <v>3</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="244"/>
+      <c r="E22" s="243"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="110">
+      <c r="B23" s="109">
         <v>500</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="124" t="s">
+      <c r="D23" s="123" t="s">
         <v>173</v>
       </c>
-      <c r="E23" s="244"/>
+      <c r="E23" s="243"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="110">
+      <c r="B24" s="109">
         <v>200</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="123" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="244"/>
+      <c r="E24" s="243"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="110">
+      <c r="B25" s="109">
         <v>40</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="124" t="s">
+      <c r="D25" s="123" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="244"/>
+      <c r="E25" s="243"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="127">
+      <c r="B26" s="126">
         <v>0.2</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="244"/>
+      <c r="E26" s="243"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="126">
+      <c r="B27" s="125">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="244"/>
+      <c r="E27" s="243"/>
     </row>
     <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="128">
+      <c r="B28" s="127">
         <v>0.02</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="245"/>
+      <c r="E28" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10076,13 +10117,13 @@
       <c r="A1" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="134">
+      <c r="B1" s="133">
         <v>10.8</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="117" t="s">
         <v>193</v>
       </c>
       <c r="E1" s="69"/>
@@ -10091,13 +10132,13 @@
       <c r="A2" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="134" t="b">
+      <c r="B2" s="133" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="117" t="s">
         <v>188</v>
       </c>
       <c r="E2" s="69"/>
@@ -10106,29 +10147,29 @@
       <c r="A3" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="133">
+      <c r="B3" s="132">
         <f>SUM(Influent!B1:B3)</f>
         <v>1.5E-3</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="117" t="s">
         <v>187</v>
       </c>
       <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="135" t="s">
         <v>191</v>
       </c>
       <c r="E4" s="69"/>
@@ -10137,30 +10178,30 @@
       <c r="A5" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="109">
+      <c r="B5" s="108">
         <v>20</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="117" t="s">
         <v>192</v>
       </c>
       <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="167">
+        <v>256</v>
+      </c>
+      <c r="B6" s="166">
         <f>B5+273.15</f>
         <v>293.14999999999998</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="118" t="s">
-        <v>256</v>
+      <c r="D6" s="117" t="s">
+        <v>255</v>
       </c>
       <c r="E6" s="69"/>
     </row>
@@ -10168,13 +10209,13 @@
       <c r="A7" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="168">
+      <c r="B7" s="167">
         <v>7</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="117" t="s">
         <v>194</v>
       </c>
       <c r="E7" s="69"/>
@@ -10183,14 +10224,14 @@
       <c r="A8" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="141">
+      <c r="B8" s="140">
         <f>(((Bacteria!B8/3)*Bacteria!B1)/3)/1000</f>
         <v>2.3271056693257722E-10</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="117" t="s">
         <v>195</v>
       </c>
       <c r="E8" s="69"/>
@@ -10199,80 +10240,80 @@
       <c r="A9" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <f>8.3144/1000</f>
         <v>8.3143999999999996E-3</v>
       </c>
       <c r="C9" s="95" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="117" t="s">
         <v>182</v>
       </c>
       <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="82"/>
-      <c r="B10" s="109"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="118"/>
+      <c r="D10" s="117"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="82"/>
-      <c r="B11" s="109"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="95"/>
-      <c r="D11" s="118"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="82"/>
-      <c r="B12" s="109"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="95"/>
-      <c r="D12" s="118"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="69"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
-      <c r="B13" s="109"/>
+      <c r="B13" s="108"/>
       <c r="C13" s="95"/>
-      <c r="D13" s="118"/>
+      <c r="D13" s="117"/>
     </row>
     <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
-      <c r="B14" s="109"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="95"/>
-      <c r="D14" s="118"/>
+      <c r="D14" s="117"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="82"/>
-      <c r="B15" s="109"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="95"/>
-      <c r="D15" s="118"/>
+      <c r="D15" s="117"/>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="82"/>
-      <c r="B16" s="109"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="95"/>
-      <c r="D16" s="118"/>
+      <c r="D16" s="117"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="82"/>
-      <c r="B17" s="109"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="95"/>
-      <c r="D17" s="118"/>
+      <c r="D17" s="117"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="69"/>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
-      <c r="E18" s="101"/>
+      <c r="E18" s="100"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="129"/>
+      <c r="C19" s="128"/>
       <c r="D19" s="79" t="s">
         <v>87</v>
       </c>
@@ -10313,7 +10354,7 @@
       <c r="B24" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="129">
+      <c r="C24" s="128">
         <f>C25</f>
         <v>2.3271056693257722E-10</v>
       </c>
@@ -10323,9 +10364,9 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="129">
+        <v>258</v>
+      </c>
+      <c r="C25" s="128">
         <f>(((Bacteria!B8/3)*Bacteria!B1)/3)/1000</f>
         <v>2.3271056693257722E-10</v>
       </c>
@@ -10335,25 +10376,25 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="77"/>
-      <c r="C26" s="130"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="78"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
       <c r="B27" s="77"/>
-      <c r="C27" s="131"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="78"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="77"/>
-      <c r="C28" s="130"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="78"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="132">
+      <c r="C29" s="131">
         <f>(C25*1000)/0.01</f>
         <v>2.3271056693257722E-5</v>
       </c>
@@ -10402,17 +10443,17 @@
       <c r="A1" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="133">
+      <c r="B1" s="132">
         <f>1.957*10^(-9)*3600*0.7</f>
         <v>4.9316400000000006E-6</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="246" t="s">
+      <c r="E1" s="245" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10420,97 +10461,97 @@
       <c r="A2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="133">
+      <c r="B2" s="132">
         <f>1.912*10^(-9)*3600*0.7</f>
         <v>4.8182400000000001E-6</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="246"/>
+      <c r="E2" s="245"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="133">
+      <c r="B3" s="132">
         <f>1.902*10^(-9)*3600*0.7</f>
         <v>4.7930399999999991E-6</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="246"/>
+      <c r="E3" s="245"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="133">
+      <c r="B4" s="132">
         <f>2.1*10^(-9)*3600*0.7</f>
         <v>5.2920000000000003E-6</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="246"/>
+      <c r="E4" s="245"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="132">
         <f>1.92*10^(-9)*3600*0.7</f>
         <v>4.8384000000000001E-6</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="246"/>
+      <c r="E5" s="245"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="132">
         <f>1.385*10^(-9)*3600*0.7</f>
         <v>3.4902000000000001E-6</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="117" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="246"/>
+      <c r="E6" s="245"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="142">
+      <c r="B7" s="141">
         <f>1.334*10^(-9)*3600*0.7</f>
         <v>3.3616800000000002E-6</v>
       </c>
       <c r="C7" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="247"/>
+      <c r="E7" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10543,14 +10584,14 @@
       <c r="A1" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="106">
+      <c r="B1" s="105">
         <f>((4/3)*PI()*B3^3)*B4</f>
         <v>2.0943951023931951E-12</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="142" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10558,14 +10599,14 @@
       <c r="A2" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="106">
+      <c r="B2" s="105">
         <f>0.1*B1</f>
         <v>2.0943951023931951E-13</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="142" t="s">
         <v>208</v>
       </c>
     </row>
@@ -10573,14 +10614,14 @@
       <c r="A3" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="144">
+      <c r="B3" s="143">
         <f>(1)*10^(-6)</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="142" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10588,14 +10629,14 @@
       <c r="A4" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="143">
         <f>500*1000</f>
         <v>500000</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="142" t="s">
         <v>210</v>
       </c>
     </row>
@@ -10603,38 +10644,38 @@
       <c r="A5" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="151">
+      <c r="B5" s="150">
         <v>24.6</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="143" t="s">
+      <c r="D5" s="142" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="151" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="155" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="154"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="149">
+      <c r="B7" s="148">
         <f>500*10^(-6)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="149" t="s">
         <v>213</v>
       </c>
     </row>
@@ -10642,14 +10683,14 @@
       <c r="A8" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="144">
+      <c r="B8" s="143">
         <f>4*ROUND(((B13/2)^2)/((B3)^2),0)</f>
         <v>1000000</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="142" t="s">
         <v>214</v>
       </c>
     </row>
@@ -10657,13 +10698,13 @@
       <c r="A9" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="145">
+      <c r="B9" s="144">
         <v>1</v>
       </c>
       <c r="C9" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="142" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10671,27 +10712,27 @@
       <c r="A10" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="151" t="b">
+      <c r="B10" s="150" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="142" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="152" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="154" t="s">
         <v>222</v>
       </c>
     </row>
@@ -10699,51 +10740,51 @@
       <c r="A12" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="145">
+      <c r="B12" s="144">
         <v>5</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="142" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="149">
+      <c r="B13" s="148">
         <f>1000*10^(-6)</f>
         <v>1E-3</v>
       </c>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="149" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="69"/>
-      <c r="B14" s="101"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="101"/>
+      <c r="C16" s="100"/>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="69"/>
-      <c r="D17" s="101"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="69"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
-      <c r="E18" s="101"/>
+      <c r="E18" s="100"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:D12">
@@ -10781,8 +10822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10795,13 +10836,13 @@
       <c r="A1" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="144">
+      <c r="B1" s="143">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="143" t="s">
+      <c r="D1" s="142" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10809,13 +10850,13 @@
       <c r="A2" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="145" t="b">
+      <c r="B2" s="144" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="143" t="s">
+      <c r="D2" s="142" t="s">
         <v>237</v>
       </c>
     </row>
@@ -10823,69 +10864,69 @@
       <c r="A3" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="144">
+      <c r="B3" s="143">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="142" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="145" t="b">
+        <v>270</v>
+      </c>
+      <c r="B4" s="144" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="143" t="s">
-        <v>272</v>
+      <c r="D4" s="142" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="145" t="b">
+      <c r="B5" s="144" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="143" t="s">
-        <v>239</v>
+      <c r="D5" s="142" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="144">
+        <v>239</v>
+      </c>
+      <c r="B6" s="143">
         <v>1E-8</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="143" t="s">
-        <v>241</v>
+      <c r="D6" s="142" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="B7" s="148">
+      <c r="B7" s="147">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="143" t="s">
+      <c r="D7" s="142" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10893,13 +10934,13 @@
       <c r="A8" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="144" t="s">
         <v>226</v>
       </c>
       <c r="C8" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="142" t="s">
         <v>229</v>
       </c>
     </row>
@@ -10907,66 +10948,66 @@
       <c r="A9" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="B9" s="145">
+      <c r="B9" s="144">
         <v>2</v>
       </c>
       <c r="C9" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="142" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="144" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="156" t="s">
         <v>242</v>
-      </c>
-      <c r="B10" s="145" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="157" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="144" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="156" t="s">
         <v>274</v>
-      </c>
-      <c r="B11" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="157" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="145" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="157" t="s">
-        <v>276</v>
+      <c r="D12" s="156" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:D3 A4 C4:D4">
+  <conditionalFormatting sqref="A3:D4">
     <cfRule type="expression" dxfId="62" priority="2">
       <formula>$B$2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>$B$11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10974,7 +11015,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{A49C7C3F-F289-4E9E-93BF-BE4D6D78B296}">
       <formula1>"max, mean, norm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4:B5 B10" xr:uid="{84E938EB-3DC7-476B-8ED7-970048E4677C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B10 B4 B5" xr:uid="{84E938EB-3DC7-476B-8ED7-970048E4677C}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{E03D1A38-E4CD-4F8A-8EC3-3AE9680BF385}">
@@ -11009,17 +11050,17 @@
       <c r="A1" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="144">
+      <c r="B1" s="143">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="158" t="s">
+      <c r="D1" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="248" t="s">
-        <v>245</v>
+      <c r="E1" s="247" t="s">
+        <v>244</v>
       </c>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
@@ -11031,16 +11072,16 @@
       <c r="A2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="144">
+      <c r="B2" s="143">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="248"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
@@ -11051,16 +11092,16 @@
       <c r="A3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="144">
+      <c r="B3" s="143">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="158" t="s">
+      <c r="D3" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="248"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
@@ -11071,16 +11112,16 @@
       <c r="A4" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="143">
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C4" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="248"/>
+      <c r="E4" s="247"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
@@ -11091,17 +11132,17 @@
       <c r="A5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="144">
+      <c r="B5" s="143">
         <v>1E-3</v>
       </c>
       <c r="C5" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="248"/>
-      <c r="F5" s="101"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
@@ -11111,18 +11152,18 @@
       <c r="A6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="144">
+      <c r="B6" s="143">
         <f>B1/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C6" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="101"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
@@ -11132,17 +11173,17 @@
       <c r="A7" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="144">
+      <c r="B7" s="143">
         <f>B5</f>
         <v>1E-3</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="247"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>

--- a/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
+++ b/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED490FD-E93C-4E82-A5D2-4F8F416A7D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF44AE01-3792-45C9-8075-BBC33CB19485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -45,26 +45,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F9E69303-9E09-4AB4-B248-45D2ABEF281C}</author>
-  </authors>
-  <commentList>
-    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{F9E69303-9E09-4AB4-B248-45D2ABEF281C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    variable HRT (fix [S]sp)
-Reply:
-    should be setting, not constant</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Chiel</author>
@@ -172,7 +152,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FAFA8C7C-6800-4018-947D-B9F524B630BA}</author>
@@ -191,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="269">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -891,9 +871,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>bar</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -921,15 +898,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Rg</t>
-  </si>
-  <si>
-    <t>atm·L/mol·K</t>
-  </si>
-  <si>
-    <t>Vgas</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
@@ -939,12 +907,6 @@
     <t>h</t>
   </si>
   <si>
-    <t>Qliq</t>
-  </si>
-  <si>
-    <t>L/h</t>
-  </si>
-  <si>
     <t>nx</t>
   </si>
   <si>
@@ -1167,15 +1129,9 @@
     <t>Threshold for the initial RES value that needs to be reached for increase of dT bacterial. Default: 20%</t>
   </si>
   <si>
-    <t>NH3 setpoint</t>
-  </si>
-  <si>
     <t>Gas constant</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
     <t>Representative volume</t>
   </si>
   <si>
@@ -1197,9 +1153,6 @@
     <t>Compound setpoint</t>
   </si>
   <si>
-    <t>Compound name</t>
-  </si>
-  <si>
     <t>Temperature of the reactor</t>
   </si>
   <si>
@@ -1398,9 +1351,6 @@
     <t>kJ/(mol.K)</t>
   </si>
   <si>
-    <t>Representative volume (OG)</t>
-  </si>
-  <si>
     <t>Maintenance</t>
   </si>
   <si>
@@ -1456,6 +1406,9 @@
   </si>
   <si>
     <t>This is a summary of all settings in the model. Do not change them here, but in the respective tab.</t>
+  </si>
+  <si>
+    <t>Compound name for which the concentration should be below given threshold (i.e. Setpoint). Make sure this name matches the compound name in rest of the Excel file</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1425,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1662,12 +1615,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1820,7 +1767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -1925,17 +1872,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2903,58 +2839,58 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="3" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -2963,13 +2899,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3013,14 +2949,14 @@
     <xf numFmtId="170" fontId="12" fillId="0" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3030,14 +2966,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3050,83 +2986,65 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3134,169 +3052,151 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="38" fillId="0" borderId="23" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="23" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="37" fillId="0" borderId="22" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="22" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="41" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="43" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="44" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="42" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="41" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="37" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="38" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="52" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="47" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="46" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="53" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="55" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="54" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="55" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="54" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="25" fillId="11" borderId="56" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="25" fillId="11" borderId="55" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3307,280 +3207,280 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="57" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="63" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="61" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="62" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="41" fillId="12" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="65" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="57" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="66" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="57" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="69" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="41" fillId="12" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="71" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="37" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="67" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="74" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="75" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="76" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="77" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="78" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="79" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="66" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="80" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="81" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="82" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="64" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="62" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="63" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="42" fillId="12" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="40" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="66" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="58" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="71" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="71" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="70" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="42" fillId="12" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="72" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="38" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="66" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="68" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="75" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="76" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="77" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="78" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="79" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="80" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="67" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="81" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="82" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="83" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3590,8 +3490,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3608,7 +3511,17 @@
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -4120,7 +4033,6 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Chiel van Amstel" id="{5084CDD9-32B5-45E0-B0B8-234FA3D41047}" userId="Chiel van Amstel" providerId="None"/>
   <person displayName="Eloi Martínez-Rabert (PGR)" id="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" userId="S::2424069M@student.gla.ac.uk::cb616271-4a7a-48f5-8972-853218eda004" providerId="AD"/>
 </personList>
 </file>
@@ -4446,17 +4358,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B27" dT="2021-11-08T15:11:31.98" personId="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" id="{F9E69303-9E09-4AB4-B248-45D2ABEF281C}">
-    <text>variable HRT (fix [S]sp)</text>
-  </threadedComment>
-  <threadedComment ref="B27" dT="2021-11-29T15:15:11.08" personId="{5084CDD9-32B5-45E0-B0B8-234FA3D41047}" id="{38332D71-7990-438E-8DB1-735A0712C4A5}" parentId="{F9E69303-9E09-4AB4-B248-45D2ABEF281C}">
-    <text>should be setting, not constant</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B5" dT="2021-05-06T16:02:09.77" personId="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" id="{FAFA8C7C-6800-4018-947D-B9F524B630BA}">
     <text>From [Strous1998]</text>
   </threadedComment>
@@ -4479,35 +4380,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="102" t="s">
-        <v>117</v>
+      <c r="A1" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
-        <v>125</v>
+      <c r="A2" s="95" t="s">
+        <v>119</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="69" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="69" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4534,123 +4435,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="143">
+      <c r="B1" s="131">
         <v>1E-10</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="248" t="s">
-        <v>243</v>
+      <c r="D1" s="236" t="s">
+        <v>234</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="143">
+      <c r="B2" s="131">
         <v>1E-10</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="248"/>
+      <c r="D2" s="236"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="143">
+      <c r="B3" s="131">
         <v>1E-10</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="248"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="143">
+      <c r="B4" s="131">
         <v>1E-10</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="248"/>
+      <c r="D4" s="236"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="131">
         <v>1E-10</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="248"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="148">
+      <c r="B6" s="136">
         <f>B1/2</f>
         <v>5.0000000000000002E-11</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="248"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="164">
+      <c r="B7" s="152">
         <v>1E-10</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="69"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="69"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="159"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="147"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
@@ -4659,7 +4560,7 @@
       <c r="D10" s="69"/>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
-      <c r="G10" s="100"/>
+      <c r="G10" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4674,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4688,777 +4589,777 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="163" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="164" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="163" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="164" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="164" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="175" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="175" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="176" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="175" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="176" t="s">
-        <v>248</v>
-      </c>
-      <c r="G1" s="176" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="184">
+      <c r="C2" s="172">
         <v>-79.37</v>
       </c>
-      <c r="D2" s="184">
+      <c r="D2" s="172">
         <v>-26.57</v>
       </c>
-      <c r="E2" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="181">
+      <c r="E2" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="169">
         <v>3</v>
       </c>
-      <c r="H2" s="177" t="s">
+      <c r="H2" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="248" t="s">
-        <v>267</v>
+      <c r="I2" s="236" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="184">
+      <c r="B3" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="172">
         <v>-50.6</v>
       </c>
-      <c r="D3" s="184">
+      <c r="D3" s="172">
         <v>-32.200000000000003</v>
       </c>
-      <c r="E3" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="182">
+      <c r="E3" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="170">
         <v>2</v>
       </c>
-      <c r="H3" s="178" t="s">
+      <c r="H3" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="248"/>
+      <c r="I3" s="236"/>
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="184">
+      <c r="B4" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="172">
         <v>-103.7</v>
       </c>
-      <c r="D4" s="184">
+      <c r="D4" s="172">
         <v>-111.3</v>
       </c>
-      <c r="E4" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="182">
+      <c r="E4" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="170">
         <v>2</v>
       </c>
-      <c r="H4" s="178" t="s">
+      <c r="H4" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="248"/>
+      <c r="I4" s="236"/>
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="184">
+      <c r="B5" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="172">
         <v>16.399999999999999</v>
       </c>
-      <c r="D5" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="182">
+      <c r="D5" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="170">
         <v>2</v>
       </c>
-      <c r="H5" s="178" t="s">
+      <c r="H5" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="248"/>
+      <c r="I5" s="236"/>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="184">
+      <c r="B6" s="172">
         <f>-386</f>
         <v>-386</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="172">
         <v>-623.16</v>
       </c>
-      <c r="D6" s="184">
+      <c r="D6" s="172">
         <v>-586.85</v>
       </c>
-      <c r="E6" s="184">
+      <c r="E6" s="172">
         <v>-527.79999999999995</v>
       </c>
-      <c r="F6" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="182">
+      <c r="F6" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="170">
         <v>3</v>
       </c>
-      <c r="H6" s="178" t="s">
+      <c r="H6" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="248"/>
+      <c r="I6" s="236"/>
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="188" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="188">
+      <c r="B7" s="176" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="176">
         <v>-755.9</v>
       </c>
-      <c r="D7" s="188">
+      <c r="D7" s="176">
         <f>-180.69*4.184</f>
         <v>-756.00696000000005</v>
       </c>
-      <c r="E7" s="188">
+      <c r="E7" s="176">
         <f>-177.97*4.184</f>
         <v>-744.62648000000002</v>
       </c>
-      <c r="F7" s="188" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="183">
+      <c r="F7" s="176" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="171">
         <v>4</v>
       </c>
       <c r="H7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="248"/>
+      <c r="I7" s="236"/>
     </row>
     <row r="8" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="190" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="190">
-        <v>0</v>
-      </c>
-      <c r="D8" s="190" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="190" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="191" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="210">
+      <c r="B8" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="178">
+        <v>0</v>
+      </c>
+      <c r="D8" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="179" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="198">
         <v>2</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="248"/>
+      <c r="I8" s="236"/>
     </row>
     <row r="9" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="192" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="190">
-        <v>0</v>
-      </c>
-      <c r="D9" s="190" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="190" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="191" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="210">
+      <c r="B9" s="180" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="178">
+        <v>0</v>
+      </c>
+      <c r="D9" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="178" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="179" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="198">
         <v>2</v>
       </c>
-      <c r="H9" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="248"/>
+      <c r="H9" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="236"/>
     </row>
     <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="189">
+      <c r="B10" s="177" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="177">
         <v>-237.18</v>
       </c>
-      <c r="D10" s="189">
+      <c r="D10" s="177">
         <v>-157.30000000000001</v>
       </c>
-      <c r="E10" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="209">
+      <c r="E10" s="177" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="177" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="197">
         <v>2</v>
       </c>
       <c r="H10" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="248"/>
+      <c r="I10" s="236"/>
     </row>
     <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="184">
-        <v>0</v>
-      </c>
-      <c r="D11" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="183">
+      <c r="B11" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="172">
+        <v>0</v>
+      </c>
+      <c r="D11" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="172" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="171">
         <v>2</v>
       </c>
       <c r="H11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="248"/>
+      <c r="I11" s="236"/>
     </row>
     <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="174" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="179" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="179" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="180" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="179" t="s">
-        <v>254</v>
+      <c r="A12" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="167" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="167" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="168" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="167" t="s">
+        <v>245</v>
       </c>
       <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="185">
+      <c r="B13" s="173">
         <f>IF(COUNT(B2,C2)=2, EXP(($C$10+B2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="169">
+      <c r="C13" s="157">
         <f>IF(COUNT(C2,D2)=2, EXP((D2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.9083870641861443E-10</v>
       </c>
-      <c r="D13" s="185">
+      <c r="D13" s="173">
         <f>IF(COUNT(D2,E2)=2, EXP((E2-D2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="185">
+      <c r="E13" s="173">
         <f>IF(COUNT(E2,F2)=2, EXP((F2-E2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="247" t="s">
-        <v>268</v>
+      <c r="I13" s="235" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="185">
+      <c r="B14" s="173">
         <f>IF(COUNT(B3,C3)=2, EXP(($C$10+B3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="169">
+      <c r="C14" s="157">
         <f>IF(COUNT(C3,D3)=2, EXP((D3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.2656707191475868E-4</v>
       </c>
-      <c r="D14" s="185">
+      <c r="D14" s="173">
         <f>IF(COUNT(D3,E3)=2, EXP((E3-D3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="185">
+      <c r="E14" s="173">
         <f>IF(COUNT(E3,F3)=2, EXP((F3-E3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="72"/>
-      <c r="I14" s="247"/>
+      <c r="I14" s="235"/>
     </row>
     <row r="15" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="185">
+      <c r="B15" s="173">
         <f>IF(COUNT(B4,C4)=2, EXP(($C$10+B4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="169">
+      <c r="C15" s="157">
         <f>IF(COUNT(C4,D4)=2, EXP((D4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>22.603837077490315</v>
       </c>
-      <c r="D15" s="185">
+      <c r="D15" s="173">
         <f>IF(COUNT(D4,E4)=2, EXP((E4-D4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="185">
+      <c r="E15" s="173">
         <f>IF(COUNT(E4,F4)=2, EXP((F4-E4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="72"/>
-      <c r="I15" s="247"/>
+      <c r="I15" s="235"/>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="185">
+      <c r="B16" s="173">
         <f>IF(COUNT(B5,C5)=2, EXP(($C$10+B5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="173">
         <f>IF(COUNT(C5,D5)=2, EXP((D5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="185">
+      <c r="D16" s="173">
         <f>IF(COUNT(D5,E5)=2, EXP((E5-D5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="185">
+      <c r="E16" s="173">
         <f>IF(COUNT(E5,F5)=2, EXP((F5-E5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="71"/>
-      <c r="I16" s="247"/>
+      <c r="I16" s="235"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="186">
+      <c r="B17" s="174">
         <f>1/0.0017</f>
         <v>588.23529411764707</v>
       </c>
-      <c r="C17" s="169">
+      <c r="C17" s="157">
         <f>IF(COUNT(C6,D6)=2, EXP((D6-C6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.3901312221699524E-7</v>
       </c>
-      <c r="D17" s="169">
+      <c r="D17" s="157">
         <f>IF(COUNT(D6,E6)=2, EXP((E6-D6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.008575507210982E-11</v>
       </c>
-      <c r="E17" s="185">
+      <c r="E17" s="173">
         <f>IF(COUNT(E6,F6)=2, EXP((F6-E6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="71"/>
-      <c r="I17" s="247"/>
+      <c r="I17" s="235"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="194">
+      <c r="B18" s="182">
         <f>IF(COUNT(B7,C7)=2, EXP(($C$10+B7-C7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="207">
+      <c r="C18" s="195">
         <v>100</v>
       </c>
-      <c r="D18" s="208">
+      <c r="D18" s="196">
         <f>10^(-1.92)</f>
         <v>1.2022644346174125E-2</v>
       </c>
-      <c r="E18" s="195">
+      <c r="E18" s="183">
         <f>IF(COUNT(E7,F7)=2, EXP((F7-E7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="71"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="247"/>
+      <c r="I18" s="235"/>
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="205">
+      <c r="B19" s="193">
         <f>IF(COUNT(B8,C8)=2, EXP(($C$10+B8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="206">
+      <c r="C19" s="194">
         <f>IF(COUNT(C8,D8)=2, EXP((D8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="206">
+      <c r="D19" s="194">
         <f>IF(COUNT(D8,E8)=2, EXP((E8-D8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="206">
+      <c r="E19" s="194">
         <f>IF(COUNT(E8,F8)=2, EXP((F8-E8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="71"/>
       <c r="H19" s="71"/>
-      <c r="I19" s="247"/>
+      <c r="I19" s="235"/>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="196">
+      <c r="B20" s="184">
         <f>IF(COUNT(B9,C9)=2, EXP(($C$10+B9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="197">
+      <c r="C20" s="185">
         <f>IF(COUNT(C9,D9)=2, EXP((D9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="185">
         <f>IF(COUNT(D9,E9)=2, EXP((E9-D9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="197">
+      <c r="E20" s="185">
         <f>IF(COUNT(E9,F9)=2, EXP((F9-E9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="247"/>
+      <c r="I20" s="235"/>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="193">
+      <c r="B21" s="181">
         <f>IF(COUNT(B10,C10)=2, EXP(($C$10+B10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="125">
+      <c r="C21" s="118">
         <f>IF(COUNT(C10,D10)=2, EXP((D10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.845648305092005E-15</v>
       </c>
-      <c r="D21" s="193">
+      <c r="D21" s="181">
         <f>IF(COUNT(D10,E10)=2, EXP((E10-D10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="193">
+      <c r="E21" s="181">
         <f>IF(COUNT(E10,F10)=2, EXP((F10-E10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="247"/>
+      <c r="I21" s="235"/>
     </row>
     <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="185">
+      <c r="B22" s="173">
         <f>IF(COUNT(B11,C11)=2, EXP(($C$10+B11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="185">
+      <c r="C22" s="173">
         <f>IF(COUNT(C11,D11)=2, EXP((D11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="185">
+      <c r="D22" s="173">
         <f>IF(COUNT(D11,E11)=2, EXP((E11-D11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="185">
+      <c r="E22" s="173">
         <f>IF(COUNT(E11,F11)=2, EXP((F11-E11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="71"/>
-      <c r="I22" s="247"/>
+      <c r="I22" s="235"/>
     </row>
     <row r="23" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="249" t="s">
-        <v>250</v>
-      </c>
-      <c r="B23" s="250"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="250"/>
-      <c r="F23" s="251"/>
+      <c r="A23" s="237" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="238"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="238"/>
+      <c r="E23" s="238"/>
+      <c r="F23" s="239"/>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="187">
+      <c r="B24" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="175">
         <v>1</v>
       </c>
-      <c r="D24" s="187">
-        <v>0</v>
-      </c>
-      <c r="E24" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="247" t="s">
-        <v>269</v>
+      <c r="D24" s="175">
+        <v>0</v>
+      </c>
+      <c r="E24" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="235" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="187">
-        <v>0</v>
-      </c>
-      <c r="D25" s="187">
+      <c r="B25" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="175">
+        <v>0</v>
+      </c>
+      <c r="D25" s="175">
         <v>-1</v>
       </c>
-      <c r="E25" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="247"/>
+      <c r="E25" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="187">
-        <v>0</v>
-      </c>
-      <c r="D26" s="187">
+      <c r="B26" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="175">
+        <v>0</v>
+      </c>
+      <c r="D26" s="175">
         <v>-1</v>
       </c>
-      <c r="E26" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="247"/>
+      <c r="E26" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="235"/>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="187">
-        <v>0</v>
-      </c>
-      <c r="D27" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="247"/>
+      <c r="B27" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="175">
+        <v>0</v>
+      </c>
+      <c r="D27" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="235"/>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="187">
-        <v>0</v>
-      </c>
-      <c r="C28" s="187">
-        <v>0</v>
-      </c>
-      <c r="D28" s="187">
+      <c r="B28" s="175">
+        <v>0</v>
+      </c>
+      <c r="C28" s="175">
+        <v>0</v>
+      </c>
+      <c r="D28" s="175">
         <v>-1</v>
       </c>
-      <c r="E28" s="187">
+      <c r="E28" s="175">
         <v>-2</v>
       </c>
-      <c r="F28" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="247"/>
+      <c r="F28" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="235"/>
     </row>
     <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="199" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="200">
-        <v>0</v>
-      </c>
-      <c r="D29" s="200">
+      <c r="B29" s="187" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="188">
+        <v>0</v>
+      </c>
+      <c r="D29" s="188">
         <v>-1</v>
       </c>
-      <c r="E29" s="200">
+      <c r="E29" s="188">
         <v>-2</v>
       </c>
-      <c r="F29" s="200" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="247"/>
+      <c r="F29" s="188" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="235"/>
     </row>
     <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="204">
+      <c r="B30" s="191" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="192">
         <v>1</v>
       </c>
-      <c r="D30" s="204" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="204" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="204" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="247"/>
+      <c r="D30" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="235"/>
     </row>
     <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="201" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="202">
-        <v>0</v>
-      </c>
-      <c r="D31" s="202" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="202" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="202" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="247"/>
+      <c r="B31" s="189" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="190">
+        <v>0</v>
+      </c>
+      <c r="D31" s="190" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="190" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="190" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="235"/>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="172" t="s">
+      <c r="A32" s="160" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="198" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="198">
-        <v>0</v>
-      </c>
-      <c r="D32" s="198">
+      <c r="B32" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="186">
+        <v>0</v>
+      </c>
+      <c r="D32" s="186">
         <v>-1</v>
       </c>
-      <c r="E32" s="198" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="198" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="247"/>
+      <c r="E32" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="187">
+      <c r="B33" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="175">
         <v>1</v>
       </c>
-      <c r="D33" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="F33" s="187" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="247"/>
+      <c r="D33" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="I33" s="235"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5468,15 +5369,15 @@
     <mergeCell ref="I24:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F11 B24:F33 B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="containsText" dxfId="60" priority="54" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="61" priority="54" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="60" priority="55" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5506,142 +5407,142 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="168" t="s">
+      <c r="D1" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="252" t="s">
-        <v>263</v>
+      <c r="F1" s="240" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="169">
+      <c r="B2" s="157">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C2" s="169">
-        <v>0</v>
-      </c>
-      <c r="D2" s="169">
-        <v>0</v>
-      </c>
-      <c r="E2" s="169">
+      <c r="C2" s="157">
+        <v>0</v>
+      </c>
+      <c r="D2" s="157">
+        <v>0</v>
+      </c>
+      <c r="E2" s="157">
         <f>(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F2" s="252"/>
+      <c r="F2" s="240"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="169">
-        <v>0</v>
-      </c>
-      <c r="C3" s="169">
+      <c r="A3" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="157">
+        <v>0</v>
+      </c>
+      <c r="C3" s="157">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D3" s="169">
-        <v>0</v>
-      </c>
-      <c r="E3" s="169">
+      <c r="D3" s="157">
+        <v>0</v>
+      </c>
+      <c r="E3" s="157">
         <f t="shared" ref="E3:E7" si="0">(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F3" s="252"/>
+      <c r="F3" s="240"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="169">
-        <v>0</v>
-      </c>
-      <c r="C4" s="169">
+      <c r="A4" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="157">
+        <v>0</v>
+      </c>
+      <c r="C4" s="157">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D4" s="169">
-        <v>0</v>
-      </c>
-      <c r="E4" s="169">
+      <c r="D4" s="157">
+        <v>0</v>
+      </c>
+      <c r="E4" s="157">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F4" s="252"/>
+      <c r="F4" s="240"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="169">
+      <c r="B5" s="157">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C5" s="169">
+      <c r="C5" s="157">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="D5" s="169">
-        <v>0</v>
-      </c>
-      <c r="E5" s="169">
-        <v>0</v>
-      </c>
-      <c r="F5" s="252"/>
+      <c r="D5" s="157">
+        <v>0</v>
+      </c>
+      <c r="E5" s="157">
+        <v>0</v>
+      </c>
+      <c r="F5" s="240"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="169">
+      <c r="A6" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="157">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C6" s="169">
-        <v>0</v>
-      </c>
-      <c r="D6" s="169">
-        <v>0</v>
-      </c>
-      <c r="E6" s="169">
+      <c r="C6" s="157">
+        <v>0</v>
+      </c>
+      <c r="D6" s="157">
+        <v>0</v>
+      </c>
+      <c r="E6" s="157">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F6" s="252"/>
+      <c r="F6" s="240"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="169">
+      <c r="A7" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="157">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C7" s="169">
-        <v>0</v>
-      </c>
-      <c r="D7" s="169">
+      <c r="C7" s="157">
+        <v>0</v>
+      </c>
+      <c r="D7" s="157">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E7" s="169">
+      <c r="E7" s="157">
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F7" s="252"/>
+      <c r="F7" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:F7"/>
   </mergeCells>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="B2:E7">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5667,116 +5568,116 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="168" t="s">
+      <c r="D1" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="252" t="s">
-        <v>262</v>
+      <c r="E1" s="240" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="169">
-        <v>0</v>
-      </c>
-      <c r="C2" s="169">
-        <v>0</v>
-      </c>
-      <c r="D2" s="169">
-        <v>0</v>
-      </c>
-      <c r="E2" s="252"/>
+      <c r="B2" s="157">
+        <v>0</v>
+      </c>
+      <c r="C2" s="157">
+        <v>0</v>
+      </c>
+      <c r="D2" s="157">
+        <v>0</v>
+      </c>
+      <c r="E2" s="240"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="169">
-        <v>0</v>
-      </c>
-      <c r="C3" s="169">
-        <v>0</v>
-      </c>
-      <c r="D3" s="169">
-        <v>0</v>
-      </c>
-      <c r="E3" s="252"/>
+      <c r="A3" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="157">
+        <v>0</v>
+      </c>
+      <c r="C3" s="157">
+        <v>0</v>
+      </c>
+      <c r="D3" s="157">
+        <v>0</v>
+      </c>
+      <c r="E3" s="240"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="169">
-        <v>0</v>
-      </c>
-      <c r="C4" s="169">
-        <v>0</v>
-      </c>
-      <c r="D4" s="169">
-        <v>0</v>
-      </c>
-      <c r="E4" s="252"/>
+      <c r="A4" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="157">
+        <v>0</v>
+      </c>
+      <c r="C4" s="157">
+        <v>0</v>
+      </c>
+      <c r="D4" s="157">
+        <v>0</v>
+      </c>
+      <c r="E4" s="240"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="169">
-        <v>0</v>
-      </c>
-      <c r="C5" s="169">
-        <v>0</v>
-      </c>
-      <c r="D5" s="169">
+      <c r="B5" s="157">
+        <v>0</v>
+      </c>
+      <c r="C5" s="157">
+        <v>0</v>
+      </c>
+      <c r="D5" s="157">
         <f>0.01*(1/32)*(1/1000)</f>
         <v>3.1250000000000003E-7</v>
       </c>
-      <c r="E5" s="252"/>
+      <c r="E5" s="240"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="169">
-        <v>0</v>
-      </c>
-      <c r="C6" s="169">
-        <v>0</v>
-      </c>
-      <c r="D6" s="169">
-        <v>0</v>
-      </c>
-      <c r="E6" s="252"/>
+      <c r="A6" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="157">
+        <v>0</v>
+      </c>
+      <c r="C6" s="157">
+        <v>0</v>
+      </c>
+      <c r="D6" s="157">
+        <v>0</v>
+      </c>
+      <c r="E6" s="240"/>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="169">
-        <v>0</v>
-      </c>
-      <c r="C7" s="169">
-        <v>0</v>
-      </c>
-      <c r="D7" s="169">
-        <v>0</v>
-      </c>
-      <c r="E7" s="252"/>
+      <c r="A7" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="157">
+        <v>0</v>
+      </c>
+      <c r="C7" s="157">
+        <v>0</v>
+      </c>
+      <c r="D7" s="157">
+        <v>0</v>
+      </c>
+      <c r="E7" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D7">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5802,126 +5703,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="168" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="168" t="s">
+      <c r="B1" s="156" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="168" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="168" t="s">
-        <v>260</v>
+      <c r="D1" s="156" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="156" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="169">
+      <c r="B2" s="157">
         <f>0.0415</f>
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="171">
+      <c r="D2" s="159">
         <f>E2*0.1</f>
         <v>1E-3</v>
       </c>
-      <c r="E2" s="171">
+      <c r="E2" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" s="169">
+      <c r="A3" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="157">
         <v>2.07E-2</v>
       </c>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="171">
+      <c r="D3" s="159">
         <f t="shared" ref="D3:D7" si="0">E3*0.1</f>
         <v>1E-3</v>
       </c>
-      <c r="E3" s="171">
+      <c r="E3" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="169">
+      <c r="A4" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="157">
         <v>2.07E-2</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="171">
+      <c r="D4" s="159">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E4" s="171">
+      <c r="E4" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="169">
+      <c r="B5" s="157">
         <f>0.066</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="171">
+      <c r="D5" s="159">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E5" s="171">
+      <c r="E5" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="169">
+      <c r="A6" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="157">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="171">
+      <c r="D6" s="159">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E6" s="171">
+      <c r="E6" s="159">
         <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="169">
+      <c r="A7" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="157">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="171">
+      <c r="D7" s="159">
         <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
-      <c r="E7" s="171">
+      <c r="E7" s="159">
         <v>0.01</v>
       </c>
     </row>
@@ -5958,681 +5859,681 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="69"/>
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="255" t="s">
-        <v>264</v>
-      </c>
-      <c r="F1" s="253"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="255" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="253"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="253" t="s">
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="243" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="241"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="241"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="253"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="253" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="253"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="253" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="253"/>
-      <c r="S1" s="254"/>
+      <c r="L1" s="241"/>
+      <c r="M1" s="242"/>
+      <c r="N1" s="241" t="s">
+        <v>120</v>
+      </c>
+      <c r="O1" s="241"/>
+      <c r="P1" s="242"/>
+      <c r="Q1" s="241" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="241"/>
+      <c r="S1" s="242"/>
     </row>
     <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="213" t="s">
+      <c r="C2" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="212" t="s">
+      <c r="E2" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="213" t="s">
+      <c r="F2" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="214" t="s">
+      <c r="G2" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="212" t="s">
+      <c r="H2" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="213" t="s">
+      <c r="I2" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="214" t="s">
+      <c r="J2" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="213" t="s">
+      <c r="K2" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="213" t="s">
+      <c r="L2" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="214" t="s">
+      <c r="M2" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="213" t="s">
+      <c r="N2" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="213" t="s">
+      <c r="O2" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="214" t="s">
+      <c r="P2" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="213" t="s">
+      <c r="Q2" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="213" t="s">
+      <c r="R2" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="214" t="s">
+      <c r="S2" s="202" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="218">
+      <c r="B3" s="206">
         <v>-1</v>
       </c>
-      <c r="C3" s="112">
-        <v>0</v>
-      </c>
-      <c r="D3" s="219">
-        <v>0</v>
-      </c>
-      <c r="E3" s="218">
-        <v>0</v>
-      </c>
-      <c r="F3" s="112">
-        <v>0</v>
-      </c>
-      <c r="G3" s="219">
-        <v>0</v>
-      </c>
-      <c r="H3" s="218">
-        <v>0</v>
-      </c>
-      <c r="I3" s="112">
-        <v>0</v>
-      </c>
-      <c r="J3" s="219">
-        <v>0</v>
-      </c>
-      <c r="K3" s="218">
+      <c r="C3" s="105">
+        <v>0</v>
+      </c>
+      <c r="D3" s="207">
+        <v>0</v>
+      </c>
+      <c r="E3" s="206">
+        <v>0</v>
+      </c>
+      <c r="F3" s="105">
+        <v>0</v>
+      </c>
+      <c r="G3" s="207">
+        <v>0</v>
+      </c>
+      <c r="H3" s="206">
+        <v>0</v>
+      </c>
+      <c r="I3" s="105">
+        <v>0</v>
+      </c>
+      <c r="J3" s="207">
+        <v>0</v>
+      </c>
+      <c r="K3" s="206">
         <v>-1</v>
       </c>
-      <c r="L3" s="112">
-        <v>0</v>
-      </c>
-      <c r="M3" s="219">
-        <v>0</v>
-      </c>
-      <c r="N3" s="218">
+      <c r="L3" s="105">
+        <v>0</v>
+      </c>
+      <c r="M3" s="207">
+        <v>0</v>
+      </c>
+      <c r="N3" s="206">
         <v>-1</v>
       </c>
-      <c r="O3" s="112">
-        <v>0</v>
-      </c>
-      <c r="P3" s="219">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="218">
+      <c r="O3" s="105">
+        <v>0</v>
+      </c>
+      <c r="P3" s="207">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="206">
         <v>-1</v>
       </c>
-      <c r="R3" s="112">
-        <v>0</v>
-      </c>
-      <c r="S3" s="219">
+      <c r="R3" s="105">
+        <v>0</v>
+      </c>
+      <c r="S3" s="207">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="220">
+      <c r="B4" s="208">
         <v>1</v>
       </c>
-      <c r="C4" s="221">
-        <v>0</v>
-      </c>
-      <c r="D4" s="222">
-        <v>0</v>
-      </c>
-      <c r="E4" s="220">
+      <c r="C4" s="209">
+        <v>0</v>
+      </c>
+      <c r="D4" s="210">
+        <v>0</v>
+      </c>
+      <c r="E4" s="208">
         <v>-1</v>
       </c>
-      <c r="F4" s="221">
-        <v>0</v>
-      </c>
-      <c r="G4" s="222">
-        <v>0</v>
-      </c>
-      <c r="H4" s="220">
+      <c r="F4" s="209">
+        <v>0</v>
+      </c>
+      <c r="G4" s="210">
+        <v>0</v>
+      </c>
+      <c r="H4" s="208">
         <v>-1</v>
       </c>
-      <c r="I4" s="221">
-        <v>0</v>
-      </c>
-      <c r="J4" s="222">
-        <v>0</v>
-      </c>
-      <c r="K4" s="220">
+      <c r="I4" s="209">
+        <v>0</v>
+      </c>
+      <c r="J4" s="210">
+        <v>0</v>
+      </c>
+      <c r="K4" s="208">
         <v>-1</v>
       </c>
-      <c r="L4" s="221">
-        <v>0</v>
-      </c>
-      <c r="M4" s="222">
-        <v>0</v>
-      </c>
-      <c r="N4" s="220">
-        <v>0</v>
-      </c>
-      <c r="O4" s="221">
-        <v>0</v>
-      </c>
-      <c r="P4" s="222">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="220">
+      <c r="L4" s="209">
+        <v>0</v>
+      </c>
+      <c r="M4" s="210">
+        <v>0</v>
+      </c>
+      <c r="N4" s="208">
+        <v>0</v>
+      </c>
+      <c r="O4" s="209">
+        <v>0</v>
+      </c>
+      <c r="P4" s="210">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="208">
         <v>2</v>
       </c>
-      <c r="R4" s="221">
-        <v>0</v>
-      </c>
-      <c r="S4" s="222">
+      <c r="R4" s="209">
+        <v>0</v>
+      </c>
+      <c r="S4" s="210">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="220">
-        <v>0</v>
-      </c>
-      <c r="C5" s="221">
-        <v>0</v>
-      </c>
-      <c r="D5" s="222">
-        <v>0</v>
-      </c>
-      <c r="E5" s="220">
+      <c r="B5" s="208">
+        <v>0</v>
+      </c>
+      <c r="C5" s="209">
+        <v>0</v>
+      </c>
+      <c r="D5" s="210">
+        <v>0</v>
+      </c>
+      <c r="E5" s="208">
         <v>1</v>
       </c>
-      <c r="F5" s="221">
-        <v>0</v>
-      </c>
-      <c r="G5" s="222">
-        <v>0</v>
-      </c>
-      <c r="H5" s="220">
+      <c r="F5" s="209">
+        <v>0</v>
+      </c>
+      <c r="G5" s="210">
+        <v>0</v>
+      </c>
+      <c r="H5" s="208">
         <v>1</v>
       </c>
-      <c r="I5" s="221">
-        <v>0</v>
-      </c>
-      <c r="J5" s="222">
-        <v>0</v>
-      </c>
-      <c r="K5" s="220">
-        <v>0</v>
-      </c>
-      <c r="L5" s="221">
-        <v>0</v>
-      </c>
-      <c r="M5" s="222">
-        <v>0</v>
-      </c>
-      <c r="N5" s="220">
+      <c r="I5" s="209">
+        <v>0</v>
+      </c>
+      <c r="J5" s="210">
+        <v>0</v>
+      </c>
+      <c r="K5" s="208">
+        <v>0</v>
+      </c>
+      <c r="L5" s="209">
+        <v>0</v>
+      </c>
+      <c r="M5" s="210">
+        <v>0</v>
+      </c>
+      <c r="N5" s="208">
         <v>1</v>
       </c>
-      <c r="O5" s="221">
-        <v>0</v>
-      </c>
-      <c r="P5" s="222">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="220">
+      <c r="O5" s="209">
+        <v>0</v>
+      </c>
+      <c r="P5" s="210">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="208">
         <v>-1</v>
       </c>
-      <c r="R5" s="221">
-        <v>0</v>
-      </c>
-      <c r="S5" s="222">
+      <c r="R5" s="209">
+        <v>0</v>
+      </c>
+      <c r="S5" s="210">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="220">
+      <c r="B6" s="208">
         <v>-1.5</v>
       </c>
-      <c r="C6" s="221">
-        <v>0</v>
-      </c>
-      <c r="D6" s="222">
-        <v>0</v>
-      </c>
-      <c r="E6" s="220">
+      <c r="C6" s="209">
+        <v>0</v>
+      </c>
+      <c r="D6" s="210">
+        <v>0</v>
+      </c>
+      <c r="E6" s="208">
         <v>-0.5</v>
       </c>
-      <c r="F6" s="221">
-        <v>0</v>
-      </c>
-      <c r="G6" s="222">
-        <v>0</v>
-      </c>
-      <c r="H6" s="220">
+      <c r="F6" s="209">
+        <v>0</v>
+      </c>
+      <c r="G6" s="210">
+        <v>0</v>
+      </c>
+      <c r="H6" s="208">
         <v>-0.5</v>
       </c>
-      <c r="I6" s="221">
-        <v>0</v>
-      </c>
-      <c r="J6" s="222">
-        <v>0</v>
-      </c>
-      <c r="K6" s="220">
-        <v>0</v>
-      </c>
-      <c r="L6" s="221">
-        <v>0</v>
-      </c>
-      <c r="M6" s="222">
-        <v>0</v>
-      </c>
-      <c r="N6" s="220">
+      <c r="I6" s="209">
+        <v>0</v>
+      </c>
+      <c r="J6" s="210">
+        <v>0</v>
+      </c>
+      <c r="K6" s="208">
+        <v>0</v>
+      </c>
+      <c r="L6" s="209">
+        <v>0</v>
+      </c>
+      <c r="M6" s="210">
+        <v>0</v>
+      </c>
+      <c r="N6" s="208">
         <v>-2</v>
       </c>
-      <c r="O6" s="221">
-        <v>0</v>
-      </c>
-      <c r="P6" s="222">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="220">
+      <c r="O6" s="209">
+        <v>0</v>
+      </c>
+      <c r="P6" s="210">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="208">
         <v>-1</v>
       </c>
-      <c r="R6" s="221">
-        <v>0</v>
-      </c>
-      <c r="S6" s="222">
+      <c r="R6" s="209">
+        <v>0</v>
+      </c>
+      <c r="S6" s="210">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="220">
-        <v>0</v>
-      </c>
-      <c r="C7" s="221">
+      <c r="B7" s="208">
+        <v>0</v>
+      </c>
+      <c r="C7" s="209">
         <v>-1</v>
       </c>
-      <c r="D7" s="222">
+      <c r="D7" s="210">
         <v>1</v>
       </c>
-      <c r="E7" s="220">
-        <v>0</v>
-      </c>
-      <c r="F7" s="221">
+      <c r="E7" s="208">
+        <v>0</v>
+      </c>
+      <c r="F7" s="209">
         <v>-1</v>
       </c>
-      <c r="G7" s="222">
+      <c r="G7" s="210">
         <v>1</v>
       </c>
-      <c r="H7" s="220">
-        <v>0</v>
-      </c>
-      <c r="I7" s="221">
+      <c r="H7" s="208">
+        <v>0</v>
+      </c>
+      <c r="I7" s="209">
         <v>-1</v>
       </c>
-      <c r="J7" s="222">
+      <c r="J7" s="210">
         <v>1</v>
       </c>
-      <c r="K7" s="220">
-        <v>0</v>
-      </c>
-      <c r="L7" s="221">
+      <c r="K7" s="208">
+        <v>0</v>
+      </c>
+      <c r="L7" s="209">
         <v>-1</v>
       </c>
-      <c r="M7" s="222">
+      <c r="M7" s="210">
         <v>1</v>
       </c>
-      <c r="N7" s="220">
-        <v>0</v>
-      </c>
-      <c r="O7" s="221">
+      <c r="N7" s="208">
+        <v>0</v>
+      </c>
+      <c r="O7" s="209">
         <v>-1</v>
       </c>
-      <c r="P7" s="222">
+      <c r="P7" s="210">
         <v>1</v>
       </c>
-      <c r="Q7" s="220">
-        <v>0</v>
-      </c>
-      <c r="R7" s="221">
+      <c r="Q7" s="208">
+        <v>0</v>
+      </c>
+      <c r="R7" s="209">
         <v>-1</v>
       </c>
-      <c r="S7" s="222">
+      <c r="S7" s="210">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="223">
-        <v>0</v>
-      </c>
-      <c r="C8" s="215">
-        <v>0</v>
-      </c>
-      <c r="D8" s="224">
-        <v>0</v>
-      </c>
-      <c r="E8" s="223">
-        <v>0</v>
-      </c>
-      <c r="F8" s="215">
-        <v>0</v>
-      </c>
-      <c r="G8" s="224">
-        <v>0</v>
-      </c>
-      <c r="H8" s="223">
-        <v>0</v>
-      </c>
-      <c r="I8" s="215">
-        <v>0</v>
-      </c>
-      <c r="J8" s="224">
-        <v>0</v>
-      </c>
-      <c r="K8" s="223">
-        <v>0</v>
-      </c>
-      <c r="L8" s="215">
-        <v>0</v>
-      </c>
-      <c r="M8" s="224">
-        <v>0</v>
-      </c>
-      <c r="N8" s="223">
-        <v>0</v>
-      </c>
-      <c r="O8" s="215">
-        <v>0</v>
-      </c>
-      <c r="P8" s="224">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="223">
-        <v>0</v>
-      </c>
-      <c r="R8" s="215">
-        <v>0</v>
-      </c>
-      <c r="S8" s="224">
+      <c r="B8" s="211">
+        <v>0</v>
+      </c>
+      <c r="C8" s="203">
+        <v>0</v>
+      </c>
+      <c r="D8" s="212">
+        <v>0</v>
+      </c>
+      <c r="E8" s="211">
+        <v>0</v>
+      </c>
+      <c r="F8" s="203">
+        <v>0</v>
+      </c>
+      <c r="G8" s="212">
+        <v>0</v>
+      </c>
+      <c r="H8" s="211">
+        <v>0</v>
+      </c>
+      <c r="I8" s="203">
+        <v>0</v>
+      </c>
+      <c r="J8" s="212">
+        <v>0</v>
+      </c>
+      <c r="K8" s="211">
+        <v>0</v>
+      </c>
+      <c r="L8" s="203">
+        <v>0</v>
+      </c>
+      <c r="M8" s="212">
+        <v>0</v>
+      </c>
+      <c r="N8" s="211">
+        <v>0</v>
+      </c>
+      <c r="O8" s="203">
+        <v>0</v>
+      </c>
+      <c r="P8" s="212">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="211">
+        <v>0</v>
+      </c>
+      <c r="R8" s="203">
+        <v>0</v>
+      </c>
+      <c r="S8" s="212">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="216">
-        <v>0</v>
-      </c>
-      <c r="C9" s="217">
-        <v>0</v>
-      </c>
-      <c r="D9" s="225">
-        <v>0</v>
-      </c>
-      <c r="E9" s="216">
-        <v>0</v>
-      </c>
-      <c r="F9" s="217">
-        <v>0</v>
-      </c>
-      <c r="G9" s="225">
-        <v>0</v>
-      </c>
-      <c r="H9" s="216">
-        <v>0</v>
-      </c>
-      <c r="I9" s="217">
-        <v>0</v>
-      </c>
-      <c r="J9" s="225">
-        <v>0</v>
-      </c>
-      <c r="K9" s="216">
-        <v>0</v>
-      </c>
-      <c r="L9" s="217">
-        <v>0</v>
-      </c>
-      <c r="M9" s="225">
-        <v>0</v>
-      </c>
-      <c r="N9" s="216">
-        <v>0</v>
-      </c>
-      <c r="O9" s="217">
-        <v>0</v>
-      </c>
-      <c r="P9" s="225">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="216">
-        <v>0</v>
-      </c>
-      <c r="R9" s="217">
-        <v>0</v>
-      </c>
-      <c r="S9" s="225">
+      <c r="B9" s="204">
+        <v>0</v>
+      </c>
+      <c r="C9" s="205">
+        <v>0</v>
+      </c>
+      <c r="D9" s="213">
+        <v>0</v>
+      </c>
+      <c r="E9" s="204">
+        <v>0</v>
+      </c>
+      <c r="F9" s="205">
+        <v>0</v>
+      </c>
+      <c r="G9" s="213">
+        <v>0</v>
+      </c>
+      <c r="H9" s="204">
+        <v>0</v>
+      </c>
+      <c r="I9" s="205">
+        <v>0</v>
+      </c>
+      <c r="J9" s="213">
+        <v>0</v>
+      </c>
+      <c r="K9" s="204">
+        <v>0</v>
+      </c>
+      <c r="L9" s="205">
+        <v>0</v>
+      </c>
+      <c r="M9" s="213">
+        <v>0</v>
+      </c>
+      <c r="N9" s="204">
+        <v>0</v>
+      </c>
+      <c r="O9" s="205">
+        <v>0</v>
+      </c>
+      <c r="P9" s="213">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="204">
+        <v>0</v>
+      </c>
+      <c r="R9" s="205">
+        <v>0</v>
+      </c>
+      <c r="S9" s="213">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="216">
-        <v>0</v>
-      </c>
-      <c r="C10" s="217">
-        <v>0</v>
-      </c>
-      <c r="D10" s="225">
-        <v>0</v>
-      </c>
-      <c r="E10" s="216">
-        <v>0</v>
-      </c>
-      <c r="F10" s="217">
-        <v>0</v>
-      </c>
-      <c r="G10" s="225">
-        <v>0</v>
-      </c>
-      <c r="H10" s="216">
-        <v>0</v>
-      </c>
-      <c r="I10" s="217">
-        <v>0</v>
-      </c>
-      <c r="J10" s="225">
-        <v>0</v>
-      </c>
-      <c r="K10" s="216">
+      <c r="B10" s="204">
+        <v>0</v>
+      </c>
+      <c r="C10" s="205">
+        <v>0</v>
+      </c>
+      <c r="D10" s="213">
+        <v>0</v>
+      </c>
+      <c r="E10" s="204">
+        <v>0</v>
+      </c>
+      <c r="F10" s="205">
+        <v>0</v>
+      </c>
+      <c r="G10" s="213">
+        <v>0</v>
+      </c>
+      <c r="H10" s="204">
+        <v>0</v>
+      </c>
+      <c r="I10" s="205">
+        <v>0</v>
+      </c>
+      <c r="J10" s="213">
+        <v>0</v>
+      </c>
+      <c r="K10" s="204">
         <v>1</v>
       </c>
-      <c r="L10" s="217">
-        <v>0</v>
-      </c>
-      <c r="M10" s="225">
-        <v>0</v>
-      </c>
-      <c r="N10" s="216">
-        <v>0</v>
-      </c>
-      <c r="O10" s="217">
-        <v>0</v>
-      </c>
-      <c r="P10" s="225">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="216">
-        <v>0</v>
-      </c>
-      <c r="R10" s="217">
-        <v>0</v>
-      </c>
-      <c r="S10" s="225">
+      <c r="L10" s="205">
+        <v>0</v>
+      </c>
+      <c r="M10" s="213">
+        <v>0</v>
+      </c>
+      <c r="N10" s="204">
+        <v>0</v>
+      </c>
+      <c r="O10" s="205">
+        <v>0</v>
+      </c>
+      <c r="P10" s="213">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="204">
+        <v>0</v>
+      </c>
+      <c r="R10" s="205">
+        <v>0</v>
+      </c>
+      <c r="S10" s="213">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="211" t="s">
+      <c r="A11" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="226">
+      <c r="B11" s="214">
         <v>1</v>
       </c>
-      <c r="C11" s="109">
-        <v>0</v>
-      </c>
-      <c r="D11" s="227">
-        <v>0</v>
-      </c>
-      <c r="E11" s="226">
-        <v>0</v>
-      </c>
-      <c r="F11" s="109">
-        <v>0</v>
-      </c>
-      <c r="G11" s="227">
-        <v>0</v>
-      </c>
-      <c r="H11" s="226">
-        <v>0</v>
-      </c>
-      <c r="I11" s="109">
-        <v>0</v>
-      </c>
-      <c r="J11" s="227">
-        <v>0</v>
-      </c>
-      <c r="K11" s="226">
+      <c r="C11" s="102">
+        <v>0</v>
+      </c>
+      <c r="D11" s="215">
+        <v>0</v>
+      </c>
+      <c r="E11" s="214">
+        <v>0</v>
+      </c>
+      <c r="F11" s="102">
+        <v>0</v>
+      </c>
+      <c r="G11" s="215">
+        <v>0</v>
+      </c>
+      <c r="H11" s="214">
+        <v>0</v>
+      </c>
+      <c r="I11" s="102">
+        <v>0</v>
+      </c>
+      <c r="J11" s="215">
+        <v>0</v>
+      </c>
+      <c r="K11" s="214">
         <v>2</v>
       </c>
-      <c r="L11" s="109">
-        <v>0</v>
-      </c>
-      <c r="M11" s="227">
-        <v>0</v>
-      </c>
-      <c r="N11" s="226">
+      <c r="L11" s="102">
+        <v>0</v>
+      </c>
+      <c r="M11" s="215">
+        <v>0</v>
+      </c>
+      <c r="N11" s="214">
         <v>1</v>
       </c>
-      <c r="O11" s="109">
-        <v>0</v>
-      </c>
-      <c r="P11" s="227">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="226">
+      <c r="O11" s="102">
+        <v>0</v>
+      </c>
+      <c r="P11" s="215">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="214">
         <v>1</v>
       </c>
-      <c r="R11" s="109">
-        <v>0</v>
-      </c>
-      <c r="S11" s="227">
+      <c r="R11" s="102">
+        <v>0</v>
+      </c>
+      <c r="S11" s="215">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="107">
+      <c r="B12" s="100">
         <v>1</v>
       </c>
-      <c r="C12" s="228">
-        <v>0</v>
-      </c>
-      <c r="D12" s="229">
-        <v>0</v>
-      </c>
-      <c r="E12" s="107">
-        <v>0</v>
-      </c>
-      <c r="F12" s="228">
-        <v>0</v>
-      </c>
-      <c r="G12" s="229">
-        <v>0</v>
-      </c>
-      <c r="H12" s="107">
-        <v>0</v>
-      </c>
-      <c r="I12" s="228">
-        <v>0</v>
-      </c>
-      <c r="J12" s="229">
-        <v>0</v>
-      </c>
-      <c r="K12" s="107">
-        <v>0</v>
-      </c>
-      <c r="L12" s="228">
-        <v>0</v>
-      </c>
-      <c r="M12" s="229">
-        <v>0</v>
-      </c>
-      <c r="N12" s="107">
+      <c r="C12" s="216">
+        <v>0</v>
+      </c>
+      <c r="D12" s="217">
+        <v>0</v>
+      </c>
+      <c r="E12" s="100">
+        <v>0</v>
+      </c>
+      <c r="F12" s="216">
+        <v>0</v>
+      </c>
+      <c r="G12" s="217">
+        <v>0</v>
+      </c>
+      <c r="H12" s="100">
+        <v>0</v>
+      </c>
+      <c r="I12" s="216">
+        <v>0</v>
+      </c>
+      <c r="J12" s="217">
+        <v>0</v>
+      </c>
+      <c r="K12" s="100">
+        <v>0</v>
+      </c>
+      <c r="L12" s="216">
+        <v>0</v>
+      </c>
+      <c r="M12" s="217">
+        <v>0</v>
+      </c>
+      <c r="N12" s="100">
         <v>2</v>
       </c>
-      <c r="O12" s="228">
-        <v>0</v>
-      </c>
-      <c r="P12" s="229">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="107">
+      <c r="O12" s="216">
+        <v>0</v>
+      </c>
+      <c r="P12" s="217">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="100">
         <v>2</v>
       </c>
-      <c r="R12" s="228">
-        <v>0</v>
-      </c>
-      <c r="S12" s="229">
+      <c r="R12" s="216">
+        <v>0</v>
+      </c>
+      <c r="S12" s="217">
         <v>0</v>
       </c>
     </row>
@@ -6646,282 +6547,282 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:B12 E3:F7 E10:G12 J10:J12">
-    <cfRule type="cellIs" dxfId="55" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B7">
-    <cfRule type="cellIs" dxfId="51" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7">
-    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="47" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I7 H10:I12">
-    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7 K10:L12 N10:N12 Q10:Q12">
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M12">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7 N3:N7 Q3:Q7">
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M7">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 N9 Q9">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 N8 Q8">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O7 O10:O12">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R7 R10:R12">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P12">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P7">
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S12">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S7">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C7 C10:C12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6976,30 +6877,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="230"/>
-      <c r="U2" s="230"/>
-      <c r="V2" s="230"/>
-      <c r="W2" s="230" t="s">
+      <c r="S2" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="218"/>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="230"/>
-      <c r="AA2" s="230" t="s">
+      <c r="X2" s="218"/>
+      <c r="Y2" s="218"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="230"/>
-      <c r="AC2" s="230"/>
-      <c r="AD2" s="230"/>
-      <c r="AE2" s="230" t="s">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="230"/>
-      <c r="AG2" s="230"/>
-      <c r="AH2" s="230"/>
+      <c r="AF2" s="218"/>
+      <c r="AG2" s="218"/>
+      <c r="AH2" s="218"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7110,10 +7011,10 @@
       <c r="AH3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AI3" s="91" t="s">
+      <c r="AI3" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="93"/>
+      <c r="AJ3" s="88"/>
       <c r="AK3" s="18" t="s">
         <v>29</v>
       </c>
@@ -7216,7 +7117,7 @@
       <c r="AI4" s="28">
         <v>0.2</v>
       </c>
-      <c r="AJ4" s="93"/>
+      <c r="AJ4" s="88"/>
       <c r="AK4" s="18"/>
       <c r="AL4" s="19"/>
       <c r="AM4" s="19"/>
@@ -7331,7 +7232,7 @@
       <c r="AI5" s="28">
         <v>0</v>
       </c>
-      <c r="AJ5" s="92"/>
+      <c r="AJ5" s="87"/>
       <c r="AK5" s="18" t="s">
         <v>35</v>
       </c>
@@ -7455,7 +7356,7 @@
       <c r="AI6" s="28">
         <v>0</v>
       </c>
-      <c r="AJ6" s="92"/>
+      <c r="AJ6" s="87"/>
       <c r="AK6" s="30" t="s">
         <v>39</v>
       </c>
@@ -7578,7 +7479,7 @@
       <c r="AI7" s="28">
         <v>0</v>
       </c>
-      <c r="AJ7" s="92"/>
+      <c r="AJ7" s="87"/>
       <c r="AK7" s="27"/>
       <c r="AL7" s="27"/>
       <c r="AM7" s="27"/>
@@ -7694,7 +7595,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="92"/>
+      <c r="AJ8" s="87"/>
     </row>
     <row r="9" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
       <c r="I9" s="35" t="s">
@@ -7784,7 +7685,7 @@
       <c r="AI9" s="28">
         <v>1</v>
       </c>
-      <c r="AJ9" s="92"/>
+      <c r="AJ9" s="87"/>
     </row>
     <row r="10" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="I10" s="35" t="s">
@@ -7869,7 +7770,7 @@
       <c r="AI10" s="28">
         <v>0</v>
       </c>
-      <c r="AJ10" s="92"/>
+      <c r="AJ10" s="87"/>
     </row>
     <row r="11" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="I11" s="35" t="s">
@@ -7955,7 +7856,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="92"/>
+      <c r="AJ11" s="87"/>
     </row>
     <row r="12" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="I12" s="35" t="s">
@@ -8041,7 +7942,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="92"/>
+      <c r="AJ12" s="87"/>
     </row>
     <row r="13" spans="2:40" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="B13" s="61" t="s">
@@ -8137,7 +8038,7 @@
         <f>-2.5</f>
         <v>-2.5</v>
       </c>
-      <c r="AJ13" s="92"/>
+      <c r="AJ13" s="87"/>
     </row>
     <row r="14" spans="2:40" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="31"/>
@@ -8227,7 +8128,7 @@
       <c r="AI14" s="28">
         <v>5</v>
       </c>
-      <c r="AJ14" s="92"/>
+      <c r="AJ14" s="87"/>
     </row>
     <row r="15" spans="2:40" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
@@ -8319,7 +8220,7 @@
       <c r="AI15" s="28">
         <v>4.2</v>
       </c>
-      <c r="AJ15" s="92"/>
+      <c r="AJ15" s="87"/>
     </row>
     <row r="16" spans="2:40" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
@@ -8427,7 +8328,7 @@
       <c r="AI16" s="42">
         <v>-1</v>
       </c>
-      <c r="AJ16" s="92"/>
+      <c r="AJ16" s="87"/>
     </row>
     <row r="17" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
@@ -8452,10 +8353,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="231" t="s">
+      <c r="J17" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="234" t="s">
+      <c r="K17" s="222" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -8555,8 +8456,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="232"/>
-      <c r="K18" s="235"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="223"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -8654,8 +8555,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="232"/>
-      <c r="K19" s="235"/>
+      <c r="J19" s="220"/>
+      <c r="K19" s="223"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -8735,8 +8636,8 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="235"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="223"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -8817,8 +8718,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="232"/>
-      <c r="K21" s="235"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="223"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -8899,8 +8800,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="232"/>
-      <c r="K22" s="235"/>
+      <c r="J22" s="220"/>
+      <c r="K22" s="223"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -8981,8 +8882,8 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="232"/>
-      <c r="K23" s="235"/>
+      <c r="J23" s="220"/>
+      <c r="K23" s="223"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -9063,8 +8964,8 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="232"/>
-      <c r="K24" s="235"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="223"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -9085,8 +8986,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="235"/>
+      <c r="J25" s="220"/>
+      <c r="K25" s="223"/>
     </row>
     <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
@@ -9095,14 +8996,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="235"/>
-      <c r="N26" s="237" t="s">
+      <c r="J26" s="220"/>
+      <c r="K26" s="223"/>
+      <c r="N26" s="225" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="238"/>
-      <c r="P26" s="238"/>
-      <c r="Q26" s="239"/>
+      <c r="O26" s="226"/>
+      <c r="P26" s="226"/>
+      <c r="Q26" s="227"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -9178,14 +9079,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="235"/>
-      <c r="N27" s="237" t="s">
+      <c r="J27" s="220"/>
+      <c r="K27" s="223"/>
+      <c r="N27" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="238"/>
-      <c r="P27" s="238"/>
-      <c r="Q27" s="239"/>
+      <c r="O27" s="226"/>
+      <c r="P27" s="226"/>
+      <c r="Q27" s="227"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -9261,8 +9162,8 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="235"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="223"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -9274,27 +9175,27 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="235"/>
+      <c r="J29" s="220"/>
+      <c r="K29" s="223"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="232"/>
-      <c r="K30" s="235"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="223"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="232"/>
-      <c r="K31" s="235"/>
+      <c r="J31" s="220"/>
+      <c r="K31" s="223"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="232"/>
-      <c r="K32" s="235"/>
+      <c r="J32" s="220"/>
+      <c r="K32" s="223"/>
     </row>
     <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="233"/>
-      <c r="K33" s="236"/>
+      <c r="J33" s="221"/>
+      <c r="K33" s="224"/>
     </row>
     <row r="34" spans="10:26" x14ac:dyDescent="0.3">
-      <c r="U34" s="87"/>
+      <c r="U34" s="82"/>
       <c r="V34" s="65">
         <v>10</v>
       </c>
@@ -9308,18 +9209,18 @@
       <c r="Z34"/>
     </row>
     <row r="35" spans="10:26" x14ac:dyDescent="0.3">
-      <c r="U35" s="88" t="s">
+      <c r="U35" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="V35" s="83">
+      <c r="V35" s="78">
         <f>(1.28*10^(12))*EXP(-8183/(273+V34))/(1+((2.05*10^(-9))/(10^(-7.5)))+((10^(-7.5))/(1.66*10^(-7))))</f>
         <v>0.2823217413975958</v>
       </c>
-      <c r="W35" s="83">
+      <c r="W35" s="78">
         <f t="shared" ref="W35:X35" si="28">(1.28*10^(12))*EXP(-8183/(273+W34))/(1+((2.05*10^(-9))/(10^(-7.5)))+((10^(-7.5))/(1.66*10^(-7))))</f>
         <v>0.75741706690483923</v>
       </c>
-      <c r="X35" s="84">
+      <c r="X35" s="79">
         <f t="shared" si="28"/>
         <v>1.9038644750378029</v>
       </c>
@@ -9327,18 +9228,18 @@
       <c r="Z35"/>
     </row>
     <row r="36" spans="10:26" x14ac:dyDescent="0.3">
-      <c r="U36" s="89" t="s">
+      <c r="U36" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="V36" s="85">
+      <c r="V36" s="80">
         <f>(6.69*10^(7))*EXP(-5295/(273+V34))/(1+((2.05*10^(-9))/(10^(-7.5)))+((10^(-7.5))/(1.66*10^(-7))))</f>
         <v>0.39894464591466677</v>
       </c>
-      <c r="W36" s="85">
+      <c r="W36" s="80">
         <f t="shared" ref="W36:X36" si="29">(6.69*10^(7))*EXP(-5295/(273+W34))/(1+((2.05*10^(-9))/(10^(-7.5)))+((10^(-7.5))/(1.66*10^(-7))))</f>
         <v>0.75551351479496387</v>
       </c>
-      <c r="X36" s="86">
+      <c r="X36" s="81">
         <f t="shared" si="29"/>
         <v>1.3717224615090331</v>
       </c>
@@ -9346,18 +9247,18 @@
       <c r="Z36"/>
     </row>
     <row r="37" spans="10:26" x14ac:dyDescent="0.3">
-      <c r="U37" s="88" t="s">
+      <c r="U37" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="V37" s="83">
+      <c r="V37" s="78">
         <f>(1.651*10^(11))*EXP(-8183/(273+V34))</f>
         <v>4.5712789685116106E-2</v>
       </c>
-      <c r="W37" s="83">
+      <c r="W37" s="78">
         <f t="shared" ref="W37:X37" si="30">(1.651*10^(11))*EXP(-8183/(273+W34))</f>
         <v>0.12263896826343848</v>
       </c>
-      <c r="X37" s="84">
+      <c r="X37" s="79">
         <f t="shared" si="30"/>
         <v>0.30826870047461469</v>
       </c>
@@ -9365,7 +9266,7 @@
       <c r="Z37"/>
     </row>
     <row r="38" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U38" s="90" t="s">
+      <c r="U38" s="85" t="s">
         <v>71</v>
       </c>
       <c r="V38" s="67">
@@ -9403,82 +9304,82 @@
     <mergeCell ref="N27:Q27"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:AB7 AD5:AD7 AD9:AD16 S9:AB16">
-    <cfRule type="cellIs" dxfId="83" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AD23">
-    <cfRule type="cellIs" dxfId="82" priority="19" operator="notBetween">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:AB8 AD8">
-    <cfRule type="cellIs" dxfId="80" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC7 AC9:AC16">
-    <cfRule type="cellIs" dxfId="79" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="78" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AF7 AE9:AF16 AH9:AI16 AH5:AJ5 AH6:AI7 AJ6:AJ16 AH4">
-    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AJ23">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="76" priority="9" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="10" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AF8 AH8:AI8">
-    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG7 AG9:AG16">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4 S4:AB4">
-    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AF4 AI4">
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9492,7 +9393,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9503,119 +9404,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="str">
+      <c r="A1" s="77" t="str">
         <f>Discretization!A15</f>
         <v>Dynamic dT</v>
       </c>
-      <c r="B1" s="106" t="b">
+      <c r="B1" s="99" t="b">
         <f>Discretization!B15</f>
         <v>1</v>
       </c>
-      <c r="C1" s="252" t="s">
-        <v>277</v>
+      <c r="C1" s="240" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="str">
+      <c r="A2" s="77" t="str">
         <f>Parameters!A2</f>
         <v>Variable HRT</v>
       </c>
-      <c r="B2" s="106" t="b">
+      <c r="B2" s="99" t="b">
         <f>Parameters!B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="252"/>
+      <c r="C2" s="240"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="str">
+      <c r="A3" s="77" t="str">
         <f>Bacteria!A6</f>
         <v>Initialisation method</v>
       </c>
-      <c r="B3" s="106" t="str">
+      <c r="B3" s="99" t="str">
         <f>Bacteria!B6</f>
         <v>granule</v>
       </c>
-      <c r="C3" s="252"/>
+      <c r="C3" s="240"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="str">
+      <c r="A4" s="77" t="str">
         <f>Bacteria!A10</f>
         <v>Inactivation enabled</v>
       </c>
-      <c r="B4" s="106" t="b">
+      <c r="B4" s="99" t="b">
         <f>Bacteria!B10</f>
         <v>1</v>
       </c>
-      <c r="C4" s="252"/>
+      <c r="C4" s="240"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="str">
+      <c r="A5" s="77" t="str">
         <f>Bacteria!A11</f>
         <v>Detachment method</v>
       </c>
-      <c r="B5" s="106" t="str">
+      <c r="B5" s="99" t="str">
         <f>Bacteria!B11</f>
         <v>mechanistic</v>
       </c>
-      <c r="C5" s="252"/>
+      <c r="C5" s="240"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="str">
+      <c r="A6" s="77" t="str">
         <f>Solver!A4</f>
         <v>pH bulk concentration corrected</v>
       </c>
-      <c r="B6" s="106" t="b">
+      <c r="B6" s="99" t="b">
         <f>Solver!B4</f>
         <v>1</v>
       </c>
-      <c r="C6" s="252"/>
+      <c r="C6" s="240"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="str">
+      <c r="A7" s="77" t="str">
         <f>Solver!A2</f>
         <v>pH solving included</v>
       </c>
-      <c r="B7" s="106" t="b">
+      <c r="B7" s="99" t="b">
         <f>Solver!B2</f>
         <v>1</v>
       </c>
-      <c r="C7" s="252"/>
+      <c r="C7" s="240"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="str">
+      <c r="A8" s="77" t="str">
         <f>Solver!A5</f>
         <v>Speciation included</v>
       </c>
-      <c r="B8" s="106" t="b">
+      <c r="B8" s="99" t="b">
         <f>Solver!B5</f>
         <v>1</v>
       </c>
-      <c r="C8" s="252"/>
+      <c r="C8" s="240"/>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="257"/>
-      <c r="G9" s="256"/>
+      <c r="C9" s="245"/>
+      <c r="G9" s="244"/>
     </row>
     <row r="10" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="257"/>
-      <c r="G10" s="256"/>
+      <c r="C10" s="245"/>
+      <c r="G10" s="244"/>
     </row>
     <row r="11" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="257"/>
-      <c r="G11" s="256"/>
+      <c r="C11" s="245"/>
+      <c r="G11" s="244"/>
     </row>
     <row r="12" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="257"/>
-      <c r="G12" s="256"/>
+      <c r="C12" s="245"/>
+      <c r="G12" s="244"/>
     </row>
     <row r="13" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="257"/>
+      <c r="C13" s="245"/>
     </row>
     <row r="14" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="257"/>
+      <c r="C14" s="245"/>
     </row>
     <row r="15" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="257"/>
+      <c r="C15" s="245"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9643,437 +9544,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="133">
+      <c r="A1" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="122">
         <v>257</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="240" t="s">
-        <v>143</v>
+      <c r="C1" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="228" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="145">
+      <c r="A2" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="133">
         <v>257</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="117" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="240"/>
+      <c r="C2" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="228"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="106">
+      <c r="A3" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="99">
         <f>B5*B1*1000000</f>
         <v>1028</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="240"/>
+      <c r="C3" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="228"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="106">
+      <c r="A4" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="99">
         <f>B6*B2*1000000</f>
         <v>1028</v>
       </c>
-      <c r="C4" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="240"/>
+      <c r="C4" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="228"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="110">
+      <c r="A5" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="103">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="240"/>
+      <c r="C5" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="228"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="110">
+      <c r="A6" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="103">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="240"/>
+      <c r="C6" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="228"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="110">
+      <c r="A7" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="103">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="240"/>
+      <c r="C7" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="228"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="111">
+      <c r="A8" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="104">
         <f>5*10^(-6)</f>
         <v>4.9999999999999996E-6</v>
       </c>
-      <c r="C8" s="97" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="241"/>
+      <c r="C8" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="229"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="105">
+        <v>5000</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="230" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="102">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="231"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="112">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="119" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="242" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="109">
-        <v>0.2</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" s="243"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="105">
+      <c r="B11" s="98">
         <f>$B$5^2 * B10 / MAX(Diffusion!$B:$B)</f>
         <v>6.0468631897203323E-7</v>
       </c>
-      <c r="C11" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="117" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="243"/>
+      <c r="C11" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="231"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="109">
+      <c r="A12" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="102">
         <v>0.5</v>
       </c>
-      <c r="C12" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="243"/>
+      <c r="C12" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="231"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="113">
+      <c r="A13" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="106">
         <v>24</v>
       </c>
-      <c r="C13" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="243"/>
+      <c r="C13" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="231"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="107">
+      <c r="A14" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="100">
         <f>24*7</f>
         <v>168</v>
       </c>
-      <c r="C14" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="244"/>
+      <c r="C14" s="124" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="232"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="114" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="146" t="b">
+      <c r="A15" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="134" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="242" t="s">
-        <v>179</v>
+      <c r="C15" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="230" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="102">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="109">
-        <v>0.01</v>
-      </c>
-      <c r="C16" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="243"/>
+      <c r="E16" s="231"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="82" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="105">
+      <c r="A17" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="98">
         <f>$B$5^2 * B16 / MAX(Diffusion!$B:$B)</f>
         <v>3.0234315948601663E-8</v>
       </c>
-      <c r="C17" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="121" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="243"/>
+      <c r="C17" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="231"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="109">
+      <c r="A18" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="102">
         <v>0.5</v>
       </c>
-      <c r="C18" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="121" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="243"/>
+      <c r="C18" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="231"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="105">
+      <c r="A19" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="98">
         <f>$B$5^2 * B18 / MAX(Diffusion!$B:$B)</f>
         <v>1.511715797430083E-6</v>
       </c>
-      <c r="C19" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="121" t="s">
+      <c r="C19" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="231"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="102">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="243"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="109">
-        <v>0.05</v>
-      </c>
-      <c r="C20" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="121" t="s">
+      <c r="E20" s="231"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="109">
+        <v>1</v>
+      </c>
+      <c r="C21" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="231"/>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="102">
+        <v>3</v>
+      </c>
+      <c r="C22" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="231"/>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="102">
+        <v>500</v>
+      </c>
+      <c r="C23" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="231"/>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="102">
+        <v>200</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="231"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="243"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="115" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="116">
-        <v>1</v>
-      </c>
-      <c r="C21" s="138" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="122" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="243"/>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="109">
-        <v>3</v>
-      </c>
-      <c r="C22" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="123" t="s">
+      <c r="B25" s="102">
+        <v>40</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="231"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="119">
+        <v>0.2</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="231"/>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="118">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C27" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="231"/>
+    </row>
+    <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="120">
+        <v>0.02</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="243"/>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="109">
-        <v>500</v>
-      </c>
-      <c r="C23" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="123" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="243"/>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="109">
-        <v>200</v>
-      </c>
-      <c r="C24" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="123" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="243"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="109">
-        <v>40</v>
-      </c>
-      <c r="C25" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="123" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="243"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="126">
-        <v>0.2</v>
-      </c>
-      <c r="C26" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="123" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" s="243"/>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="125">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C27" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="243"/>
-    </row>
-    <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="127">
-        <v>0.02</v>
-      </c>
-      <c r="C28" s="136" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="244"/>
+      <c r="E28" s="232"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10082,7 +9983,7 @@
     <mergeCell ref="E15:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:D28">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>$B$15 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10097,11 +9998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10114,308 +10015,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="133">
+      <c r="A1" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="122">
         <v>10.8</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>193</v>
+      <c r="C1" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>184</v>
       </c>
       <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="133" t="b">
+      <c r="A2" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="117" t="s">
-        <v>188</v>
+      <c r="C2" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>180</v>
       </c>
       <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="132">
+      <c r="A3" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="121">
         <f>SUM(Influent!B1:B3)</f>
         <v>1.5E-3</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="117" t="s">
-        <v>187</v>
+      <c r="D3" s="110" t="s">
+        <v>179</v>
       </c>
       <c r="E3" s="69"/>
     </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="134" t="s">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="138" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="135" t="s">
-        <v>191</v>
+      <c r="C4" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="123" t="s">
+        <v>268</v>
       </c>
       <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="108">
+      <c r="B5" s="101">
         <v>20</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="117" t="s">
-        <v>192</v>
+      <c r="D5" s="110" t="s">
+        <v>183</v>
       </c>
       <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="166">
+      <c r="A6" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="154">
         <f>B5+273.15</f>
         <v>293.14999999999998</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="117" t="s">
-        <v>255</v>
+      <c r="D6" s="110" t="s">
+        <v>246</v>
       </c>
       <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="155">
+        <v>7</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="110" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="167">
-        <v>7</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>194</v>
-      </c>
       <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="140">
+      <c r="A8" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="128">
         <f>(((Bacteria!B8/3)*Bacteria!B1)/3)/1000</f>
         <v>2.3271056693257722E-10</v>
       </c>
-      <c r="C8" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>195</v>
+      <c r="C8" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>186</v>
       </c>
       <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="104">
+      <c r="A9" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="97">
         <f>8.3144/1000</f>
         <v>8.3143999999999996E-3</v>
       </c>
-      <c r="C9" s="95" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="117" t="s">
-        <v>182</v>
+      <c r="C9" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>175</v>
       </c>
       <c r="E9" s="69"/>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="117"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="117"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11" s="69"/>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="117"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
       <c r="E12" s="69"/>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="117"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="117"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="117"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="117"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="117"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="100"/>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="94"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="79" t="s">
-        <v>87</v>
-      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="77"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="78"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="78"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="99">
-        <v>8.2057459999999999E-2</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>100</v>
-      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23" s="99">
-        <v>1</v>
-      </c>
-      <c r="D23" s="78" t="s">
-        <v>89</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="128">
-        <f>C25</f>
-        <v>2.3271056693257722E-10</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>102</v>
-      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="128">
-        <f>(((Bacteria!B8/3)*Bacteria!B1)/3)/1000</f>
-        <v>2.3271056693257722E-10</v>
-      </c>
-      <c r="D25" s="78" t="s">
-        <v>102</v>
-      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="77"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="78"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="78"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="77"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="78"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="131">
-        <f>(C25*1000)/0.01</f>
-        <v>2.3271056693257722E-5</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>106</v>
-      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="67" priority="3">
       <formula>$B$2 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$2=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{28F6C65E-A04D-4413-835D-DA466EDD340E}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10440,118 +10308,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="132">
+      <c r="B1" s="121">
         <f>1.957*10^(-9)*3600*0.7</f>
         <v>4.9316400000000006E-6</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="245" t="s">
-        <v>197</v>
+      <c r="C1" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="233" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="132">
+      <c r="B2" s="121">
         <f>1.912*10^(-9)*3600*0.7</f>
         <v>4.8182400000000001E-6</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="245"/>
+      <c r="C2" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="233"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="132">
+      <c r="B3" s="121">
         <f>1.902*10^(-9)*3600*0.7</f>
         <v>4.7930399999999991E-6</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="245"/>
+      <c r="C3" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="233"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="132">
+      <c r="B4" s="121">
         <f>2.1*10^(-9)*3600*0.7</f>
         <v>5.2920000000000003E-6</v>
       </c>
-      <c r="C4" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="245"/>
+      <c r="C4" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="233"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="132">
+      <c r="B5" s="121">
         <f>1.92*10^(-9)*3600*0.7</f>
         <v>4.8384000000000001E-6</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="245"/>
+      <c r="C5" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="233"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="132">
+      <c r="B6" s="121">
         <f>1.385*10^(-9)*3600*0.7</f>
         <v>3.4902000000000001E-6</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="117" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="245"/>
+      <c r="C6" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="233"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="141">
+      <c r="B7" s="129">
         <f>1.334*10^(-9)*3600*0.7</f>
         <v>3.3616800000000002E-6</v>
       </c>
-      <c r="C7" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="118" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="246"/>
+      <c r="C7" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10581,224 +10449,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="105">
+      <c r="A1" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="98">
         <f>((4/3)*PI()*B3^3)*B4</f>
         <v>2.0943951023931951E-12</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="142" t="s">
-        <v>207</v>
+      <c r="D1" s="130" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="105">
+      <c r="A2" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="98">
         <f>0.1*B1</f>
         <v>2.0943951023931951E-13</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="142" t="s">
-        <v>208</v>
+      <c r="D2" s="130" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="143">
+      <c r="A3" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="131">
         <f>(1)*10^(-6)</f>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="142" t="s">
-        <v>209</v>
+      <c r="C3" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="143">
+      <c r="A4" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="131">
         <f>500*1000</f>
         <v>500000</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="138">
+        <v>24.6</v>
+      </c>
+      <c r="C5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="142" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="150">
-        <v>24.6</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="142" t="s">
-        <v>211</v>
+      <c r="D5" s="130" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="151" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="155" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="154"/>
+      <c r="A6" s="139" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="141"/>
+      <c r="D6" s="142"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="148">
+      <c r="A7" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="136">
         <f>500*10^(-6)</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="138" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="149" t="s">
-        <v>213</v>
+      <c r="C7" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="143">
+      <c r="A8" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="131">
         <f>4*ROUND(((B13/2)^2)/((B3)^2),0)</f>
         <v>1000000</v>
       </c>
-      <c r="C8" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="142" t="s">
+      <c r="C8" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="132">
+        <v>1</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="130" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="139" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="132">
+        <v>5</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="130" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="144">
-        <v>1</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="142" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="150" t="b">
-        <v>1</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="142" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="151" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="152" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="154" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="144">
-        <v>5</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="142" t="s">
-        <v>223</v>
-      </c>
-    </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="B13" s="148">
+      <c r="A13" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="136">
         <f>1000*10^(-6)</f>
         <v>1E-3</v>
       </c>
-      <c r="C13" s="138" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="149" t="s">
-        <v>212</v>
+      <c r="C13" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="137" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="69"/>
-      <c r="B14" s="100"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="100"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="69"/>
-      <c r="D17" s="100"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="69"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
-      <c r="E18" s="100"/>
+      <c r="E18" s="94"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A12:D12">
-    <cfRule type="expression" dxfId="65" priority="3">
+    <cfRule type="expression" dxfId="66" priority="3">
       <formula>$B$11&lt;&gt;"mechanistic"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>$B$11&lt;&gt;"naive"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:D7">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>$B$6 &lt;&gt; "granule"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10833,181 +10701,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="131">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="131">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="130" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="132" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="131">
+        <v>1E-8</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="143">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="142" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="135">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="130" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="132" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="132">
+        <v>2</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="77" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="144" t="b">
+      <c r="B10" s="132" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="144" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="132" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="142" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="143">
-        <v>1.0000000000000001E-15</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="142" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="144" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="142" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="144" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="142" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="143">
-        <v>1E-8</v>
-      </c>
-      <c r="C6" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="142" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="147">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C7" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="142" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="142" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="144">
-        <v>2</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="142" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="144" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="156" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="144" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="156" t="s">
-        <v>274</v>
+      <c r="C11" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="144" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="156" t="s">
-        <v>275</v>
+      <c r="A12" s="77" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="132" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="144" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>$B$2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>$B$11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11047,20 +10915,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="143">
+      <c r="B1" s="131">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="247" t="s">
-        <v>244</v>
+      <c r="E1" s="235" t="s">
+        <v>235</v>
       </c>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
@@ -11069,19 +10937,19 @@
       <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="143">
+      <c r="B2" s="131">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="247"/>
+      <c r="E2" s="235"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
@@ -11089,19 +10957,19 @@
       <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="143">
+      <c r="B3" s="131">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="247"/>
+      <c r="E3" s="235"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
@@ -11109,19 +10977,19 @@
       <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="143">
+      <c r="B4" s="131">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="247"/>
+      <c r="D4" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="235"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
@@ -11129,61 +10997,61 @@
       <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="143">
+      <c r="B5" s="131">
         <v>1E-3</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="247"/>
-      <c r="F5" s="100"/>
+      <c r="D5" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="235"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="143">
+      <c r="B6" s="131">
         <f>B1/2</f>
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="247"/>
-      <c r="F6" s="100"/>
+      <c r="D6" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="235"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="143">
+      <c r="B7" s="131">
         <f>B5</f>
         <v>1E-3</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="247"/>
+      <c r="D7" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="235"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>

--- a/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
+++ b/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF44AE01-3792-45C9-8075-BBC33CB19485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABA3FB-8D87-4BE8-A46E-47E792489387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="278">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -1410,6 +1410,33 @@
   <si>
     <t>Compound name for which the concentration should be below given threshold (i.e. Setpoint). Make sure this name matches the compound name in rest of the Excel file</t>
   </si>
+  <si>
+    <t>How to use this Excel sheet</t>
+  </si>
+  <si>
+    <t>All values in this file are loaded into the IbM model using the loadPresetFile function. Make sure that all values are filled in correctly, so that the model makes sense.</t>
+  </si>
+  <si>
+    <t>There are a few different types of cells in this Excel, here is a legend:</t>
+  </si>
+  <si>
+    <t>Cells that look like this, contain calculated values, don't change these.</t>
+  </si>
+  <si>
+    <t>This cell contains the name of the variable/short description</t>
+  </si>
+  <si>
+    <t>This cell contains a value that has been manually adjusted (Make sure to mark these cells yourself, so that it is clear later on which values are changed from the standard calculation/value)</t>
+  </si>
+  <si>
+    <t>Fill in all cells that look like this</t>
+  </si>
+  <si>
+    <t>Due to some setting, some cells no longer need to be filled in. If that is the case, those cells look like this</t>
+  </si>
+  <si>
+    <t>This cell contains the units of the value that should be filled in. Don’t change the contents of these cells, but rather make sure that the filled in value is in these units</t>
+  </si>
 </sst>
 </file>
 
@@ -1425,7 +1452,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1693,6 +1720,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2844,7 +2878,7 @@
     <xf numFmtId="0" fontId="35" fillId="11" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
@@ -3495,6 +3529,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="35" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="41" fillId="12" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3511,7 +3570,7 @@
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="93">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -3899,6 +3958,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -3986,6 +4055,37 @@
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -4366,10 +4466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6616838C-F568-417D-8029-DEFF7E533FF8}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4411,8 +4511,77 @@
         <v>116</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="254" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="255" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="253" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="252" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="248" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="247" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="249" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="250" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="251" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="expression" dxfId="90" priority="6">
+      <formula>$B$2 = FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="containsText" dxfId="89" priority="4" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",A16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="Inf">
+      <formula>NOT(ISERROR(SEARCH("Inf",A16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$11&lt;&gt;"naive"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4576,7 +4745,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9304,82 +9473,82 @@
     <mergeCell ref="N27:Q27"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:AB7 AD5:AD7 AD9:AD16 S9:AB16">
-    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AD23">
-    <cfRule type="cellIs" dxfId="83" priority="19" operator="notBetween">
+    <cfRule type="cellIs" dxfId="84" priority="19" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="20" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:AB8 AD8">
-    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC7 AC9:AC16">
-    <cfRule type="cellIs" dxfId="80" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AF7 AE9:AF16 AH9:AI16 AH5:AJ5 AH6:AI7 AJ6:AJ16 AH4">
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AJ23">
-    <cfRule type="cellIs" dxfId="76" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AF8 AH8:AI8">
-    <cfRule type="cellIs" dxfId="74" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG7 AG9:AG16">
-    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4 S4:AB4">
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
-    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AF4 AI4">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9392,9 +9561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC80DB5-92D9-44E1-984F-05E418326CA4}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9531,7 +9698,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9983,7 +10150,7 @@
     <mergeCell ref="E15:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:D28">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>$B$15 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10001,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10268,12 +10435,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>$B$2 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$B$2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10435,7 +10602,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
+++ b/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABA3FB-8D87-4BE8-A46E-47E792489387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650E1E2-113F-4D6D-B276-FA92246C547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="284">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -1436,6 +1436,24 @@
   </si>
   <si>
     <t>This cell contains the units of the value that should be filled in. Don’t change the contents of these cells, but rather make sure that the filled in value is in these units</t>
+  </si>
+  <si>
+    <t>Suspension: how many bacteria start in the suspension</t>
+  </si>
+  <si>
+    <t>Starting number of bacteria (granule)</t>
+  </si>
+  <si>
+    <t>Starting number of bacteria (suspension)</t>
+  </si>
+  <si>
+    <t>CALCULATED: approximated number of bacteria in the starting granule, based on optimal packing of bacteria in circle. Will be slightly lower in reality</t>
+  </si>
+  <si>
+    <t>Fill in the yields &amp; electron donor molecules for each species. If the maintenance and growth rate are to be set, fill them in as well. If these are to be calculated on the fly, leave blank or fill in 'NA'. The formula for the maintenance and growth rate should manually be added to the calculate_max_growth_rate_and_maint.m script</t>
+  </si>
+  <si>
+    <t>Starting bio-aggregate in the system</t>
   </si>
 </sst>
 </file>
@@ -2878,7 +2896,7 @@
     <xf numFmtId="0" fontId="35" fillId="11" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
@@ -3554,6 +3572,18 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="37" fillId="0" borderId="22" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3570,7 +3600,187 @@
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="107">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -3938,36 +4148,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -4069,6 +4249,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -4087,26 +4277,6 @@
         <i/>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4468,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6616838C-F568-417D-8029-DEFF7E533FF8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4558,25 +4728,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="90" priority="6">
+    <cfRule type="expression" dxfId="106" priority="6">
       <formula>$B$2 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="89" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="105" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>$B$11&lt;&gt;"naive"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4745,7 +4915,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5538,15 +5708,15 @@
     <mergeCell ref="I24:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F11 B24:F33 B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="containsText" dxfId="61" priority="54" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="79" priority="54" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="55" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5711,7 +5881,7 @@
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="B2:E7">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5846,7 +6016,7 @@
     <mergeCell ref="E1:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D7">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5856,10 +6026,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765FFA51-252D-42F9-AC75-BD3B676D8AD2}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5869,9 +6039,10 @@
     <col min="3" max="3" width="8.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="156" t="s">
         <v>251</v>
       </c>
@@ -5885,7 +6056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
@@ -5903,8 +6074,11 @@
       <c r="E2" s="159">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="236" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>254</v>
       </c>
@@ -5921,8 +6095,9 @@
       <c r="E3" s="159">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="236"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>255</v>
       </c>
@@ -5939,8 +6114,9 @@
       <c r="E4" s="159">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="236"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
@@ -5958,8 +6134,9 @@
       <c r="E5" s="159">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="236"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>120</v>
       </c>
@@ -5976,8 +6153,9 @@
       <c r="E6" s="159">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="236"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>121</v>
       </c>
@@ -5994,8 +6172,12 @@
       <c r="E7" s="159">
         <v>0.01</v>
       </c>
+      <c r="F7" s="236"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -6716,282 +6898,282 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:B12 E3:F7 E10:G12 J10:J12">
-    <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="54" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B7">
-    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="51" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="cellIs" dxfId="50" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7">
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="47" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I7 H10:I12">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7 K10:L12 N10:N12 Q10:Q12">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M12">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7 N3:N7 Q3:Q7">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M7">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 N9 Q9">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 N8 Q8">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O7 O10:O12">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R7 R10:R12">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P12">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P7">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S12">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S7">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C7 C10:C12">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9473,82 +9655,82 @@
     <mergeCell ref="N27:Q27"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:AB7 AD5:AD7 AD9:AD16 S9:AB16">
-    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AD23">
-    <cfRule type="cellIs" dxfId="84" priority="19" operator="notBetween">
+    <cfRule type="cellIs" dxfId="99" priority="19" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="20" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:AB8 AD8">
-    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC7 AC9:AC16">
-    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AF7 AE9:AF16 AH9:AI16 AH5:AJ5 AH6:AI7 AJ6:AJ16 AH4">
-    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AJ23">
-    <cfRule type="cellIs" dxfId="77" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="10" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AF8 AH8:AI8">
-    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG7 AG9:AG16">
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4 S4:AB4">
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AF4 AI4">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9607,22 +9789,22 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="str">
-        <f>Bacteria!A10</f>
+        <f>Bacteria!A12</f>
         <v>Inactivation enabled</v>
       </c>
       <c r="B4" s="99" t="b">
-        <f>Bacteria!B10</f>
+        <f>Bacteria!B12</f>
         <v>1</v>
       </c>
       <c r="C4" s="240"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="str">
-        <f>Bacteria!A11</f>
+        <f>Bacteria!A13</f>
         <v>Detachment method</v>
       </c>
       <c r="B5" s="99" t="str">
-        <f>Bacteria!B11</f>
+        <f>Bacteria!B13</f>
         <v>mechanistic</v>
       </c>
       <c r="C5" s="240"/>
@@ -10150,7 +10332,7 @@
     <mergeCell ref="E15:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:D28">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>$B$15 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10293,7 +10475,7 @@
         <v>176</v>
       </c>
       <c r="B8" s="128">
-        <f>(((Bacteria!B8/3)*Bacteria!B1)/3)/1000</f>
+        <f>(((Bacteria!B10/3)*Bacteria!B1)/3)/1000</f>
         <v>2.3271056693257722E-10</v>
       </c>
       <c r="C8" s="90" t="s">
@@ -10435,12 +10617,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="83" priority="3">
       <formula>$B$2 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>$B$2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10599,15 +10781,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" style="62" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="62"/>
     <col min="4" max="4" width="79.6640625" style="62" customWidth="1"/>
@@ -10615,7 +10797,7 @@
     <col min="6" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>190</v>
       </c>
@@ -10630,7 +10812,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>191</v>
       </c>
@@ -10645,7 +10827,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>192</v>
       </c>
@@ -10660,7 +10842,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>193</v>
       </c>
@@ -10675,7 +10857,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>194</v>
       </c>
@@ -10689,159 +10871,197 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="139" t="s">
         <v>224</v>
       </c>
       <c r="B6" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
+      <c r="C6" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="136">
-        <f>500*10^(-6)</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C7" s="126" t="s">
+      <c r="B7" s="131">
+        <f>75*10^(-6)</f>
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="C7" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="130" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="131">
-        <f>4*ROUND(((B13/2)^2)/((B3)^2),0)</f>
-        <v>1000000</v>
+        <v>279</v>
+      </c>
+      <c r="B8" s="257">
+        <f>_xlfn.CEILING.MATH(B7^2 / (0.8*B3 * B11)^2 * 0.75)</f>
+        <v>2930</v>
       </c>
       <c r="C8" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="130" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="132">
-        <v>1</v>
-      </c>
-      <c r="C9" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="256">
+        <v>500</v>
+      </c>
+      <c r="C9" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="130" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="D9" s="137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="138" t="b">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="B10" s="131">
+        <f>4*ROUND(((B15/2)^2)/((B3)^2),0)</f>
+        <v>1000000</v>
       </c>
       <c r="C10" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="132">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="130" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="138" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="130" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="139" t="s">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B13" s="140" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C13" s="141" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D13" s="142" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="132">
+      <c r="B14" s="132">
         <v>5</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C14" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D14" s="130" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="136">
+      <c r="B15" s="136">
         <f>1000*10^(-6)</f>
         <v>1E-3</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C15" s="126" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D15" s="137" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="94"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="69"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="69"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="69"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="69"/>
-      <c r="E18" s="94"/>
+      <c r="E18" s="69"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="69"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="69"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="94"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:D12">
-    <cfRule type="expression" dxfId="66" priority="3">
-      <formula>$B$11&lt;&gt;"mechanistic"</formula>
+  <conditionalFormatting sqref="A14:D14">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$B$13&lt;&gt;"mechanistic"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:D13">
-    <cfRule type="expression" dxfId="65" priority="2">
-      <formula>$B$11&lt;&gt;"naive"</formula>
+  <conditionalFormatting sqref="A15:D15">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$B$13&lt;&gt;"naive"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7">
-    <cfRule type="expression" dxfId="64" priority="1">
-      <formula>$B$6 &lt;&gt; "granule"</formula>
+  <conditionalFormatting sqref="A9:D9">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$B$6 = "granule"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:D8">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$B$6 ="suspension"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{4E7A34FD-A1C4-464E-AB3C-F3887798D8D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{4E7A34FD-A1C4-464E-AB3C-F3887798D8D2}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{612E5177-E007-4AA1-A867-561F6B98DA27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{612E5177-E007-4AA1-A867-561F6B98DA27}">
       <formula1>"mechanistic, naive, none"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{2612E19F-069C-4D1D-B983-8FF0792C7324}">
@@ -10858,7 +11078,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10994,16 +11214,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="132" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="127" t="s">
+      <c r="B10" s="256" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="258" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="259" t="s">
         <v>233</v>
       </c>
     </row>
@@ -11012,7 +11232,7 @@
         <v>263</v>
       </c>
       <c r="B11" s="132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="127" t="s">
         <v>97</v>
@@ -11037,12 +11257,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="81" priority="2">
       <formula>$B$2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>$B$11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
+++ b/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bestanden\Cloud Storage\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B650E1E2-113F-4D6D-B276-FA92246C547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C1B372-D892-4845-9EB0-4929E6A7BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11295" yWindow="2955" windowWidth="21600" windowHeight="11385" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -29,14 +29,12 @@
     <sheet name="Yield" sheetId="33" r:id="rId14"/>
     <sheet name="ReactionMatrix" sheetId="21" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -160,10 +158,16 @@
   <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{FAFA8C7C-6800-4018-947D-B9F524B630BA}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     From [Strous1998]</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -3463,84 +3467,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="82" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3584,6 +3510,84 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3600,197 +3604,7 @@
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="107">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -4148,6 +3962,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -4236,16 +4090,6 @@
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4638,18 +4482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6616838C-F568-417D-8029-DEFF7E533FF8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
         <v>112</v>
       </c>
@@ -4660,7 +4504,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="95" t="s">
         <v>119</v>
       </c>
@@ -4671,82 +4515,82 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="69" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="69" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="254" t="s">
+    <row r="9" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="228" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="255" t="s">
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="229" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="253" t="s">
+    <row r="11" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="227" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="252" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="226" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="248" t="s">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="222" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="247" t="s">
+    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="221" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="249" t="s">
+    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="223" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="250" t="s">
+    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="224" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="251" t="s">
+    <row r="17" spans="1:1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="225" t="s">
         <v>276</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="106" priority="6">
+    <cfRule type="expression" dxfId="90" priority="6">
       <formula>$B$2 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="105" priority="4" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="89" priority="4" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",A16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="101" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>$B$11&lt;&gt;"naive"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4763,17 +4607,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" style="62"/>
-    <col min="3" max="3" width="7.5546875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="75.44140625" style="62" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" style="62"/>
+    <col min="1" max="2" width="11.42578125" style="62"/>
+    <col min="3" max="3" width="7.5703125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" style="62" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="62"/>
     <col min="7" max="7" width="12" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="62"/>
+    <col min="8" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
@@ -4783,14 +4627,14 @@
       <c r="C1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="D1" s="253" t="s">
         <v>234</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
@@ -4800,12 +4644,12 @@
       <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="236"/>
+      <c r="D2" s="253"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
@@ -4815,12 +4659,12 @@
       <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="236"/>
+      <c r="D3" s="253"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
@@ -4830,12 +4674,12 @@
       <c r="C4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="236"/>
+      <c r="D4" s="253"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
@@ -4845,12 +4689,12 @@
       <c r="C5" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="236"/>
+      <c r="D5" s="253"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="108" t="s">
         <v>83</v>
       </c>
@@ -4861,12 +4705,12 @@
       <c r="C6" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="236"/>
+      <c r="D6" s="253"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="151" t="s">
         <v>84</v>
       </c>
@@ -4876,7 +4720,7 @@
       <c r="C7" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="236"/>
+      <c r="D7" s="253"/>
       <c r="E7" s="69"/>
       <c r="F7" s="146"/>
       <c r="G7" s="146"/>
@@ -4884,7 +4728,7 @@
       <c r="I7" s="147"/>
       <c r="J7" s="147"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E8" s="69"/>
       <c r="F8" s="148"/>
       <c r="G8" s="149"/>
@@ -4892,7 +4736,7 @@
       <c r="I8" s="148"/>
       <c r="J8" s="147"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="69"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
@@ -4918,16 +4762,16 @@
       <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="6" width="14.21875" style="75" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="71" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="72" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="6" width="14.28515625" style="75" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="71" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="72" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="162" t="s">
         <v>91</v>
       </c>
@@ -4950,7 +4794,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
         <v>74</v>
       </c>
@@ -4975,11 +4819,11 @@
       <c r="H2" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="236" t="s">
+      <c r="I2" s="253" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>75</v>
       </c>
@@ -5004,9 +4848,9 @@
       <c r="H3" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I3" s="236"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I3" s="253"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>80</v>
       </c>
@@ -5031,9 +4875,9 @@
       <c r="H4" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="236"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I4" s="253"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>81</v>
       </c>
@@ -5058,9 +4902,9 @@
       <c r="H5" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="236"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I5" s="253"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
         <v>82</v>
       </c>
@@ -5086,9 +4930,9 @@
       <c r="H6" s="166" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="236"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I6" s="253"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
         <v>83</v>
       </c>
@@ -5115,9 +4959,9 @@
       <c r="H7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="236"/>
-    </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I7" s="253"/>
+    </row>
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="151" t="s">
         <v>84</v>
       </c>
@@ -5142,9 +4986,9 @@
       <c r="H8" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="236"/>
-    </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I8" s="253"/>
+    </row>
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="108" t="s">
         <v>85</v>
       </c>
@@ -5169,9 +5013,9 @@
       <c r="H9" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="236"/>
-    </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I9" s="253"/>
+    </row>
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="160" t="s">
         <v>86</v>
       </c>
@@ -5196,9 +5040,9 @@
       <c r="H10" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="236"/>
-    </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="253"/>
+    </row>
+    <row r="11" spans="1:9" s="71" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="161" t="s">
         <v>18</v>
       </c>
@@ -5223,9 +5067,9 @@
       <c r="H11" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="236"/>
-    </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="253"/>
+    </row>
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="162" t="s">
         <v>91</v>
       </c>
@@ -5243,7 +5087,7 @@
       </c>
       <c r="H12" s="72"/>
     </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
         <v>74</v>
       </c>
@@ -5264,11 +5108,11 @@
         <v>0</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="235" t="s">
+      <c r="I13" s="252" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
         <v>75</v>
       </c>
@@ -5289,9 +5133,9 @@
         <v>0</v>
       </c>
       <c r="H14" s="72"/>
-      <c r="I14" s="235"/>
-    </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I14" s="252"/>
+    </row>
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="77" t="s">
         <v>80</v>
       </c>
@@ -5312,9 +5156,9 @@
         <v>0</v>
       </c>
       <c r="H15" s="72"/>
-      <c r="I15" s="235"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I15" s="252"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="77" t="s">
         <v>81</v>
       </c>
@@ -5335,9 +5179,9 @@
         <v>0</v>
       </c>
       <c r="F16" s="71"/>
-      <c r="I16" s="235"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I16" s="252"/>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="77" t="s">
         <v>82</v>
       </c>
@@ -5358,9 +5202,9 @@
         <v>0</v>
       </c>
       <c r="F17" s="71"/>
-      <c r="I17" s="235"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I17" s="252"/>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="108" t="s">
         <v>83</v>
       </c>
@@ -5381,9 +5225,9 @@
       </c>
       <c r="F18" s="71"/>
       <c r="H18" s="71"/>
-      <c r="I18" s="235"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I18" s="252"/>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="151" t="s">
         <v>84</v>
       </c>
@@ -5405,9 +5249,9 @@
       </c>
       <c r="F19" s="71"/>
       <c r="H19" s="71"/>
-      <c r="I19" s="235"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I19" s="252"/>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="151" t="s">
         <v>85</v>
       </c>
@@ -5429,9 +5273,9 @@
       </c>
       <c r="F20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="235"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I20" s="252"/>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="160" t="s">
         <v>86</v>
       </c>
@@ -5453,9 +5297,9 @@
       </c>
       <c r="F21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="235"/>
-    </row>
-    <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="252"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="161" t="s">
         <v>18</v>
       </c>
@@ -5476,19 +5320,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="71"/>
-      <c r="I22" s="235"/>
-    </row>
-    <row r="23" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="237" t="s">
+      <c r="I22" s="252"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="254" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="238"/>
-      <c r="C23" s="238"/>
-      <c r="D23" s="238"/>
-      <c r="E23" s="238"/>
-      <c r="F23" s="239"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="255"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="256"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="76" t="s">
         <v>74</v>
       </c>
@@ -5507,11 +5351,11 @@
       <c r="F24" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="235" t="s">
+      <c r="I24" s="252" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="77" t="s">
         <v>75</v>
       </c>
@@ -5530,9 +5374,9 @@
       <c r="F25" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="235"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I25" s="252"/>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="77" t="s">
         <v>80</v>
       </c>
@@ -5551,9 +5395,9 @@
       <c r="F26" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="235"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I26" s="252"/>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="77" t="s">
         <v>81</v>
       </c>
@@ -5572,9 +5416,9 @@
       <c r="F27" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="235"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I27" s="252"/>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="77" t="s">
         <v>82</v>
       </c>
@@ -5593,9 +5437,9 @@
       <c r="F28" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="235"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I28" s="252"/>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="108" t="s">
         <v>83</v>
       </c>
@@ -5614,9 +5458,9 @@
       <c r="F29" s="188" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="235"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I29" s="252"/>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="151" t="s">
         <v>84</v>
       </c>
@@ -5635,9 +5479,9 @@
       <c r="F30" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="I30" s="235"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I30" s="252"/>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="151" t="s">
         <v>85</v>
       </c>
@@ -5656,9 +5500,9 @@
       <c r="F31" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="I31" s="235"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I31" s="252"/>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="160" t="s">
         <v>86</v>
       </c>
@@ -5677,9 +5521,9 @@
       <c r="F32" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="I32" s="235"/>
-    </row>
-    <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="252"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="161" t="s">
         <v>18</v>
       </c>
@@ -5698,7 +5542,7 @@
       <c r="F33" s="175" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="235"/>
+      <c r="I33" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5708,15 +5552,15 @@
     <mergeCell ref="I24:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:F11 B24:F33 B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="containsText" dxfId="79" priority="54" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="60" priority="54" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="59" priority="55" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5734,17 +5578,17 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="64"/>
       <c r="B1" s="156" t="s">
         <v>74</v>
@@ -5758,11 +5602,11 @@
       <c r="E1" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="240" t="s">
+      <c r="F1" s="244" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
@@ -5779,9 +5623,9 @@
         <f>(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F2" s="240"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="244"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>254</v>
       </c>
@@ -5798,9 +5642,9 @@
         <f t="shared" ref="E3:E7" si="0">(0.1/32)/1000</f>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F3" s="240"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="244"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>255</v>
       </c>
@@ -5817,9 +5661,9 @@
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F4" s="240"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="244"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
@@ -5835,9 +5679,9 @@
       <c r="E5" s="157">
         <v>0</v>
       </c>
-      <c r="F5" s="240"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="244"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
         <v>120</v>
       </c>
@@ -5854,9 +5698,9 @@
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F6" s="240"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="244"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>121</v>
       </c>
@@ -5873,7 +5717,7 @@
         <f t="shared" si="0"/>
         <v>3.1250000000000001E-6</v>
       </c>
-      <c r="F7" s="240"/>
+      <c r="F7" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5881,7 +5725,7 @@
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="B2:E7">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5897,15 +5741,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="64"/>
       <c r="B1" s="156" t="s">
         <v>74</v>
@@ -5916,11 +5760,11 @@
       <c r="D1" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="240" t="s">
+      <c r="E1" s="244" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
@@ -5933,9 +5777,9 @@
       <c r="D2" s="157">
         <v>0</v>
       </c>
-      <c r="E2" s="240"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="244"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>254</v>
       </c>
@@ -5948,9 +5792,9 @@
       <c r="D3" s="157">
         <v>0</v>
       </c>
-      <c r="E3" s="240"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="244"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>255</v>
       </c>
@@ -5963,9 +5807,9 @@
       <c r="D4" s="157">
         <v>0</v>
       </c>
-      <c r="E4" s="240"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="244"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
@@ -5979,9 +5823,9 @@
         <f>0.01*(1/32)*(1/1000)</f>
         <v>3.1250000000000003E-7</v>
       </c>
-      <c r="E5" s="240"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="244"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
         <v>120</v>
       </c>
@@ -5994,9 +5838,9 @@
       <c r="D6" s="157">
         <v>0</v>
       </c>
-      <c r="E6" s="240"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="244"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>121</v>
       </c>
@@ -6009,14 +5853,14 @@
       <c r="D7" s="157">
         <v>0</v>
       </c>
-      <c r="E7" s="240"/>
+      <c r="E7" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D7">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6029,20 +5873,20 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="64.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="156" t="s">
         <v>251</v>
       </c>
@@ -6056,7 +5900,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
@@ -6068,17 +5912,16 @@
         <v>74</v>
       </c>
       <c r="D2" s="159">
-        <f>E2*0.1</f>
         <v>1E-3</v>
       </c>
       <c r="E2" s="159">
         <v>0.01</v>
       </c>
-      <c r="F2" s="236" t="s">
+      <c r="F2" s="253" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>254</v>
       </c>
@@ -6089,15 +5932,14 @@
         <v>75</v>
       </c>
       <c r="D3" s="159">
-        <f t="shared" ref="D3:D7" si="0">E3*0.1</f>
         <v>1E-3</v>
       </c>
       <c r="E3" s="159">
         <v>0.01</v>
       </c>
-      <c r="F3" s="236"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="253"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>255</v>
       </c>
@@ -6108,15 +5950,14 @@
         <v>75</v>
       </c>
       <c r="D4" s="159">
-        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
       <c r="E4" s="159">
         <v>0.01</v>
       </c>
-      <c r="F4" s="236"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="253"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
@@ -6128,15 +5969,14 @@
         <v>74</v>
       </c>
       <c r="D5" s="159">
-        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
       <c r="E5" s="159">
         <v>0.01</v>
       </c>
-      <c r="F5" s="236"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="253"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
         <v>120</v>
       </c>
@@ -6147,15 +5987,14 @@
         <v>74</v>
       </c>
       <c r="D6" s="159">
-        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
       <c r="E6" s="159">
         <v>0.01</v>
       </c>
-      <c r="F6" s="236"/>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="253"/>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>121</v>
       </c>
@@ -6166,13 +6005,12 @@
         <v>80</v>
       </c>
       <c r="D7" s="159">
-        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
       <c r="E7" s="159">
         <v>0.01</v>
       </c>
-      <c r="F7" s="236"/>
+      <c r="F7" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6194,54 +6032,54 @@
       <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="62" customWidth="1"/>
     <col min="3" max="3" width="13" style="62" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="62" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="62" customWidth="1"/>
     <col min="6" max="6" width="14" style="62" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="62" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="62" customWidth="1"/>
     <col min="8" max="8" width="13" style="62" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="62" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="62"/>
+    <col min="9" max="9" width="14.5703125" style="62" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="69"/>
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="259" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="243" t="s">
+      <c r="C1" s="257"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="259" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="241"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243" t="s">
+      <c r="F1" s="257"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="259" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="241"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="241" t="s">
+      <c r="I1" s="257"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="257" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="241"/>
-      <c r="M1" s="242"/>
-      <c r="N1" s="241" t="s">
+      <c r="L1" s="257"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="241"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="241" t="s">
+      <c r="O1" s="257"/>
+      <c r="P1" s="258"/>
+      <c r="Q1" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="241"/>
-      <c r="S1" s="242"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="257"/>
+      <c r="S1" s="258"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69"/>
       <c r="B2" s="200" t="s">
         <v>77</v>
@@ -6298,7 +6136,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>74</v>
       </c>
@@ -6357,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>75</v>
       </c>
@@ -6416,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>80</v>
       </c>
@@ -6475,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
         <v>81</v>
       </c>
@@ -6534,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
         <v>82</v>
       </c>
@@ -6593,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="77" t="s">
         <v>83</v>
       </c>
@@ -6652,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="151" t="s">
         <v>84</v>
       </c>
@@ -6711,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="151" t="s">
         <v>85</v>
       </c>
@@ -6770,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="199" t="s">
         <v>86</v>
       </c>
@@ -6829,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="161" t="s">
         <v>18</v>
       </c>
@@ -6898,282 +6736,282 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:B12 E3:F7 E10:G12 J10:J12">
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="72" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="71" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B7">
-    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G7">
-    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="64" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="62" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="60" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="58" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I7 H10:I12">
-    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="56" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="54" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="53" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="51" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L7 K10:L12 N10:N12 Q10:Q12">
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M12">
-    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K7 N3:N7 Q3:Q7">
-    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M7">
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 N9 Q9">
-    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="41" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8 N8 Q8">
-    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="39" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O7 O10:O12">
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R7 R10:R12">
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="33" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P12">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P7">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S12">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S7">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C7 C10:C12">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7193,65 +7031,65 @@
       <selection activeCell="I3" sqref="I3:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="4.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="12.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" style="1" customWidth="1"/>
-    <col min="23" max="24" width="12.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="12.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.44140625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="12.5546875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5546875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.44140625" style="1" customWidth="1"/>
-    <col min="35" max="36" width="8.88671875" style="1"/>
-    <col min="37" max="37" width="14.88671875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="12.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="12.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="12.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="12.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.85546875" style="1"/>
+    <col min="37" max="37" width="14.85546875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="218" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218" t="s">
+    <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="218" t="s">
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="218"/>
-      <c r="AD2" s="218"/>
-      <c r="AE2" s="218" t="s">
+      <c r="AB2" s="234"/>
+      <c r="AC2" s="234"/>
+      <c r="AD2" s="234"/>
+      <c r="AE2" s="234" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="218"/>
-      <c r="AG2" s="218"/>
-      <c r="AH2" s="218"/>
+      <c r="AF2" s="234"/>
+      <c r="AG2" s="234"/>
+      <c r="AH2" s="234"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7265,7 +7103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -7379,7 +7217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -7474,7 +7312,7 @@
       <c r="AM4" s="19"/>
       <c r="AN4" s="19"/>
     </row>
-    <row r="5" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>33</v>
       </c>
@@ -7597,7 +7435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
@@ -7721,7 +7559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>42</v>
       </c>
@@ -7836,7 +7674,7 @@
       <c r="AM7" s="27"/>
       <c r="AN7" s="27"/>
     </row>
-    <row r="8" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
@@ -7948,7 +7786,7 @@
       </c>
       <c r="AJ8" s="87"/>
     </row>
-    <row r="9" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
       <c r="I9" s="35" t="s">
         <v>45</v>
       </c>
@@ -8038,7 +7876,7 @@
       </c>
       <c r="AJ9" s="87"/>
     </row>
-    <row r="10" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
@@ -8123,7 +7961,7 @@
       </c>
       <c r="AJ10" s="87"/>
     </row>
-    <row r="11" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="I11" s="35" t="s">
         <v>47</v>
       </c>
@@ -8209,7 +8047,7 @@
       </c>
       <c r="AJ11" s="87"/>
     </row>
-    <row r="12" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
       <c r="I12" s="35" t="s">
         <v>48</v>
       </c>
@@ -8295,7 +8133,7 @@
       </c>
       <c r="AJ12" s="87"/>
     </row>
-    <row r="13" spans="2:40" ht="20.399999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:40" ht="21.75" x14ac:dyDescent="0.35">
       <c r="B13" s="61" t="s">
         <v>49</v>
       </c>
@@ -8391,7 +8229,7 @@
       </c>
       <c r="AJ13" s="87"/>
     </row>
-    <row r="14" spans="2:40" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
       <c r="E14" s="34"/>
       <c r="I14" s="29" t="s">
@@ -8481,7 +8319,7 @@
       </c>
       <c r="AJ14" s="87"/>
     </row>
-    <row r="15" spans="2:40" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:40" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
       <c r="E15" s="34"/>
       <c r="I15" s="29" t="s">
@@ -8573,7 +8411,7 @@
       </c>
       <c r="AJ15" s="87"/>
     </row>
-    <row r="16" spans="2:40" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:40" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -8681,7 +8519,7 @@
       </c>
       <c r="AJ16" s="87"/>
     </row>
-    <row r="17" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
@@ -8704,10 +8542,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="219" t="s">
+      <c r="J17" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="222" t="s">
+      <c r="K17" s="238" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -8783,7 +8621,7 @@
       </c>
       <c r="AJ17" s="27"/>
     </row>
-    <row r="18" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>1</v>
       </c>
@@ -8807,8 +8645,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="220"/>
-      <c r="K18" s="223"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="239"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -8882,7 +8720,7 @@
       </c>
       <c r="AJ18" s="27"/>
     </row>
-    <row r="19" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>58</v>
       </c>
@@ -8906,8 +8744,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="220"/>
-      <c r="K19" s="223"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="239"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -8981,14 +8819,14 @@
       </c>
       <c r="AJ19" s="27"/>
     </row>
-    <row r="20" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="223"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="239"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -9062,15 +8900,15 @@
       </c>
       <c r="AJ20" s="27"/>
     </row>
-    <row r="21" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="223"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="239"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -9144,15 +8982,15 @@
       </c>
       <c r="AJ21" s="27"/>
     </row>
-    <row r="22" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="223"/>
+      <c r="J22" s="236"/>
+      <c r="K22" s="239"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -9226,15 +9064,15 @@
       </c>
       <c r="AJ22" s="27"/>
     </row>
-    <row r="23" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="220"/>
-      <c r="K23" s="223"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="239"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -9308,15 +9146,15 @@
       </c>
       <c r="AJ23" s="27"/>
     </row>
-    <row r="24" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="223"/>
+      <c r="J24" s="236"/>
+      <c r="K24" s="239"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -9330,31 +9168,31 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="220"/>
-      <c r="K25" s="223"/>
-    </row>
-    <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="J25" s="236"/>
+      <c r="K25" s="239"/>
+    </row>
+    <row r="26" spans="2:36" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="223"/>
-      <c r="N26" s="225" t="s">
+      <c r="J26" s="236"/>
+      <c r="K26" s="239"/>
+      <c r="N26" s="241" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="226"/>
-      <c r="P26" s="226"/>
-      <c r="Q26" s="227"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="242"/>
+      <c r="Q26" s="243"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -9423,21 +9261,21 @@
         <v>263.94800000000009</v>
       </c>
     </row>
-    <row r="27" spans="2:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="223"/>
-      <c r="N27" s="225" t="s">
+      <c r="J27" s="236"/>
+      <c r="K27" s="239"/>
+      <c r="N27" s="241" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="226"/>
-      <c r="P27" s="226"/>
-      <c r="Q27" s="227"/>
+      <c r="O27" s="242"/>
+      <c r="P27" s="242"/>
+      <c r="Q27" s="243"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -9506,46 +9344,46 @@
         <v>303.90184335522252</v>
       </c>
     </row>
-    <row r="28" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="223"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="239"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
     </row>
-    <row r="29" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="223"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="220"/>
-      <c r="K30" s="223"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="220"/>
-      <c r="K31" s="223"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="220"/>
-      <c r="K32" s="223"/>
-    </row>
-    <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="221"/>
-      <c r="K33" s="224"/>
-    </row>
-    <row r="34" spans="10:26" x14ac:dyDescent="0.3">
+      <c r="J29" s="236"/>
+      <c r="K29" s="239"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="J30" s="236"/>
+      <c r="K30" s="239"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="J31" s="236"/>
+      <c r="K31" s="239"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="J32" s="236"/>
+      <c r="K32" s="239"/>
+    </row>
+    <row r="33" spans="10:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="237"/>
+      <c r="K33" s="240"/>
+    </row>
+    <row r="34" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U34" s="82"/>
       <c r="V34" s="65">
         <v>10</v>
@@ -9559,7 +9397,7 @@
       <c r="Y34"/>
       <c r="Z34"/>
     </row>
-    <row r="35" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U35" s="83" t="s">
         <v>68</v>
       </c>
@@ -9578,7 +9416,7 @@
       <c r="Y35"/>
       <c r="Z35"/>
     </row>
-    <row r="36" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U36" s="84" t="s">
         <v>69</v>
       </c>
@@ -9597,7 +9435,7 @@
       <c r="Y36"/>
       <c r="Z36"/>
     </row>
-    <row r="37" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U37" s="83" t="s">
         <v>70</v>
       </c>
@@ -9616,7 +9454,7 @@
       <c r="Y37"/>
       <c r="Z37"/>
     </row>
-    <row r="38" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="10:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U38" s="85" t="s">
         <v>71</v>
       </c>
@@ -9635,7 +9473,7 @@
       <c r="Y38"/>
       <c r="Z38"/>
     </row>
-    <row r="39" spans="10:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:26" x14ac:dyDescent="0.25">
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
@@ -9655,82 +9493,82 @@
     <mergeCell ref="N27:Q27"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:AB7 AD5:AD7 AD9:AD16 S9:AB16">
-    <cfRule type="cellIs" dxfId="100" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AD23">
-    <cfRule type="cellIs" dxfId="99" priority="19" operator="notBetween">
+    <cfRule type="cellIs" dxfId="84" priority="19" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="20" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:AB8 AD8">
-    <cfRule type="cellIs" dxfId="97" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC7 AC9:AC16">
-    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="95" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AF7 AE9:AF16 AH9:AI16 AH5:AJ5 AH6:AI7 AJ6:AJ16 AH4">
-    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AJ23">
-    <cfRule type="cellIs" dxfId="92" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AF8 AH8:AI8">
-    <cfRule type="cellIs" dxfId="90" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG7 AG9:AG16">
-    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4 S4:AB4">
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AF4 AI4">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9743,16 +9581,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC80DB5-92D9-44E1-984F-05E418326CA4}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="str">
         <f>Discretization!A15</f>
         <v>Dynamic dT</v>
@@ -9761,22 +9601,22 @@
         <f>Discretization!B15</f>
         <v>1</v>
       </c>
-      <c r="C1" s="240" t="s">
+      <c r="C1" s="244" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="str">
         <f>Parameters!A2</f>
         <v>Variable HRT</v>
       </c>
       <c r="B2" s="99" t="b">
         <f>Parameters!B2</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="240"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="244"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="str">
         <f>Bacteria!A6</f>
         <v>Initialisation method</v>
@@ -9785,9 +9625,9 @@
         <f>Bacteria!B6</f>
         <v>granule</v>
       </c>
-      <c r="C3" s="240"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C3" s="244"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="str">
         <f>Bacteria!A12</f>
         <v>Inactivation enabled</v>
@@ -9796,9 +9636,9 @@
         <f>Bacteria!B12</f>
         <v>1</v>
       </c>
-      <c r="C4" s="240"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C4" s="244"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="str">
         <f>Bacteria!A13</f>
         <v>Detachment method</v>
@@ -9807,9 +9647,9 @@
         <f>Bacteria!B13</f>
         <v>mechanistic</v>
       </c>
-      <c r="C5" s="240"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C5" s="244"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="str">
         <f>Solver!A4</f>
         <v>pH bulk concentration corrected</v>
@@ -9818,9 +9658,9 @@
         <f>Solver!B4</f>
         <v>1</v>
       </c>
-      <c r="C6" s="240"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="C6" s="244"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="str">
         <f>Solver!A2</f>
         <v>pH solving included</v>
@@ -9829,9 +9669,9 @@
         <f>Solver!B2</f>
         <v>1</v>
       </c>
-      <c r="C7" s="240"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="244"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="77" t="str">
         <f>Solver!A5</f>
         <v>Speciation included</v>
@@ -9840,32 +9680,32 @@
         <f>Solver!B5</f>
         <v>1</v>
       </c>
-      <c r="C8" s="240"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="245"/>
-      <c r="G9" s="244"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="245"/>
-      <c r="G10" s="244"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="245"/>
-      <c r="G11" s="244"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="245"/>
-      <c r="G12" s="244"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="245"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="245"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="245"/>
+      <c r="C8" s="244"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="219"/>
+      <c r="G9" s="218"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="219"/>
+      <c r="G10" s="218"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="219"/>
+      <c r="G11" s="218"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="219"/>
+      <c r="G12" s="218"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="219"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="219"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9879,20 +9719,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="62"/>
-    <col min="4" max="4" width="66.88671875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="62" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="62"/>
+    <col min="1" max="1" width="33.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="62"/>
+    <col min="4" max="4" width="66.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>101</v>
       </c>
@@ -9905,11 +9745,11 @@
       <c r="D1" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="228" t="s">
+      <c r="E1" s="245" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>102</v>
       </c>
@@ -9922,9 +9762,9 @@
       <c r="D2" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="228"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E2" s="245"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>103</v>
       </c>
@@ -9938,9 +9778,9 @@
       <c r="D3" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="228"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E3" s="245"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>104</v>
       </c>
@@ -9954,9 +9794,9 @@
       <c r="D4" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="228"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E4" s="245"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>105</v>
       </c>
@@ -9969,9 +9809,9 @@
       <c r="D5" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="228"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E5" s="245"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>106</v>
       </c>
@@ -9984,9 +9824,9 @@
       <c r="D6" s="110" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="228"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E6" s="245"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>107</v>
       </c>
@@ -9999,9 +9839,9 @@
       <c r="D7" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="228"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="245"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="s">
         <v>122</v>
       </c>
@@ -10015,9 +9855,9 @@
       <c r="D8" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="229"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="246"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
         <v>139</v>
       </c>
@@ -10030,11 +9870,11 @@
       <c r="D9" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="230" t="s">
+      <c r="E9" s="247" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>142</v>
       </c>
@@ -10047,9 +9887,9 @@
       <c r="D10" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="231"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E10" s="248"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>145</v>
       </c>
@@ -10063,9 +9903,9 @@
       <c r="D11" s="110" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="231"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E11" s="248"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>154</v>
       </c>
@@ -10078,9 +9918,9 @@
       <c r="D12" s="110" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="231"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E12" s="248"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
         <v>133</v>
       </c>
@@ -10093,9 +9933,9 @@
       <c r="D13" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="231"/>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="248"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
         <v>134</v>
       </c>
@@ -10109,9 +9949,9 @@
       <c r="D14" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="232"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E14" s="249"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>158</v>
       </c>
@@ -10124,11 +9964,11 @@
       <c r="D15" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="230" t="s">
+      <c r="E15" s="247" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>140</v>
       </c>
@@ -10141,9 +9981,9 @@
       <c r="D16" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="231"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E16" s="248"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>143</v>
       </c>
@@ -10157,9 +9997,9 @@
       <c r="D17" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="231"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E17" s="248"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="s">
         <v>141</v>
       </c>
@@ -10172,9 +10012,9 @@
       <c r="D18" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="231"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E18" s="248"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="s">
         <v>144</v>
       </c>
@@ -10188,9 +10028,9 @@
       <c r="D19" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="231"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E19" s="248"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>152</v>
       </c>
@@ -10203,9 +10043,9 @@
       <c r="D20" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="231"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E20" s="248"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="108" t="s">
         <v>153</v>
       </c>
@@ -10218,9 +10058,9 @@
       <c r="D21" s="115" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="231"/>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E21" s="248"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
         <v>160</v>
       </c>
@@ -10233,9 +10073,9 @@
       <c r="D22" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="231"/>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E22" s="248"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="s">
         <v>163</v>
       </c>
@@ -10248,9 +10088,9 @@
       <c r="D23" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="231"/>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E23" s="248"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="s">
         <v>161</v>
       </c>
@@ -10263,9 +10103,9 @@
       <c r="D24" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="231"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E24" s="248"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>162</v>
       </c>
@@ -10278,9 +10118,9 @@
       <c r="D25" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="231"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E25" s="248"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>170</v>
       </c>
@@ -10293,9 +10133,9 @@
       <c r="D26" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="231"/>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E26" s="248"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>164</v>
       </c>
@@ -10308,9 +10148,9 @@
       <c r="D27" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="231"/>
-    </row>
-    <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="248"/>
+    </row>
+    <row r="28" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89" t="s">
         <v>165</v>
       </c>
@@ -10323,7 +10163,7 @@
       <c r="D28" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="232"/>
+      <c r="E28" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10332,7 +10172,7 @@
     <mergeCell ref="E15:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:D28">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>$B$15 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10351,19 +10191,19 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="69.44140625" style="62" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="62"/>
+    <col min="1" max="1" width="21.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="69.42578125" style="62" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>99</v>
       </c>
@@ -10378,12 +10218,12 @@
       </c>
       <c r="E1" s="69"/>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>178</v>
       </c>
       <c r="B2" s="122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>97</v>
@@ -10393,7 +10233,7 @@
       </c>
       <c r="E2" s="69"/>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>181</v>
       </c>
@@ -10409,11 +10249,11 @@
       </c>
       <c r="E3" s="69"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="220" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="126" t="s">
@@ -10424,7 +10264,7 @@
       </c>
       <c r="E4" s="69"/>
     </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>39</v>
       </c>
@@ -10439,7 +10279,7 @@
       </c>
       <c r="E5" s="69"/>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>247</v>
       </c>
@@ -10455,7 +10295,7 @@
       </c>
       <c r="E6" s="69"/>
     </row>
-    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>177</v>
       </c>
@@ -10470,7 +10310,7 @@
       </c>
       <c r="E7" s="69"/>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>176</v>
       </c>
@@ -10486,7 +10326,7 @@
       </c>
       <c r="E8" s="69"/>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>175</v>
       </c>
@@ -10502,127 +10342,127 @@
       </c>
       <c r="E9" s="69"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" s="69"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" s="69"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" s="94"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="69"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="83" priority="3">
+    <cfRule type="expression" dxfId="68" priority="3">
       <formula>$B$2 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>$B$2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10641,22 +10481,22 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="62"/>
+    <col min="1" max="1" width="9.140625" style="62"/>
     <col min="2" max="2" width="12" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="62"/>
-    <col min="7" max="7" width="11.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="62"/>
+    <col min="3" max="3" width="9.140625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="62" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="62"/>
+    <col min="7" max="7" width="11.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
@@ -10670,11 +10510,11 @@
       <c r="D1" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="233" t="s">
+      <c r="E1" s="250" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
@@ -10688,9 +10528,9 @@
       <c r="D2" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="233"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E2" s="250"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
@@ -10704,9 +10544,9 @@
       <c r="D3" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="233"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E3" s="250"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
@@ -10720,9 +10560,9 @@
       <c r="D4" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="233"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E4" s="250"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
@@ -10736,9 +10576,9 @@
       <c r="D5" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="233"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E5" s="250"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>83</v>
       </c>
@@ -10752,9 +10592,9 @@
       <c r="D6" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="233"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="250"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>84</v>
       </c>
@@ -10768,7 +10608,7 @@
       <c r="D7" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="234"/>
+      <c r="E7" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10783,21 +10623,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="62"/>
-    <col min="4" max="4" width="79.6640625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="62"/>
+    <col min="1" max="1" width="37.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="62"/>
+    <col min="4" max="4" width="79.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>190</v>
       </c>
@@ -10812,7 +10652,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
         <v>191</v>
       </c>
@@ -10827,7 +10667,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>192</v>
       </c>
@@ -10842,7 +10682,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>193</v>
       </c>
@@ -10857,7 +10697,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>194</v>
       </c>
@@ -10871,7 +10711,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="139" t="s">
         <v>224</v>
       </c>
@@ -10885,13 +10725,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
         <v>196</v>
       </c>
       <c r="B7" s="131">
-        <f>75*10^(-6)</f>
-        <v>7.4999999999999993E-5</v>
+        <f>50*10^(-6)</f>
+        <v>4.9999999999999996E-5</v>
       </c>
       <c r="C7" s="90" t="s">
         <v>94</v>
@@ -10900,13 +10740,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="257">
+      <c r="B8" s="231">
         <f>_xlfn.CEILING.MATH(B7^2 / (0.8*B3 * B11)^2 * 0.75)</f>
-        <v>2930</v>
+        <v>1303</v>
       </c>
       <c r="C8" s="90" t="s">
         <v>97</v>
@@ -10915,11 +10755,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="256">
+      <c r="B9" s="230">
         <v>500</v>
       </c>
       <c r="C9" s="126" t="s">
@@ -10929,7 +10769,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="77" t="s">
         <v>197</v>
       </c>
@@ -10944,7 +10784,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="77" t="s">
         <v>118</v>
       </c>
@@ -10958,7 +10798,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>207</v>
       </c>
@@ -10972,7 +10812,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="139" t="s">
         <v>209</v>
       </c>
@@ -10986,7 +10826,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="77" t="s">
         <v>210</v>
       </c>
@@ -11000,7 +10840,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="108" t="s">
         <v>195</v>
       </c>
@@ -11015,45 +10855,45 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="69"/>
       <c r="B16" s="94"/>
       <c r="C16" s="69"/>
       <c r="D16" s="69"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="94"/>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="69"/>
       <c r="D19" s="94"/>
       <c r="E19" s="69"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
       <c r="E20" s="94"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A14:D14">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="66" priority="4">
       <formula>$B$13&lt;&gt;"mechanistic"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:D15">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>$B$13&lt;&gt;"naive"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:D9">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>$B$6 = "granule"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:D8">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>$B$6 ="suspension"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11081,13 +10921,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>222</v>
       </c>
@@ -11101,7 +10941,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
         <v>226</v>
       </c>
@@ -11115,7 +10955,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>189</v>
       </c>
@@ -11129,7 +10969,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>260</v>
       </c>
@@ -11143,7 +10983,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>229</v>
       </c>
@@ -11157,7 +10997,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
         <v>230</v>
       </c>
@@ -11171,7 +11011,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
         <v>215</v>
       </c>
@@ -11185,7 +11025,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="77" t="s">
         <v>216</v>
       </c>
@@ -11199,7 +11039,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
         <v>218</v>
       </c>
@@ -11213,21 +11053,21 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="256" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="258" t="s">
+      <c r="B10" s="230" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="232" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="259" t="s">
+      <c r="D10" s="233" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="77" t="s">
         <v>263</v>
       </c>
@@ -11241,7 +11081,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
         <v>262</v>
       </c>
@@ -11257,23 +11097,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>$B$2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>$B$11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{A49C7C3F-F289-4E9E-93BF-BE4D6D78B296}">
       <formula1>"max, mean, norm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B10 B4 B5" xr:uid="{84E938EB-3DC7-476B-8ED7-970048E4677C}">
-      <formula1>"TRUE, FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{E03D1A38-E4CD-4F8A-8EC3-3AE9680BF385}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B4:B5 B10:B11" xr:uid="{84E938EB-3DC7-476B-8ED7-970048E4677C}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{54BD5B48-48D3-4918-B933-84192454EDAB}">
@@ -11290,18 +11127,18 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="62"/>
-    <col min="4" max="4" width="4.44140625" style="62" customWidth="1"/>
-    <col min="5" max="5" width="62.5546875" style="62" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="62"/>
+    <col min="1" max="3" width="9.140625" style="62"/>
+    <col min="4" max="4" width="4.42578125" style="62" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
@@ -11314,7 +11151,7 @@
       <c r="D1" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="235" t="s">
+      <c r="E1" s="252" t="s">
         <v>235</v>
       </c>
       <c r="F1" s="69"/>
@@ -11323,7 +11160,7 @@
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
@@ -11336,14 +11173,14 @@
       <c r="D2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="235"/>
+      <c r="E2" s="252"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
       <c r="I2" s="69"/>
       <c r="J2" s="69"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
@@ -11356,14 +11193,14 @@
       <c r="D3" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="235"/>
+      <c r="E3" s="252"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
       <c r="I3" s="69"/>
       <c r="J3" s="69"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
@@ -11376,14 +11213,14 @@
       <c r="D4" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="235"/>
+      <c r="E4" s="252"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
       <c r="J4" s="69"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
@@ -11396,14 +11233,14 @@
       <c r="D5" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="235"/>
+      <c r="E5" s="252"/>
       <c r="F5" s="94"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
       <c r="I5" s="69"/>
       <c r="J5" s="69"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
         <v>83</v>
       </c>
@@ -11417,14 +11254,14 @@
       <c r="D6" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="235"/>
+      <c r="E6" s="252"/>
       <c r="F6" s="94"/>
       <c r="G6" s="69"/>
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
         <v>84</v>
       </c>
@@ -11438,14 +11275,14 @@
       <c r="D7" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="235"/>
+      <c r="E7" s="252"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="69"/>
       <c r="B13" s="69"/>
       <c r="C13" s="69"/>
@@ -11457,7 +11294,7 @@
       <c r="I13" s="69"/>
       <c r="J13" s="70"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="69"/>
       <c r="B16" s="69"/>
       <c r="C16" s="69"/>

--- a/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
+++ b/planning/Excels/Templates/AOBNOBAMXCMX_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bestanden\Cloud Storage\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Uni\Master Thesis\version_GitHub\planning\Excels\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C1B372-D892-4845-9EB0-4929E6A7BBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76D5749-0579-4F0C-8F6A-FAAE87CB8B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11295" yWindow="2955" windowWidth="21600" windowHeight="11385" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="-4845" windowWidth="13830" windowHeight="7170" tabRatio="808" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -29,12 +29,14 @@
     <sheet name="Yield" sheetId="33" r:id="rId14"/>
     <sheet name="ReactionMatrix" sheetId="21" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -158,16 +160,10 @@
   <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{FAFA8C7C-6800-4018-947D-B9F524B630BA}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     From [Strous1998]</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1244,9 +1240,6 @@
     <t>1/m2.h</t>
   </si>
   <si>
-    <t>mechanistic</t>
-  </si>
-  <si>
     <t>Select the method of detachment</t>
   </si>
   <si>
@@ -1458,6 +1451,9 @@
   </si>
   <si>
     <t>Starting bio-aggregate in the system</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -4482,18 +4478,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6616838C-F568-417D-8029-DEFF7E533FF8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
         <v>112</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>119</v>
       </c>
@@ -4515,59 +4511,59 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="69" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="69" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="228" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="229" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="229" t="s">
+    <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="227" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="227" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="226" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="222" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="226" t="s">
+    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="221" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="223" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="224" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="225" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="222" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="221" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="223" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="224" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="225" t="s">
-        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4604,42 +4600,42 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="62"/>
-    <col min="3" max="3" width="7.5703125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" style="62" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="62"/>
+    <col min="1" max="2" width="11.44140625" style="62"/>
+    <col min="3" max="3" width="7.5546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="75.44140625" style="62" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" style="62"/>
     <col min="7" max="7" width="12" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="62"/>
+    <col min="8" max="16384" width="11.44140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="131">
-        <v>1E-10</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C1" s="90" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="253" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="131">
-        <v>1E-10</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>87</v>
@@ -4649,12 +4645,12 @@
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="131">
-        <v>1E-10</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C3" s="90" t="s">
         <v>87</v>
@@ -4664,12 +4660,12 @@
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="131">
-        <v>1E-10</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C4" s="90" t="s">
         <v>87</v>
@@ -4679,12 +4675,12 @@
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
       <c r="B5" s="131">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>87</v>
@@ -4694,13 +4690,13 @@
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="108" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="136">
         <f>B1/2</f>
-        <v>5.0000000000000002E-11</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="C6" s="126" t="s">
         <v>87</v>
@@ -4710,7 +4706,7 @@
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="151" t="s">
         <v>84</v>
       </c>
@@ -4728,7 +4724,7 @@
       <c r="I7" s="147"/>
       <c r="J7" s="147"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="69"/>
       <c r="F8" s="148"/>
       <c r="G8" s="149"/>
@@ -4736,7 +4732,7 @@
       <c r="I8" s="148"/>
       <c r="J8" s="147"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="69"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
@@ -4762,39 +4758,39 @@
       <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="6" width="14.28515625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="72" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="1" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="6" width="14.33203125" style="75" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="71" customWidth="1"/>
+    <col min="8" max="8" width="3.5546875" style="72" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="162" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C1" s="163" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="164" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="E1" s="163" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="F1" s="164" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="164" t="s">
-        <v>239</v>
-      </c>
       <c r="G1" s="164" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>74</v>
       </c>
@@ -4820,10 +4816,10 @@
         <v>88</v>
       </c>
       <c r="I2" s="253" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>75</v>
       </c>
@@ -4850,7 +4846,7 @@
       </c>
       <c r="I3" s="253"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>80</v>
       </c>
@@ -4877,7 +4873,7 @@
       </c>
       <c r="I4" s="253"/>
     </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>81</v>
       </c>
@@ -4904,7 +4900,7 @@
       </c>
       <c r="I5" s="253"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>82</v>
       </c>
@@ -4932,7 +4928,7 @@
       </c>
       <c r="I6" s="253"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>83</v>
       </c>
@@ -4961,7 +4957,7 @@
       </c>
       <c r="I7" s="253"/>
     </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="151" t="s">
         <v>84</v>
       </c>
@@ -4988,7 +4984,7 @@
       </c>
       <c r="I8" s="253"/>
     </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
         <v>85</v>
       </c>
@@ -5015,7 +5011,7 @@
       </c>
       <c r="I9" s="253"/>
     </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="160" t="s">
         <v>86</v>
       </c>
@@ -5042,7 +5038,7 @@
       </c>
       <c r="I10" s="253"/>
     </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="161" t="s">
         <v>18</v>
       </c>
@@ -5069,25 +5065,25 @@
       </c>
       <c r="I11" s="253"/>
     </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="162" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="167" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="167" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="D12" s="168" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="E12" s="167" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="167" t="s">
-        <v>245</v>
-      </c>
       <c r="H12" s="72"/>
     </row>
-    <row r="13" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>74</v>
       </c>
@@ -5109,10 +5105,10 @@
       </c>
       <c r="H13" s="72"/>
       <c r="I13" s="252" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>75</v>
       </c>
@@ -5135,7 +5131,7 @@
       <c r="H14" s="72"/>
       <c r="I14" s="252"/>
     </row>
-    <row r="15" spans="1:9" s="71" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>80</v>
       </c>
@@ -5158,7 +5154,7 @@
       <c r="H15" s="72"/>
       <c r="I15" s="252"/>
     </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
         <v>81</v>
       </c>
@@ -5181,7 +5177,7 @@
       <c r="F16" s="71"/>
       <c r="I16" s="252"/>
     </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
         <v>82</v>
       </c>
@@ -5204,7 +5200,7 @@
       <c r="F17" s="71"/>
       <c r="I17" s="252"/>
     </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="108" t="s">
         <v>83</v>
       </c>
@@ -5227,7 +5223,7 @@
       <c r="H18" s="71"/>
       <c r="I18" s="252"/>
     </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="151" t="s">
         <v>84</v>
       </c>
@@ -5251,7 +5247,7 @@
       <c r="H19" s="71"/>
       <c r="I19" s="252"/>
     </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="151" t="s">
         <v>85</v>
       </c>
@@ -5275,7 +5271,7 @@
       <c r="H20" s="71"/>
       <c r="I20" s="252"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="160" t="s">
         <v>86</v>
       </c>
@@ -5299,7 +5295,7 @@
       <c r="H21" s="71"/>
       <c r="I21" s="252"/>
     </row>
-    <row r="22" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="161" t="s">
         <v>18</v>
       </c>
@@ -5322,9 +5318,9 @@
       <c r="F22" s="71"/>
       <c r="I22" s="252"/>
     </row>
-    <row r="23" spans="1:9" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="254" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="255"/>
       <c r="C23" s="255"/>
@@ -5332,7 +5328,7 @@
       <c r="E23" s="255"/>
       <c r="F23" s="256"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
         <v>74</v>
       </c>
@@ -5352,10 +5348,10 @@
         <v>93</v>
       </c>
       <c r="I24" s="252" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
         <v>75</v>
       </c>
@@ -5376,7 +5372,7 @@
       </c>
       <c r="I25" s="252"/>
     </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
         <v>80</v>
       </c>
@@ -5397,7 +5393,7 @@
       </c>
       <c r="I26" s="252"/>
     </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
         <v>81</v>
       </c>
@@ -5418,7 +5414,7 @@
       </c>
       <c r="I27" s="252"/>
     </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
         <v>82</v>
       </c>
@@ -5439,7 +5435,7 @@
       </c>
       <c r="I28" s="252"/>
     </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="108" t="s">
         <v>83</v>
       </c>
@@ -5460,7 +5456,7 @@
       </c>
       <c r="I29" s="252"/>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="151" t="s">
         <v>84</v>
       </c>
@@ -5481,7 +5477,7 @@
       </c>
       <c r="I30" s="252"/>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="151" t="s">
         <v>85</v>
       </c>
@@ -5502,7 +5498,7 @@
       </c>
       <c r="I31" s="252"/>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="160" t="s">
         <v>86</v>
       </c>
@@ -5523,7 +5519,7 @@
       </c>
       <c r="I32" s="252"/>
     </row>
-    <row r="33" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="161" t="s">
         <v>18</v>
       </c>
@@ -5578,17 +5574,17 @@
       <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
       <c r="B1" s="156" t="s">
         <v>74</v>
@@ -5603,10 +5599,10 @@
         <v>81</v>
       </c>
       <c r="F1" s="244" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
@@ -5625,9 +5621,9 @@
       </c>
       <c r="F2" s="244"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="157">
         <v>0</v>
@@ -5644,9 +5640,9 @@
       </c>
       <c r="F3" s="244"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="157">
         <v>0</v>
@@ -5663,7 +5659,7 @@
       </c>
       <c r="F4" s="244"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
@@ -5681,7 +5677,7 @@
       </c>
       <c r="F5" s="244"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>120</v>
       </c>
@@ -5700,7 +5696,7 @@
       </c>
       <c r="F6" s="244"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>121</v>
       </c>
@@ -5741,15 +5737,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
       <c r="B1" s="156" t="s">
         <v>74</v>
@@ -5761,10 +5757,10 @@
         <v>81</v>
       </c>
       <c r="E1" s="244" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
@@ -5779,25 +5775,25 @@
       </c>
       <c r="E2" s="244"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="157">
+        <v>0</v>
+      </c>
+      <c r="C3" s="157">
+        <v>0</v>
+      </c>
+      <c r="D3" s="157">
+        <v>0</v>
+      </c>
+      <c r="E3" s="244"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="B3" s="157">
-        <v>0</v>
-      </c>
-      <c r="C3" s="157">
-        <v>0</v>
-      </c>
-      <c r="D3" s="157">
-        <v>0</v>
-      </c>
-      <c r="E3" s="244"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
-        <v>255</v>
-      </c>
       <c r="B4" s="157">
         <v>0</v>
       </c>
@@ -5809,7 +5805,7 @@
       </c>
       <c r="E4" s="244"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
@@ -5825,7 +5821,7 @@
       </c>
       <c r="E5" s="244"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>120</v>
       </c>
@@ -5840,7 +5836,7 @@
       </c>
       <c r="E6" s="244"/>
     </row>
-    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>121</v>
       </c>
@@ -5876,31 +5872,31 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="64.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1" s="156" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="156" t="s">
         <v>249</v>
       </c>
-      <c r="E1" s="156" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>73</v>
       </c>
@@ -5918,12 +5914,12 @@
         <v>0.01</v>
       </c>
       <c r="F2" s="253" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="157">
         <v>2.07E-2</v>
@@ -5939,9 +5935,9 @@
       </c>
       <c r="F3" s="253"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="157">
         <v>2.07E-2</v>
@@ -5957,7 +5953,7 @@
       </c>
       <c r="F4" s="253"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>76</v>
       </c>
@@ -5976,7 +5972,7 @@
       </c>
       <c r="F5" s="253"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>120</v>
       </c>
@@ -5994,7 +5990,7 @@
       </c>
       <c r="F6" s="253"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>121</v>
       </c>
@@ -6032,21 +6028,21 @@
       <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="62" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="62" customWidth="1"/>
     <col min="3" max="3" width="13" style="62" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="62" customWidth="1"/>
     <col min="6" max="6" width="14" style="62" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="62" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="62" customWidth="1"/>
     <col min="8" max="8" width="13" style="62" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="62" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="62"/>
+    <col min="9" max="9" width="14.5546875" style="62" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="69"/>
       <c r="B1" s="259" t="s">
         <v>73</v>
@@ -6054,12 +6050,12 @@
       <c r="C1" s="257"/>
       <c r="D1" s="258"/>
       <c r="E1" s="259" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F1" s="257"/>
       <c r="G1" s="258"/>
       <c r="H1" s="259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I1" s="257"/>
       <c r="J1" s="258"/>
@@ -6079,7 +6075,7 @@
       <c r="R1" s="257"/>
       <c r="S1" s="258"/>
     </row>
-    <row r="2" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
       <c r="B2" s="200" t="s">
         <v>77</v>
@@ -6136,7 +6132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>74</v>
       </c>
@@ -6195,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>75</v>
       </c>
@@ -6254,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>80</v>
       </c>
@@ -6313,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>81</v>
       </c>
@@ -6372,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>82</v>
       </c>
@@ -6431,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>83</v>
       </c>
@@ -6490,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="151" t="s">
         <v>84</v>
       </c>
@@ -6549,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="151" t="s">
         <v>85</v>
       </c>
@@ -6608,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="199" t="s">
         <v>86</v>
       </c>
@@ -6667,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="161" t="s">
         <v>18</v>
       </c>
@@ -7031,41 +7027,41 @@
       <selection activeCell="I3" sqref="I3:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="4.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="4.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="1" customWidth="1"/>
-    <col min="19" max="20" width="12.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="12.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
-    <col min="27" max="28" width="12.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="12.5703125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="12.42578125" style="1" customWidth="1"/>
-    <col min="35" max="36" width="8.85546875" style="1"/>
-    <col min="37" max="37" width="14.85546875" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.85546875" style="1"/>
+    <col min="16" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="12.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" style="1" customWidth="1"/>
+    <col min="23" max="24" width="12.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="12.5546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.5546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.44140625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="12.5546875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="12.44140625" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.88671875" style="1"/>
+    <col min="37" max="37" width="14.88671875" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S2" s="234" t="s">
         <v>0</v>
       </c>
@@ -7103,7 +7099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -7217,7 +7213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -7312,7 +7308,7 @@
       <c r="AM4" s="19"/>
       <c r="AN4" s="19"/>
     </row>
-    <row r="5" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B5" s="20" t="s">
         <v>33</v>
       </c>
@@ -7435,7 +7431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B6" s="20" t="s">
         <v>1</v>
       </c>
@@ -7559,7 +7555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
         <v>42</v>
       </c>
@@ -7674,7 +7670,7 @@
       <c r="AM7" s="27"/>
       <c r="AN7" s="27"/>
     </row>
-    <row r="8" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
@@ -7786,7 +7782,7 @@
       </c>
       <c r="AJ8" s="87"/>
     </row>
-    <row r="9" spans="2:40" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:40" ht="19.2" x14ac:dyDescent="0.4">
       <c r="I9" s="35" t="s">
         <v>45</v>
       </c>
@@ -7876,7 +7872,7 @@
       </c>
       <c r="AJ9" s="87"/>
     </row>
-    <row r="10" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="I10" s="35" t="s">
         <v>46</v>
       </c>
@@ -7961,7 +7957,7 @@
       </c>
       <c r="AJ10" s="87"/>
     </row>
-    <row r="11" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="I11" s="35" t="s">
         <v>47</v>
       </c>
@@ -8047,7 +8043,7 @@
       </c>
       <c r="AJ11" s="87"/>
     </row>
-    <row r="12" spans="2:40" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:40" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="I12" s="35" t="s">
         <v>48</v>
       </c>
@@ -8133,7 +8129,7 @@
       </c>
       <c r="AJ12" s="87"/>
     </row>
-    <row r="13" spans="2:40" ht="21.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:40" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="B13" s="61" t="s">
         <v>49</v>
       </c>
@@ -8229,7 +8225,7 @@
       </c>
       <c r="AJ13" s="87"/>
     </row>
-    <row r="14" spans="2:40" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:40" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="31"/>
       <c r="E14" s="34"/>
       <c r="I14" s="29" t="s">
@@ -8319,7 +8315,7 @@
       </c>
       <c r="AJ14" s="87"/>
     </row>
-    <row r="15" spans="2:40" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:40" ht="18" x14ac:dyDescent="0.3">
       <c r="B15" s="31"/>
       <c r="E15" s="34"/>
       <c r="I15" s="29" t="s">
@@ -8411,7 +8407,7 @@
       </c>
       <c r="AJ15" s="87"/>
     </row>
-    <row r="16" spans="2:40" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:40" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -8519,7 +8515,7 @@
       </c>
       <c r="AJ16" s="87"/>
     </row>
-    <row r="17" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>33</v>
       </c>
@@ -8621,7 +8617,7 @@
       </c>
       <c r="AJ17" s="27"/>
     </row>
-    <row r="18" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
         <v>1</v>
       </c>
@@ -8720,7 +8716,7 @@
       </c>
       <c r="AJ18" s="27"/>
     </row>
-    <row r="19" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="s">
         <v>58</v>
       </c>
@@ -8819,7 +8815,7 @@
       </c>
       <c r="AJ19" s="27"/>
     </row>
-    <row r="20" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="19"/>
@@ -8900,7 +8896,7 @@
       </c>
       <c r="AJ20" s="27"/>
     </row>
-    <row r="21" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
       <c r="D21" s="19"/>
@@ -8982,7 +8978,7 @@
       </c>
       <c r="AJ21" s="27"/>
     </row>
-    <row r="22" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
       <c r="D22" s="19"/>
@@ -9064,7 +9060,7 @@
       </c>
       <c r="AJ22" s="27"/>
     </row>
-    <row r="23" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="58"/>
       <c r="C23" s="58"/>
       <c r="D23" s="19"/>
@@ -9146,7 +9142,7 @@
       </c>
       <c r="AJ23" s="27"/>
     </row>
-    <row r="24" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
       <c r="D24" s="19"/>
@@ -9168,7 +9164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
       <c r="D25" s="19"/>
@@ -9178,7 +9174,7 @@
       <c r="J25" s="236"/>
       <c r="K25" s="239"/>
     </row>
-    <row r="26" spans="2:36" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
       <c r="D26" s="19"/>
@@ -9261,7 +9257,7 @@
         <v>263.94800000000009</v>
       </c>
     </row>
-    <row r="27" spans="2:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="58"/>
       <c r="C27" s="58"/>
       <c r="D27" s="19"/>
@@ -9344,7 +9340,7 @@
         <v>303.90184335522252</v>
       </c>
     </row>
-    <row r="28" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="58"/>
       <c r="C28" s="58"/>
       <c r="D28" s="19"/>
@@ -9357,7 +9353,7 @@
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
     </row>
-    <row r="29" spans="2:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
       <c r="D29" s="19"/>
@@ -9367,23 +9363,23 @@
       <c r="J29" s="236"/>
       <c r="K29" s="239"/>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
       <c r="J30" s="236"/>
       <c r="K30" s="239"/>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
       <c r="J31" s="236"/>
       <c r="K31" s="239"/>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
       <c r="J32" s="236"/>
       <c r="K32" s="239"/>
     </row>
-    <row r="33" spans="10:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J33" s="237"/>
       <c r="K33" s="240"/>
     </row>
-    <row r="34" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U34" s="82"/>
       <c r="V34" s="65">
         <v>10</v>
@@ -9397,7 +9393,7 @@
       <c r="Y34"/>
       <c r="Z34"/>
     </row>
-    <row r="35" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U35" s="83" t="s">
         <v>68</v>
       </c>
@@ -9416,7 +9412,7 @@
       <c r="Y35"/>
       <c r="Z35"/>
     </row>
-    <row r="36" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U36" s="84" t="s">
         <v>69</v>
       </c>
@@ -9435,7 +9431,7 @@
       <c r="Y36"/>
       <c r="Z36"/>
     </row>
-    <row r="37" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U37" s="83" t="s">
         <v>70</v>
       </c>
@@ -9454,7 +9450,7 @@
       <c r="Y37"/>
       <c r="Z37"/>
     </row>
-    <row r="38" spans="10:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U38" s="85" t="s">
         <v>71</v>
       </c>
@@ -9473,7 +9469,7 @@
       <c r="Y38"/>
       <c r="Z38"/>
     </row>
-    <row r="39" spans="10:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
@@ -9585,14 +9581,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="str">
         <f>Discretization!A15</f>
         <v>Dynamic dT</v>
@@ -9602,10 +9598,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="244" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="str">
         <f>Parameters!A2</f>
         <v>Variable HRT</v>
@@ -9616,7 +9612,7 @@
       </c>
       <c r="C2" s="244"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="str">
         <f>Bacteria!A6</f>
         <v>Initialisation method</v>
@@ -9627,7 +9623,7 @@
       </c>
       <c r="C3" s="244"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="str">
         <f>Bacteria!A12</f>
         <v>Inactivation enabled</v>
@@ -9638,18 +9634,18 @@
       </c>
       <c r="C4" s="244"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="str">
         <f>Bacteria!A13</f>
         <v>Detachment method</v>
       </c>
       <c r="B5" s="99" t="str">
         <f>Bacteria!B13</f>
-        <v>mechanistic</v>
+        <v>none</v>
       </c>
       <c r="C5" s="244"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="str">
         <f>Solver!A4</f>
         <v>pH bulk concentration corrected</v>
@@ -9660,7 +9656,7 @@
       </c>
       <c r="C6" s="244"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="str">
         <f>Solver!A2</f>
         <v>pH solving included</v>
@@ -9671,7 +9667,7 @@
       </c>
       <c r="C7" s="244"/>
     </row>
-    <row r="8" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="str">
         <f>Solver!A5</f>
         <v>Speciation included</v>
@@ -9682,29 +9678,29 @@
       </c>
       <c r="C8" s="244"/>
     </row>
-    <row r="9" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="219"/>
       <c r="G9" s="218"/>
     </row>
-    <row r="10" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="219"/>
       <c r="G10" s="218"/>
     </row>
-    <row r="11" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="219"/>
       <c r="G11" s="218"/>
     </row>
-    <row r="12" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="219"/>
       <c r="G12" s="218"/>
     </row>
-    <row r="13" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="219"/>
     </row>
-    <row r="14" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="219"/>
     </row>
-    <row r="15" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="219"/>
     </row>
   </sheetData>
@@ -9719,20 +9715,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="62"/>
-    <col min="4" max="4" width="66.85546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="62" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="33.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="62"/>
+    <col min="4" max="4" width="66.88671875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>101</v>
       </c>
@@ -9749,7 +9745,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>102</v>
       </c>
@@ -9764,7 +9760,7 @@
       </c>
       <c r="E2" s="245"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>103</v>
       </c>
@@ -9780,7 +9776,7 @@
       </c>
       <c r="E3" s="245"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>104</v>
       </c>
@@ -9796,7 +9792,7 @@
       </c>
       <c r="E4" s="245"/>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>105</v>
       </c>
@@ -9811,7 +9807,7 @@
       </c>
       <c r="E5" s="245"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>106</v>
       </c>
@@ -9826,7 +9822,7 @@
       </c>
       <c r="E6" s="245"/>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>107</v>
       </c>
@@ -9841,7 +9837,7 @@
       </c>
       <c r="E7" s="245"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
         <v>122</v>
       </c>
@@ -9857,7 +9853,7 @@
       </c>
       <c r="E8" s="246"/>
     </row>
-    <row r="9" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
         <v>139</v>
       </c>
@@ -9874,7 +9870,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
         <v>142</v>
       </c>
@@ -9889,7 +9885,7 @@
       </c>
       <c r="E10" s="248"/>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>145</v>
       </c>
@@ -9905,7 +9901,7 @@
       </c>
       <c r="E11" s="248"/>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
         <v>154</v>
       </c>
@@ -9920,7 +9916,7 @@
       </c>
       <c r="E12" s="248"/>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
         <v>133</v>
       </c>
@@ -9935,7 +9931,7 @@
       </c>
       <c r="E13" s="248"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>134</v>
       </c>
@@ -9951,7 +9947,7 @@
       </c>
       <c r="E14" s="249"/>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="107" t="s">
         <v>158</v>
       </c>
@@ -9968,7 +9964,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
         <v>140</v>
       </c>
@@ -9983,7 +9979,7 @@
       </c>
       <c r="E16" s="248"/>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
         <v>143</v>
       </c>
@@ -9999,7 +9995,7 @@
       </c>
       <c r="E17" s="248"/>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
         <v>141</v>
       </c>
@@ -10014,7 +10010,7 @@
       </c>
       <c r="E18" s="248"/>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
         <v>144</v>
       </c>
@@ -10030,7 +10026,7 @@
       </c>
       <c r="E19" s="248"/>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
         <v>152</v>
       </c>
@@ -10045,7 +10041,7 @@
       </c>
       <c r="E20" s="248"/>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="108" t="s">
         <v>153</v>
       </c>
@@ -10060,7 +10056,7 @@
       </c>
       <c r="E21" s="248"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="77" t="s">
         <v>160</v>
       </c>
@@ -10075,7 +10071,7 @@
       </c>
       <c r="E22" s="248"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
         <v>163</v>
       </c>
@@ -10090,7 +10086,7 @@
       </c>
       <c r="E23" s="248"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
         <v>161</v>
       </c>
@@ -10105,7 +10101,7 @@
       </c>
       <c r="E24" s="248"/>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="77" t="s">
         <v>162</v>
       </c>
@@ -10120,7 +10116,7 @@
       </c>
       <c r="E25" s="248"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
         <v>170</v>
       </c>
@@ -10135,7 +10131,7 @@
       </c>
       <c r="E26" s="248"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
         <v>164</v>
       </c>
@@ -10150,7 +10146,7 @@
       </c>
       <c r="E27" s="248"/>
     </row>
-    <row r="28" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="89" t="s">
         <v>165</v>
       </c>
@@ -10194,16 +10190,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" style="62" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="62"/>
+    <col min="1" max="1" width="21.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" style="62" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>99</v>
       </c>
@@ -10218,7 +10214,7 @@
       </c>
       <c r="E1" s="69"/>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>178</v>
       </c>
@@ -10233,7 +10229,7 @@
       </c>
       <c r="E2" s="69"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>181</v>
       </c>
@@ -10249,7 +10245,7 @@
       </c>
       <c r="E3" s="69"/>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="108" t="s">
         <v>182</v>
       </c>
@@ -10260,11 +10256,11 @@
         <v>97</v>
       </c>
       <c r="D4" s="123" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="69"/>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>39</v>
       </c>
@@ -10279,9 +10275,9 @@
       </c>
       <c r="E5" s="69"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="154">
         <f>B5+273.15</f>
@@ -10291,11 +10287,11 @@
         <v>41</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E6" s="69"/>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>177</v>
       </c>
@@ -10310,7 +10306,7 @@
       </c>
       <c r="E7" s="69"/>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
         <v>176</v>
       </c>
@@ -10326,7 +10322,7 @@
       </c>
       <c r="E8" s="69"/>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>175</v>
       </c>
@@ -10335,122 +10331,122 @@
         <v>8.3143999999999996E-3</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D9" s="110" t="s">
         <v>175</v>
       </c>
       <c r="E9" s="69"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11" s="69"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" s="69"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" s="94"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="69"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -10484,19 +10480,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="62"/>
+    <col min="1" max="1" width="9.109375" style="62"/>
     <col min="2" max="2" width="12" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="62" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="62"/>
-    <col min="7" max="7" width="11.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="62"/>
+    <col min="3" max="3" width="9.109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="62"/>
+    <col min="7" max="7" width="11.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
@@ -10514,7 +10510,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
@@ -10530,7 +10526,7 @@
       </c>
       <c r="E2" s="250"/>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
@@ -10546,7 +10542,7 @@
       </c>
       <c r="E3" s="250"/>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
@@ -10562,7 +10558,7 @@
       </c>
       <c r="E4" s="250"/>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
@@ -10578,7 +10574,7 @@
       </c>
       <c r="E5" s="250"/>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
         <v>83</v>
       </c>
@@ -10594,7 +10590,7 @@
       </c>
       <c r="E6" s="250"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
         <v>84</v>
       </c>
@@ -10624,20 +10620,20 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="62"/>
-    <col min="4" max="4" width="79.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="37.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="62"/>
+    <col min="4" max="4" width="79.6640625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>190</v>
       </c>
@@ -10652,7 +10648,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>191</v>
       </c>
@@ -10667,7 +10663,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>192</v>
       </c>
@@ -10682,7 +10678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>193</v>
       </c>
@@ -10697,7 +10693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>194</v>
       </c>
@@ -10711,21 +10707,21 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="143" t="s">
         <v>224</v>
-      </c>
-      <c r="B6" s="143" t="s">
-        <v>225</v>
       </c>
       <c r="C6" s="141" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>196</v>
       </c>
@@ -10740,9 +10736,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B8" s="231">
         <f>_xlfn.CEILING.MATH(B7^2 / (0.8*B3 * B11)^2 * 0.75)</f>
@@ -10752,12 +10748,12 @@
         <v>97</v>
       </c>
       <c r="D8" s="130" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="230">
         <v>500</v>
@@ -10766,10 +10762,10 @@
         <v>97</v>
       </c>
       <c r="D9" s="137" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="s">
         <v>197</v>
       </c>
@@ -10784,7 +10780,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>118</v>
       </c>
@@ -10798,7 +10794,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
         <v>207</v>
       </c>
@@ -10812,21 +10808,21 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="139" t="s">
         <v>209</v>
       </c>
       <c r="B13" s="140" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="C13" s="141" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="142" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
         <v>210</v>
       </c>
@@ -10837,10 +10833,10 @@
         <v>211</v>
       </c>
       <c r="D14" s="130" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="108" t="s">
         <v>195</v>
       </c>
@@ -10855,23 +10851,23 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="69"/>
       <c r="B16" s="94"/>
       <c r="C16" s="69"/>
       <c r="D16" s="69"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="94"/>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="69"/>
       <c r="D19" s="94"/>
       <c r="E19" s="69"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
       <c r="E20" s="94"/>
@@ -10921,15 +10917,15 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="131">
         <v>9.9999999999999995E-7</v>
@@ -10938,12 +10934,12 @@
         <v>87</v>
       </c>
       <c r="D1" s="130" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B2" s="132" t="b">
         <v>1</v>
@@ -10952,10 +10948,10 @@
         <v>97</v>
       </c>
       <c r="D2" s="130" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>189</v>
       </c>
@@ -10966,12 +10962,12 @@
         <v>97</v>
       </c>
       <c r="D3" s="130" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="132" t="b">
         <v>1</v>
@@ -10980,12 +10976,12 @@
         <v>97</v>
       </c>
       <c r="D4" s="130" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="132" t="b">
         <v>1</v>
@@ -10994,12 +10990,12 @@
         <v>97</v>
       </c>
       <c r="D5" s="130" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="131">
         <v>1E-8</v>
@@ -11008,12 +11004,12 @@
         <v>97</v>
       </c>
       <c r="D6" s="130" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="135">
         <v>5.0000000000000001E-3</v>
@@ -11022,26 +11018,26 @@
         <v>109</v>
       </c>
       <c r="D7" s="130" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="132" t="s">
         <v>216</v>
-      </c>
-      <c r="B8" s="132" t="s">
-        <v>217</v>
       </c>
       <c r="C8" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D8" s="130" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="132">
         <v>2</v>
@@ -11050,12 +11046,12 @@
         <v>97</v>
       </c>
       <c r="D9" s="130" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="230" t="b">
         <v>0</v>
@@ -11064,12 +11060,12 @@
         <v>97</v>
       </c>
       <c r="D10" s="233" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="132" t="b">
         <v>0</v>
@@ -11078,12 +11074,12 @@
         <v>97</v>
       </c>
       <c r="D11" s="144" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="132" t="s">
         <v>113</v>
@@ -11092,7 +11088,7 @@
         <v>97</v>
       </c>
       <c r="D12" s="144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -11130,15 +11126,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="62"/>
-    <col min="4" max="4" width="4.42578125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="62.5703125" style="62" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="3" width="9.109375" style="62"/>
+    <col min="4" max="4" width="4.44140625" style="62" customWidth="1"/>
+    <col min="5" max="5" width="62.5546875" style="62" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
         <v>74</v>
       </c>
@@ -11152,7 +11148,7 @@
         <v>20</v>
       </c>
       <c r="E1" s="252" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
@@ -11160,7 +11156,7 @@
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>75</v>
       </c>
@@ -11180,7 +11176,7 @@
       <c r="I2" s="69"/>
       <c r="J2" s="69"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>80</v>
       </c>
@@ -11200,7 +11196,7 @@
       <c r="I3" s="69"/>
       <c r="J3" s="69"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>81</v>
       </c>
@@ -11220,7 +11216,7 @@
       <c r="I4" s="69"/>
       <c r="J4" s="69"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>82</v>
       </c>
@@ -11240,7 +11236,7 @@
       <c r="I5" s="69"/>
       <c r="J5" s="69"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>83</v>
       </c>
@@ -11261,7 +11257,7 @@
       <c r="I6" s="69"/>
       <c r="J6" s="69"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>84</v>
       </c>
@@ -11282,7 +11278,7 @@
       <c r="I7" s="69"/>
       <c r="J7" s="69"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="69"/>
       <c r="B13" s="69"/>
       <c r="C13" s="69"/>
@@ -11294,7 +11290,7 @@
       <c r="I13" s="69"/>
       <c r="J13" s="70"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="69"/>
       <c r="B16" s="69"/>
       <c r="C16" s="69"/>
